--- a/files/Apatite_calculator.xlsx
+++ b/files/Apatite_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianji/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AED436-7BA6-D54B-9C89-71A429FCE33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B31CD83-EDCE-A640-92FB-5253D4E72792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E6C10F45-B446-D346-AD47-2F6A1762E94A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="Apatite_Kd_Calculator" sheetId="1" r:id="rId2"/>
     <sheet name="Multiple_Kd_Calculator" sheetId="3" r:id="rId3"/>
-    <sheet name="Eu in apt-plag oxybarometer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="129">
   <si>
     <t>FeO</t>
   </si>
@@ -933,99 +932,32 @@
     <t>Tailby, N.D., Trail, D., Watson, B., Lanzirotti, A., Newville, M., Wang, Y., 2023. Eu speciation in apatite at 1 bar: An experimental study of valence-state partitioning by XANES, lattice strain, and Eu/Eu* in basaltic systems. American Mineralogist 108, 789-813.</t>
   </si>
   <si>
-    <t>2. OUTPUT FORMULAS</t>
-  </si>
-  <si>
-    <t>4. OUTPUT OXYGEN FUGACITY</t>
-  </si>
-  <si>
-    <t>Apt</t>
-  </si>
-  <si>
-    <t>Plag</t>
-  </si>
-  <si>
-    <t>Floss, C., Jolliff, B.L., Benedix, G.K., Stadermann, F.J., Reid, J., 2007. Hammadah al Hamra 193: The first amphibole-bearing winonaite. American Mineralogist 92, 460-467.</t>
-  </si>
-  <si>
-    <t>Pressure (Gpa)</t>
+    <t>1. Go to the sheet "Apatite_Kd_Calculator" for details about partition coefficient calculation.</t>
+  </si>
+  <si>
+    <t>Sun, C.G., Graff, M., Liang, Y., 2017. Trace element partitioning between plagioclase and silicate melt: The importance of temperature and plagioclase composition, with implications for terrestrial and lunar magmatism. Geochimica et Cosmochimica Acta 206, 273-295.</t>
+  </si>
+  <si>
+    <t>Stepanov, A.S., Zhukova, I.A., Jiang, S.-Y., 2023. Experimental constraints on miscibility gap between apatite and britholite and REE partitioning in an alkaline melt. American Mineralogist 108, 1043-1052.</t>
+  </si>
+  <si>
+    <t>Stepanov et al. (2023)</t>
+  </si>
+  <si>
+    <t>Apatite</t>
+  </si>
+  <si>
+    <t>E-mail: dj56@rice.edu</t>
+  </si>
+  <si>
+    <t>Supplement to: Trace element partitioning between apatite and silicate melts: Effects of major element composition, temperature, and oxygen fugacity, and implications for the volatile element budget of the lunar magma ocean</t>
+  </si>
+  <si>
+    <t>1. INPUT APATITE CONCENTRATIONS AND TEMPERATURES</t>
   </si>
   <si>
     <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Eu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (ppm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>log(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>delta IW</t>
-  </si>
-  <si>
-    <t>This study</t>
-  </si>
-  <si>
-    <t>Floss et al. (2007)</t>
-  </si>
-  <si>
-    <t>1. Go to the sheet "Apatite_Kd_Calculator" for details about partition coefficient calculation.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. Input the required data for the part </t>
+      <t xml:space="preserve">3. Input the required data for the part </t>
     </r>
     <r>
       <rPr>
@@ -1047,182 +979,27 @@
     </r>
   </si>
   <si>
-    <t>6. The plagioclase trace element predictive models are from Sun et al. (2017).</t>
-  </si>
-  <si>
-    <t>7. Details about apatite formula calculation can be found in Ketcham (2015).</t>
-  </si>
-  <si>
-    <t>Sun, C.G., Graff, M., Liang, Y., 2017. Trace element partitioning between plagioclase and silicate melt: The importance of temperature and plagioclase composition, with implications for terrestrial and lunar magmatism. Geochimica et Cosmochimica Acta 206, 273-295.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. Go to the sheet "Eu in apt-plag oxybarometer" for calculation of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> by coexisting apatite and plagioclase.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5. The formula of mineral, trace element partition coefficients and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> will update automatically.</t>
-    </r>
-  </si>
-  <si>
-    <t>OHAP-1</t>
-  </si>
-  <si>
-    <t>HaH 193</t>
-  </si>
-  <si>
-    <t>ON-07–120</t>
-  </si>
-  <si>
-    <t>ON-07–125</t>
-  </si>
-  <si>
-    <t>S9-148</t>
-  </si>
-  <si>
-    <t>S9-208,8</t>
-  </si>
-  <si>
-    <t>S9-214,8</t>
-  </si>
-  <si>
-    <t>Kieffer, M.A., Dare, S.A., Namur, O., 2023. The use of trace elements in apatite to trace differentiation of a ferrobasaltic melt in the Sept-Iles Intrusive Suite, Quebec, Canada: Implications for provenance discrimination. Geochimica et Cosmochimica Acta 342, 169-197.</t>
-  </si>
-  <si>
-    <r>
-      <t>Kieffer et al. (2023)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
-    <t>delta FMQ</t>
-  </si>
-  <si>
-    <t>Stepanov, A.S., Zhukova, I.A., Jiang, S.-Y., 2023. Experimental constraints on miscibility gap between apatite and britholite and REE partitioning in an alkaline melt. American Mineralogist 108, 1043-1052.</t>
-  </si>
-  <si>
-    <t>Stepanov et al. (2023)</t>
-  </si>
-  <si>
-    <t>Apatite</t>
-  </si>
-  <si>
-    <t>Mineral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. The major element concentrations of plagioclase are calculated by LA-ICM-MS results in Table S5B from Kieffer et al. (2023). </t>
-  </si>
-  <si>
-    <t>E-mail: dj56@rice.edu</t>
-  </si>
-  <si>
-    <t>Supplement to: Trace element partitioning between apatite and silicate melts: Effects of major element composition, temperature, and oxygen fugacity, and implications for the volatile element budget of the lunar magma ocean</t>
-  </si>
-  <si>
-    <t>1. INPUT  TEMPERATURES, PRESSURES, APATITE AND PLAGIOCLASE CONCENTRATIONS</t>
-  </si>
-  <si>
-    <t>1. INPUT APATITE CONCENTRATIONS AND TEMPERATURES</t>
+    <t>4. The formula of mineral, trace element partition coefficients will update automatically.</t>
+  </si>
+  <si>
+    <t>5. The plagioclase trace element predictive models are from Sun et al. (2017).</t>
+  </si>
+  <si>
+    <t>6. Details about apatite formula calculation can be found in Ketcham (2015).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000&quot; &quot;;\(0.000\)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00&quot; &quot;;\(0.00\)"/>
     <numFmt numFmtId="167" formatCode="0.00_);\(0.00\)"/>
     <numFmt numFmtId="168" formatCode="0.00000000000000_);\(0.00000000000000\)"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1366,53 +1143,12 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1437,12 +1173,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CCC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1456,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1609,42 +1339,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,52 +1349,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4465,7 +4114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00570894-18D5-E44C-91F5-A235CAFDF8AE}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4476,7 +4125,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -4486,7 +4135,7 @@
     </row>
     <row r="3" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -4499,7 +4148,7 @@
     </row>
     <row r="6" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20" x14ac:dyDescent="0.2">
@@ -4507,44 +4156,39 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="24" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5797,57 +5441,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3 B2:L6 N2:O6 B12:E12">
-    <cfRule type="cellIs" dxfId="22" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54 A55:E65 A67:E68">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:D70">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L9 B10:O11 B15:E16">
-    <cfRule type="cellIs" dxfId="19" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="18" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F23">
-    <cfRule type="cellIs" dxfId="17" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="16" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F87">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H65 I55:I68">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="13" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:AC5">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5880,54 +5524,54 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
       <c r="AB2" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="69" t="s">
+      <c r="AC2" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" s="69"/>
+      <c r="AD2" s="55"/>
       <c r="AE2" s="46" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -6022,7 +5666,7 @@
         <v>110</v>
       </c>
       <c r="AE3" s="33" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="18" x14ac:dyDescent="0.2">
@@ -11814,7 +11458,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="46" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
@@ -12017,1978 +11661,17 @@
     <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A14 A16:A18">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A32 A34:A35">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:AE35">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047B3579-B71D-6844-804A-E452DA831E9A}">
-  <dimension ref="A1:O60"/>
-  <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="33"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="O2" s="68"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="32">
-        <v>0.78955555555555557</v>
-      </c>
-      <c r="C5" s="60">
-        <v>56.52075</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55">
-        <v>61.9</v>
-      </c>
-      <c r="F5" s="55">
-        <v>0.37</v>
-      </c>
-      <c r="G5" s="55">
-        <v>59.8965963154102</v>
-      </c>
-      <c r="H5" s="55">
-        <v>0.21</v>
-      </c>
-      <c r="I5" s="55">
-        <v>57.788126702953598</v>
-      </c>
-      <c r="J5" s="55">
-        <v>0.12</v>
-      </c>
-      <c r="K5" s="55">
-        <v>55.02261110740119</v>
-      </c>
-      <c r="L5" s="55">
-        <v>0.26</v>
-      </c>
-      <c r="M5" s="55">
-        <v>60.172499776563313</v>
-      </c>
-      <c r="N5" s="55">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="55">
-        <v>52.985925671897235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="32">
-        <v>7.1111111111111111E-2</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="32">
-        <v>3.8777777777777779E-2</v>
-      </c>
-      <c r="C7" s="60">
-        <v>27.19275</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="55">
-        <v>23.3</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55">
-        <v>25.560685520818996</v>
-      </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55">
-        <v>26.625417000961967</v>
-      </c>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55">
-        <v>27.648923557380808</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55">
-        <v>25.938186311515715</v>
-      </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55">
-        <v>30.001140128034592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1.9906666666666668</v>
-      </c>
-      <c r="C8" s="60">
-        <v>0.59224999999999994</v>
-      </c>
-      <c r="D8" s="55">
-        <v>0.4</v>
-      </c>
-      <c r="E8" s="55">
-        <v>0.19</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55">
-        <v>0.68084832999255984</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55">
-        <v>1.0096530128796644</v>
-      </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55">
-        <v>2.3779981755052235</v>
-      </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55">
-        <v>0.3903556041194845</v>
-      </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55">
-        <v>0.55862360579328718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="32">
-        <v>0.29622222222222228</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="32">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="32">
-        <v>53.208444444444439</v>
-      </c>
-      <c r="C11" s="60">
-        <v>9.8752499999999994</v>
-      </c>
-      <c r="D11" s="55">
-        <v>54.4</v>
-      </c>
-      <c r="E11" s="55">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="F11" s="55">
-        <v>54.57</v>
-      </c>
-      <c r="G11" s="55">
-        <v>6.8589760794035177</v>
-      </c>
-      <c r="H11" s="55">
-        <v>54.57</v>
-      </c>
-      <c r="I11" s="55">
-        <v>7.9280771321221213</v>
-      </c>
-      <c r="J11" s="55">
-        <v>53.65</v>
-      </c>
-      <c r="K11" s="55">
-        <v>8.5418387568128686</v>
-      </c>
-      <c r="L11" s="55">
-        <v>53.84</v>
-      </c>
-      <c r="M11" s="55">
-        <v>6.2184986908987234</v>
-      </c>
-      <c r="N11" s="55">
-        <v>53.92</v>
-      </c>
-      <c r="O11" s="55">
-        <v>10.548876170773347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="32">
-        <v>4.6444444444444441E-2</v>
-      </c>
-      <c r="C12" s="60">
-        <v>4.870750000000001</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="55">
-        <v>8.92</v>
-      </c>
-      <c r="F12" s="55">
-        <v>5.15031304347826E-2</v>
-      </c>
-      <c r="G12" s="55">
-        <v>13.825054336519342</v>
-      </c>
-      <c r="H12" s="55">
-        <v>5.7959217391304357E-2</v>
-      </c>
-      <c r="I12" s="55">
-        <v>13.248561663380375</v>
-      </c>
-      <c r="J12" s="55">
-        <v>3.9450869565217393E-2</v>
-      </c>
-      <c r="K12" s="55">
-        <v>11.685541819918345</v>
-      </c>
-      <c r="L12" s="55">
-        <v>6.31658695652174E-2</v>
-      </c>
-      <c r="M12" s="55">
-        <v>14.245448300312759</v>
-      </c>
-      <c r="N12" s="55">
-        <v>2.3671869565217388E-2</v>
-      </c>
-      <c r="O12" s="55">
-        <v>11.009316498015945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="60">
-        <v>1.2517500000000001</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="55">
-        <v>0.4</v>
-      </c>
-      <c r="F13" s="55">
-        <v>3.6744358974358975E-3</v>
-      </c>
-      <c r="G13" s="55">
-        <v>0.91285631567123271</v>
-      </c>
-      <c r="H13" s="55">
-        <v>6.9535897435897434E-4</v>
-      </c>
-      <c r="I13" s="55">
-        <v>0.56692767118122045</v>
-      </c>
-      <c r="J13" s="55">
-        <v>2.1294615384615388E-3</v>
-      </c>
-      <c r="K13" s="55">
-        <v>0.22548199768576796</v>
-      </c>
-      <c r="L13" s="55">
-        <v>8.4334871794871803E-3</v>
-      </c>
-      <c r="M13" s="55">
-        <v>1.6793358283963</v>
-      </c>
-      <c r="N13" s="55">
-        <v>1.5775128205128205E-3</v>
-      </c>
-      <c r="O13" s="55">
-        <v>0.10052712509145763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="32">
-        <v>40.235111111111109</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55">
-        <v>41.8</v>
-      </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55">
-        <v>40.71</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55">
-        <v>40.770000000000003</v>
-      </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55">
-        <v>40.44</v>
-      </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55">
-        <v>40.9</v>
-      </c>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55">
-        <v>40.729999999999997</v>
-      </c>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="32">
-        <v>0</v>
-      </c>
-      <c r="C16" s="55">
-        <v>2E-3</v>
-      </c>
-      <c r="D16" s="56">
-        <v>3.38</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55">
-        <v>2.92</v>
-      </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55">
-        <v>3.22</v>
-      </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55">
-        <v>3.33</v>
-      </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55">
-        <v>3.69</v>
-      </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55">
-        <v>3.19</v>
-      </c>
-      <c r="O16" s="55"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="32">
-        <v>4.1666666666666671E-2</v>
-      </c>
-      <c r="C17" s="55">
-        <v>2E-3</v>
-      </c>
-      <c r="D17" s="56">
-        <v>0.71</v>
-      </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55">
-        <v>0.12</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55">
-        <v>0.12</v>
-      </c>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55">
-        <v>0.09</v>
-      </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55">
-        <v>0.05</v>
-      </c>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55">
-        <v>0.08</v>
-      </c>
-      <c r="O17" s="55"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="32">
-        <f t="shared" ref="B18:G18" si="0">SUM(B5:B17)</f>
-        <v>96.774999999999991</v>
-      </c>
-      <c r="C18" s="32">
-        <f t="shared" si="0"/>
-        <v>100.30749999999998</v>
-      </c>
-      <c r="D18" s="32">
-        <f t="shared" si="0"/>
-        <v>100.68999999999998</v>
-      </c>
-      <c r="E18" s="32">
-        <f t="shared" si="0"/>
-        <v>99.15</v>
-      </c>
-      <c r="F18" s="55">
-        <f t="shared" si="0"/>
-        <v>98.745177566332231</v>
-      </c>
-      <c r="G18" s="55">
-        <f t="shared" si="0"/>
-        <v>107.73501689781585</v>
-      </c>
-      <c r="H18" s="55">
-        <f t="shared" ref="H18:O18" si="1">SUM(H5:H17)</f>
-        <v>98.948654576365669</v>
-      </c>
-      <c r="I18" s="55">
-        <f t="shared" si="1"/>
-        <v>107.16676318347895</v>
-      </c>
-      <c r="J18" s="55">
-        <f t="shared" si="1"/>
-        <v>97.671580331103669</v>
-      </c>
-      <c r="K18" s="55">
-        <f t="shared" si="1"/>
-        <v>105.5023954147042</v>
-      </c>
-      <c r="L18" s="55">
-        <f t="shared" si="1"/>
-        <v>98.811599356744708</v>
-      </c>
-      <c r="M18" s="55">
-        <f t="shared" si="1"/>
-        <v>108.6443245118063</v>
-      </c>
-      <c r="N18" s="55">
-        <f t="shared" si="1"/>
-        <v>98.065249382385716</v>
-      </c>
-      <c r="O18" s="55">
-        <f t="shared" si="1"/>
-        <v>105.20440919960588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="33">
-        <v>1050</v>
-      </c>
-      <c r="C20" s="33">
-        <v>1050</v>
-      </c>
-      <c r="D20" s="52">
-        <v>1100</v>
-      </c>
-      <c r="E20" s="52">
-        <v>1100</v>
-      </c>
-      <c r="F20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="G20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="H20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="I20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="J20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="K20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="L20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="M20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="N20" s="67">
-        <v>1050</v>
-      </c>
-      <c r="O20" s="67">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="33">
-        <v>1</v>
-      </c>
-      <c r="C21" s="33">
-        <v>1</v>
-      </c>
-      <c r="D21" s="52">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="52">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="G21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="H21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="J21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="K21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="L21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="M21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="N21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="O21" s="55">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="57">
-        <v>38.941232373075742</v>
-      </c>
-      <c r="C22" s="57">
-        <v>22.48</v>
-      </c>
-      <c r="D22" s="55">
-        <v>0.69</v>
-      </c>
-      <c r="E22" s="58">
-        <v>0.4</v>
-      </c>
-      <c r="F22" s="55">
-        <v>56.81</v>
-      </c>
-      <c r="G22" s="55">
-        <v>11.39</v>
-      </c>
-      <c r="H22" s="55">
-        <v>47.52</v>
-      </c>
-      <c r="I22" s="55">
-        <v>7.25</v>
-      </c>
-      <c r="J22" s="55">
-        <v>45.65</v>
-      </c>
-      <c r="K22" s="55">
-        <v>2.99</v>
-      </c>
-      <c r="L22" s="55">
-        <v>37.56</v>
-      </c>
-      <c r="M22" s="55">
-        <v>6.69</v>
-      </c>
-      <c r="N22" s="55">
-        <v>57.38</v>
-      </c>
-      <c r="O22" s="55">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="30">
-        <f>B5/60.8*2*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/2*1</f>
-        <v>0.13365352175769699</v>
-      </c>
-      <c r="C25" s="29">
-        <f>C5/60.8*2*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/2*1</f>
-        <v>2.5332712764011962</v>
-      </c>
-      <c r="D25" s="30">
-        <f>D5/60.8*2*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="29">
-        <f>E5/60.8*2*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/2*1</f>
-        <v>2.7593115701401434</v>
-      </c>
-      <c r="F25" s="30">
-        <f>F5/60.8*2*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/2*1</f>
-        <v>6.2862543466016094E-2</v>
-      </c>
-      <c r="G25" s="29">
-        <f>G5/60.8*2*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/2*1</f>
-        <v>2.5530951231920045</v>
-      </c>
-      <c r="H25" s="30">
-        <f>H5/60.8*2*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/2*1</f>
-        <v>3.5724161223549183E-2</v>
-      </c>
-      <c r="I25" s="29">
-        <f>I5/60.8*2*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/2*1</f>
-        <v>2.4852514589585426</v>
-      </c>
-      <c r="J25" s="30">
-        <f>J5/60.8*2*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/2*1</f>
-        <v>2.0681393521807995E-2</v>
-      </c>
-      <c r="K25" s="29">
-        <f>K5/60.8*2*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/2*1</f>
-        <v>2.4134173248793194</v>
-      </c>
-      <c r="L25" s="30">
-        <f>L5/60.8*2*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/2*1</f>
-        <v>4.4351510264773665E-2</v>
-      </c>
-      <c r="M25" s="29">
-        <f>M5/60.8*2*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/2*1</f>
-        <v>2.5486411354681962</v>
-      </c>
-      <c r="N25" s="30">
-        <f>N5/60.8*2*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/2*1</f>
-        <v>2.0554150745741434E-2</v>
-      </c>
-      <c r="O25" s="29">
-        <f>O5/60.8*2*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/2*1</f>
-        <v>2.3237398209465283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="30">
-        <f>B6/79.87*2*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/2*1</f>
-        <v>9.1633668267004538E-3</v>
-      </c>
-      <c r="C26" s="29">
-        <f>C6/79.87*2*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
-        <f>D6/79.87*2*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <f>E6/79.87*2*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="30">
-        <f>F6/79.87*2*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="29">
-        <f>G6/79.87*2*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="30">
-        <f>H6/79.87*2*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="29">
-        <f>I6/79.87*2*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="30">
-        <f>J6/79.87*2*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="29">
-        <f>K6/79.87*2*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="30">
-        <f>L6/79.87*2*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="29">
-        <f>M6/79.87*2*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="30">
-        <f>N6/79.87*2*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/2*1</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="29">
-        <f>O6/79.87*2*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/2*1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="30">
-        <f>B7/101.96*3*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/3*2</f>
-        <v>7.8286049629925133E-3</v>
-      </c>
-      <c r="C27" s="29">
-        <f>C7/101.96*3*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/3*2</f>
-        <v>1.4535522941814729</v>
-      </c>
-      <c r="D27" s="30">
-        <f>D7/101.96*3*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="29">
-        <f>E7/101.96*3*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/3*2</f>
-        <v>1.2387103380283859</v>
-      </c>
-      <c r="F27" s="30">
-        <f>F7/101.96*3*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="29">
-        <f>G7/101.96*3*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/3*2</f>
-        <v>1.299394719236536</v>
-      </c>
-      <c r="H27" s="30">
-        <f>H7/101.96*3*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="29">
-        <f>I7/101.96*3*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/3*2</f>
-        <v>1.3656263486668179</v>
-      </c>
-      <c r="J27" s="30">
-        <f>J7/101.96*3*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="29">
-        <f>K7/101.96*3*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/3*2</f>
-        <v>1.4463493537724841</v>
-      </c>
-      <c r="L27" s="30">
-        <f>L7/101.96*3*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="29">
-        <f>M7/101.96*3*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/3*2</f>
-        <v>1.310249455788711</v>
-      </c>
-      <c r="N27" s="30">
-        <f>N7/101.96*3*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="29">
-        <f>O7/101.96*3*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/3*2</f>
-        <v>1.56916452793491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="30">
-        <f>B8/71.85*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>0.28514979538457941</v>
-      </c>
-      <c r="C28" s="29">
-        <f>C8/71.85*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
-        <v>2.2462374259222935E-2</v>
-      </c>
-      <c r="D28" s="30">
-        <f>D8/71.85*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
-        <v>5.6852637855418657E-2</v>
-      </c>
-      <c r="E28" s="29">
-        <f>E8/71.85*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
-        <v>7.1670510966818403E-3</v>
-      </c>
-      <c r="F28" s="30">
-        <f>F8/71.85*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="29">
-        <f>G8/71.85*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
-        <v>2.4557945743248034E-2</v>
-      </c>
-      <c r="H28" s="30">
-        <f>H8/71.85*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="29">
-        <f>I8/71.85*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
-        <v>3.6743512762050123E-2</v>
-      </c>
-      <c r="J28" s="30">
-        <f>J8/71.85*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="29">
-        <f>K8/71.85*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
-        <v>8.8263176629399226E-2</v>
-      </c>
-      <c r="L28" s="30">
-        <f>L8/71.85*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="29">
-        <f>M8/71.85*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
-        <v>1.3990971112741885E-2</v>
-      </c>
-      <c r="N28" s="30">
-        <f>N8/71.85*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="29">
-        <f>O8/71.85*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
-        <v>2.0731134296659556E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="30">
-        <f>B9/70.94*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>4.2976173463575636E-2</v>
-      </c>
-      <c r="C29" s="29">
-        <f>C9/70.94*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="30">
-        <f>D9/70.94*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="29">
-        <f>E9/70.94*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="30">
-        <f>F9/70.94*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="29">
-        <f>G9/70.94*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="30">
-        <f>H9/70.94*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="29">
-        <f>I9/70.94*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="30">
-        <f>J9/70.94*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="29">
-        <f>K9/70.94*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="30">
-        <f>L9/70.94*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="29">
-        <f>M9/70.94*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="30">
-        <f>N9/70.94*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="29">
-        <f>O9/70.94*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="30">
-        <f>B10/40.3*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>1.4556973853679982E-2</v>
-      </c>
-      <c r="C30" s="29">
-        <f>C10/40.3*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="30">
-        <f>D10/40.3*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="29">
-        <f>E10/40.3*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="30">
-        <f>F10/40.3*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="29">
-        <f>G10/40.3*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="30">
-        <f>H10/40.3*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="29">
-        <f>I10/40.3*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="30">
-        <f>J10/40.3*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="29">
-        <f>K10/40.3*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="30">
-        <f>L10/40.3*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="29">
-        <f>M10/40.3*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="30">
-        <f>N10/40.3*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="29">
-        <f>O10/40.3*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="30">
-        <f>B11/56.08*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*1</f>
-        <v>9.7650360272550127</v>
-      </c>
-      <c r="C31" s="29">
-        <f>C11/56.08*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*1</f>
-        <v>0.47986321135740068</v>
-      </c>
-      <c r="D31" s="30">
-        <f>D11/56.08*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*1</f>
-        <v>9.9062274619830379</v>
-      </c>
-      <c r="E31" s="29">
-        <f>E11/56.08*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*1</f>
-        <v>0.21457970179413438</v>
-      </c>
-      <c r="F31" s="30">
-        <f>F11/56.08*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*1</f>
-        <v>10.05170543113999</v>
-      </c>
-      <c r="G31" s="29">
-        <f>G11/56.08*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*1</f>
-        <v>0.31697113485154049</v>
-      </c>
-      <c r="H31" s="30">
-        <f>H11/56.08*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*1</f>
-        <v>10.064501618480401</v>
-      </c>
-      <c r="I31" s="29">
-        <f>I11/56.08*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*1</f>
-        <v>0.36965378901565121</v>
-      </c>
-      <c r="J31" s="30">
-        <f>J11/56.08*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*1</f>
-        <v>10.024526146673789</v>
-      </c>
-      <c r="K31" s="29">
-        <f>K11/56.08*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*1</f>
-        <v>0.40619836718723812</v>
-      </c>
-      <c r="L31" s="30">
-        <f>L11/56.08*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*1</f>
-        <v>9.9571646966866822</v>
-      </c>
-      <c r="M31" s="29">
-        <f>M11/56.08*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*1</f>
-        <v>0.28555630649687519</v>
-      </c>
-      <c r="N31" s="30">
-        <f>N11/56.08*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*1</f>
-        <v>10.012989232523624</v>
-      </c>
-      <c r="O31" s="29">
-        <f>O11/56.08*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*1</f>
-        <v>0.50156675542242968</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="30">
-        <f>B12/61.98*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*2</f>
-        <v>1.5424585013890584E-2</v>
-      </c>
-      <c r="C32" s="29">
-        <f>C12/61.98*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*2</f>
-        <v>0.42830350165655984</v>
-      </c>
-      <c r="D32" s="30">
-        <f>D12/61.98*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*2</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="29">
-        <f>E12/61.98*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*2</f>
-        <v>0.78011198552429217</v>
-      </c>
-      <c r="F32" s="30">
-        <f>F12/61.98*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*2</f>
-        <v>1.7167452513541338E-2</v>
-      </c>
-      <c r="G32" s="29">
-        <f>G12/61.98*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*2</f>
-        <v>1.1561487183870909</v>
-      </c>
-      <c r="H32" s="30">
-        <f>H12/61.98*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*2</f>
-        <v>1.9344043567025265E-2</v>
-      </c>
-      <c r="I32" s="29">
-        <f>I12/61.98*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*2</f>
-        <v>1.1178472315086507</v>
-      </c>
-      <c r="J32" s="30">
-        <f>J12/61.98*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*2</f>
-        <v>1.3339425799169457E-2</v>
-      </c>
-      <c r="K32" s="29">
-        <f>K12/61.98*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*2</f>
-        <v>1.0055926421461443</v>
-      </c>
-      <c r="L32" s="30">
-        <f>L12/61.98*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*2</f>
-        <v>2.1139735412692647E-2</v>
-      </c>
-      <c r="M32" s="29">
-        <f>M12/61.98*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*2</f>
-        <v>1.1837738945962513</v>
-      </c>
-      <c r="N32" s="30">
-        <f>N12/61.98*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*2</f>
-        <v>7.9548657279235289E-3</v>
-      </c>
-      <c r="O32" s="29">
-        <f>O12/61.98*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*2</f>
-        <v>0.94726029631398256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="30">
-        <f>B13/94.2*1*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/1*2</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="29">
-        <f>C13/94.2*1*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/1*2</f>
-        <v>7.2422590482331656E-2</v>
-      </c>
-      <c r="D33" s="30">
-        <f>D13/94.2*1*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/1*2</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="29">
-        <f>E13/94.2*1*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/1*2</f>
-        <v>2.3017214048344628E-2</v>
-      </c>
-      <c r="F33" s="30">
-        <f>F13/94.2*1*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/1*2</f>
-        <v>8.058673717789499E-4</v>
-      </c>
-      <c r="G33" s="29">
-        <f>G13/94.2*1*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/1*2</f>
-        <v>5.0228469945706615E-2</v>
-      </c>
-      <c r="H33" s="30">
-        <f>H13/94.2*1*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/1*2</f>
-        <v>1.5269839848155916E-4</v>
-      </c>
-      <c r="I33" s="29">
-        <f>I13/94.2*1*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/1*2</f>
-        <v>3.1473283101322351E-2</v>
-      </c>
-      <c r="J33" s="30">
-        <f>J13/94.2*1*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/1*2</f>
-        <v>4.7375196561249948E-4</v>
-      </c>
-      <c r="K33" s="29">
-        <f>K13/94.2*1*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/1*2</f>
-        <v>1.2766909385848752E-2</v>
-      </c>
-      <c r="L33" s="30">
-        <f>L13/94.2*1*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/1*2</f>
-        <v>1.8570556840681737E-3</v>
-      </c>
-      <c r="M33" s="29">
-        <f>M13/94.2*1*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/1*2</f>
-        <v>9.181864094559794E-2</v>
-      </c>
-      <c r="N33" s="30">
-        <f>N13/94.2*1*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/1*2</f>
-        <v>3.4879789950858874E-4</v>
-      </c>
-      <c r="O33" s="29">
-        <f>O13/94.2*1*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/1*2</f>
-        <v>5.6910566569970964E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="30">
-        <f>B14/141.94*5*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/5*2</f>
-        <v>5.8348768211691713</v>
-      </c>
-      <c r="C34" s="29">
-        <f>C14/141.94*5*(28/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/5*2</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="30">
-        <f>D14/141.94*5*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/5*2</f>
-        <v>6.0147679600646207</v>
-      </c>
-      <c r="E34" s="29">
-        <f>E14/141.94*5*(28/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/5*2</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="30">
-        <f>F14/141.94*5*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/5*2</f>
-        <v>5.9254331287941291</v>
-      </c>
-      <c r="G34" s="29">
-        <f>G14/141.94*5*(28/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/5*2</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="30">
-        <f>H14/141.94*5*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/5*2</f>
-        <v>5.9417206752359011</v>
-      </c>
-      <c r="I34" s="29">
-        <f>I14/141.94*5*(28/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/5*2</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="30">
-        <f>J14/141.94*5*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/5*2</f>
-        <v>5.9708817909600826</v>
-      </c>
-      <c r="K34" s="29">
-        <f>K14/141.94*5*(28/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/5*2</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="30">
-        <f>L14/141.94*5*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/5*2</f>
-        <v>5.977053554894157</v>
-      </c>
-      <c r="M34" s="29">
-        <f>M14/141.94*5*(28/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/5*2</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="30">
-        <f>N14/141.94*5*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/5*2</f>
-        <v>5.9767002536684695</v>
-      </c>
-      <c r="O34" s="29">
-        <f>O14/141.94*5*(28/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/5*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="30">
-        <f>B15/152*3*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="30">
-        <f>C15/152*3*(8/(C5/60.8*2+C6/79.87*2+C7/101.96*3+C8/71.85*1+C9/70.94*1+C10/40.3*1+C11/56.08*1+C12/61.98*1+C13/94.2*1+C14/141.94*5+C15/152*3+C16/19+C17/35.5))/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="30">
-        <f>D15/152*3*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="30">
-        <f>E15/152*3*(8/(E5/60.8*2+E6/79.87*2+E7/101.96*3+E8/71.85*1+E9/70.94*1+E10/40.3*1+E11/56.08*1+E12/61.98*1+E13/94.2*1+E14/141.94*5+E15/152*3+E16/19+E17/35.5))/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="30">
-        <f>F15/152*3*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="30">
-        <f>G15/152*3*(8/(G5/60.8*2+G6/79.87*2+G7/101.96*3+G8/71.85*1+G9/70.94*1+G10/40.3*1+G11/56.08*1+G12/61.98*1+G13/94.2*1+G14/141.94*5+G15/152*3+G16/19+G17/35.5))/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="30">
-        <f>H15/152*3*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="30">
-        <f>I15/152*3*(8/(I5/60.8*2+I6/79.87*2+I7/101.96*3+I8/71.85*1+I9/70.94*1+I10/40.3*1+I11/56.08*1+I12/61.98*1+I13/94.2*1+I14/141.94*5+I15/152*3+I16/19+I17/35.5))/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="30">
-        <f>J15/152*3*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="30">
-        <f>K15/152*3*(8/(K5/60.8*2+K6/79.87*2+K7/101.96*3+K8/71.85*1+K9/70.94*1+K10/40.3*1+K11/56.08*1+K12/61.98*1+K13/94.2*1+K14/141.94*5+K15/152*3+K16/19+K17/35.5))/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="30">
-        <f>L15/152*3*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="30">
-        <f>M15/152*3*(8/(M5/60.8*2+M6/79.87*2+M7/101.96*3+M8/71.85*1+M9/70.94*1+M10/40.3*1+M11/56.08*1+M12/61.98*1+M13/94.2*1+M14/141.94*5+M15/152*3+M16/19+M17/35.5))/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="30">
-        <f>N15/152*3*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)/3*2</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="30">
-        <f>O15/152*3*(8/(O5/60.8*2+O6/79.87*2+O7/101.96*3+O8/71.85*1+O9/70.94*1+O10/40.3*1+O11/56.08*1+O12/61.98*1+O13/94.2*1+O14/141.94*5+O15/152*3+O16/19+O17/35.5))/3*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="30">
-        <f>B16/19*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="30">
-        <f>D16/19*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)</f>
-        <v>1.8166886396186819</v>
-      </c>
-      <c r="F36" s="30">
-        <f>F16/19*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)</f>
-        <v>1.5875340706660932</v>
-      </c>
-      <c r="H36" s="30">
-        <f>H16/19*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)</f>
-        <v>1.7528655107021467</v>
-      </c>
-      <c r="J36" s="30">
-        <f>J16/19*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)</f>
-        <v>1.8365077447365497</v>
-      </c>
-      <c r="L36" s="30">
-        <f>L16/19*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)</f>
-        <v>2.0142408969478747</v>
-      </c>
-      <c r="N36" s="30">
-        <f>N16/19*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)</f>
-        <v>1.7484730901044045</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="30">
-        <f>B17/35.5*(26-(27-26*((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)))/(2-((B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19+B17/35.5)/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2))))/(B5/60.8*2+B6/79.87*2+B7/101.96*3+B8/71.85*1+B9/70.94*1+B10/40.3*1+B11/56.08*1+B12/61.98*1+B13/94.2*1+B14/141.94*5+B15/152*3+B16/19/2+B17/35.5/2)</f>
-        <v>1.2079854342791022E-2</v>
-      </c>
-      <c r="D37" s="30">
-        <f>D17/35.5*(26-(27-26*((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)))/(2-((D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19+D17/35.5)/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2))))/(D5/60.8*2+D6/79.87*2+D7/101.96*3+D8/71.85*1+D9/70.94*1+D10/40.3*1+D11/56.08*1+D12/61.98*1+D13/94.2*1+D14/141.94*5+D15/152*3+D16/19/2+D17/35.5/2)</f>
-        <v>0.20424310149559149</v>
-      </c>
-      <c r="F37" s="30">
-        <f>F17/35.5*(26-(27-26*((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)))/(2-((F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19+F17/35.5)/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2))))/(F5/60.8*2+F6/79.87*2+F7/101.96*3+F8/71.85*1+F9/70.94*1+F10/40.3*1+F11/56.08*1+F12/61.98*1+F13/94.2*1+F14/141.94*5+F15/152*3+F16/19/2+F17/35.5/2)</f>
-        <v>3.4917785849109512E-2</v>
-      </c>
-      <c r="H37" s="30">
-        <f>H17/35.5*(26-(27-26*((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)))/(2-((H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19+H17/35.5)/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2))))/(H5/60.8*2+H6/79.87*2+H7/101.96*3+H8/71.85*1+H9/70.94*1+H10/40.3*1+H11/56.08*1+H12/61.98*1+H13/94.2*1+H14/141.94*5+H15/152*3+H16/19/2+H17/35.5/2)</f>
-        <v>3.496223746304692E-2</v>
-      </c>
-      <c r="J37" s="30">
-        <f>J17/35.5*(26-(27-26*((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)))/(2-((J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19+J17/35.5)/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2))))/(J5/60.8*2+J6/79.87*2+J7/101.96*3+J8/71.85*1+J9/70.94*1+J10/40.3*1+J11/56.08*1+J12/61.98*1+J13/94.2*1+J14/141.94*5+J15/152*3+J16/19/2+J17/35.5/2)</f>
-        <v>2.6565395622378717E-2</v>
-      </c>
-      <c r="L37" s="30">
-        <f>L17/35.5*(26-(27-26*((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)))/(2-((L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19+L17/35.5)/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2))))/(L5/60.8*2+L6/79.87*2+L7/101.96*3+L8/71.85*1+L9/70.94*1+L10/40.3*1+L11/56.08*1+L12/61.98*1+L13/94.2*1+L14/141.94*5+L15/152*3+L16/19/2+L17/35.5/2)</f>
-        <v>1.4607648017866952E-2</v>
-      </c>
-      <c r="N37" s="30">
-        <f>N17/35.5*(26-(27-26*((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)))/(2-((N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19+N17/35.5)/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2))))/(N5/60.8*2+N6/79.87*2+N7/101.96*3+N8/71.85*1+N9/70.94*1+N10/40.3*1+N11/56.08*1+N12/61.98*1+N13/94.2*1+N14/141.94*5+N15/152*3+N16/19/2+N17/35.5/2)</f>
-        <v>2.3468401227062518E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="30">
-        <f t="shared" ref="B38" si="2">2-B36-B37</f>
-        <v>1.9879201456572089</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="N38" s="30"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="N39" s="33"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="N40" s="33"/>
-    </row>
-    <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="43">
-        <f>EXP(-61.9260681512942+65783.1796876913/(B$20+273.15)/8.31+2.53599567918181*B31+3.22062336896664*B25+5.56939536365427*B34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*B34+207.58312042747*B25)*1000000000*6.02E+23)/(8.31*(B20+273.15)))*((((0.817581105867826+0.0645260838443783*B34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*B34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*B34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>2.4895377600139272</v>
-      </c>
-      <c r="C41" s="43">
-        <f>EXP((6910-2542*C21*C21)/(C$20+273.15)/8.31+2.39*C32*C32)*EXP(((-4*PI()*(719-487*(1.189+0.075*C32))*1000000000*6.02E+23)/(8.31*(C20+273.15)))*((((1.189+0.075*C32)*0.0000000001/2*((1.189+0.075*C32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*C32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>2.20660615580841</v>
-      </c>
-      <c r="D41" s="43">
-        <f>EXP(-61.9260681512942+65783.1796876913/(D$20+273.15)/8.31+2.53599567918181*D31+3.22062336896664*D25+5.56939536365427*D34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*D34+207.58312042747*D25)*1000000000*6.02E+23)/(8.31*(D20+273.15)))*((((0.817581105867826+0.0645260838443783*D34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*D34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*D34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>5.0583357240858886</v>
-      </c>
-      <c r="E41" s="43">
-        <f>EXP((6910-2542*E21*E21)/(E$20+273.15)/8.31+2.39*E32*E32)*EXP(((-4*PI()*(719-487*(1.189+0.075*E32))*1000000000*6.02E+23)/(8.31*(E20+273.15)))*((((1.189+0.075*E32)*0.0000000001/2*((1.189+0.075*E32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*E32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>7.843987756880356</v>
-      </c>
-      <c r="F41" s="43">
-        <f>EXP(-61.9260681512942+65783.1796876913/(F$20+273.15)/8.31+2.53599567918181*F31+3.22062336896664*F25+5.56939536365427*F34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*F34+207.58312042747*F25)*1000000000*6.02E+23)/(8.31*(F20+273.15)))*((((0.817581105867826+0.0645260838443783*F34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*F34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*F34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.6248541209942315</v>
-      </c>
-      <c r="G41" s="43">
-        <f>EXP((6910-2542*G21*G21)/(G$20+273.15)/8.31+2.39*G32*G32)*EXP(((-4*PI()*(719-487*(1.189+0.075*G32))*1000000000*6.02E+23)/(8.31*(G20+273.15)))*((((1.189+0.075*G32)*0.0000000001/2*((1.189+0.075*G32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*G32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>44.483425216418738</v>
-      </c>
-      <c r="H41" s="43">
-        <f>EXP(-61.9260681512942+65783.1796876913/(H$20+273.15)/8.31+2.53599567918181*H31+3.22062336896664*H25+5.56939536365427*H34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*H34+207.58312042747*H25)*1000000000*6.02E+23)/(8.31*(H20+273.15)))*((((0.817581105867826+0.0645260838443783*H34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*H34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*H34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.939180155455694</v>
-      </c>
-      <c r="I41" s="43">
-        <f>EXP((6910-2542*I21*I21)/(I$20+273.15)/8.31+2.39*I32*I32)*EXP(((-4*PI()*(719-487*(1.189+0.075*I32))*1000000000*6.02E+23)/(8.31*(I20+273.15)))*((((1.189+0.075*I32)*0.0000000001/2*((1.189+0.075*I32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*I32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>36.326807139911921</v>
-      </c>
-      <c r="J41" s="43">
-        <f>EXP(-61.9260681512942+65783.1796876913/(J$20+273.15)/8.31+2.53599567918181*J31+3.22062336896664*J25+5.56939536365427*J34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*J34+207.58312042747*J25)*1000000000*6.02E+23)/(8.31*(J20+273.15)))*((((0.817581105867826+0.0645260838443783*J34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*J34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*J34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.9613641696681867</v>
-      </c>
-      <c r="K41" s="43">
-        <f>EXP((6910-2542*K21*K21)/(K$20+273.15)/8.31+2.39*K32*K32)*EXP(((-4*PI()*(719-487*(1.189+0.075*K32))*1000000000*6.02E+23)/(8.31*(K20+273.15)))*((((1.189+0.075*K32)*0.0000000001/2*((1.189+0.075*K32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*K32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>20.82107337013268</v>
-      </c>
-      <c r="L41" s="43">
-        <f>EXP(-61.9260681512942+65783.1796876913/(L$20+273.15)/8.31+2.53599567918181*L31+3.22062336896664*L25+5.56939536365427*L34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*L34+207.58312042747*L25)*1000000000*6.02E+23)/(8.31*(L20+273.15)))*((((0.817581105867826+0.0645260838443783*L34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*L34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*L34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.3964177055115545</v>
-      </c>
-      <c r="M41" s="43">
-        <f>EXP((6910-2542*M21*M21)/(M$20+273.15)/8.31+2.39*M32*M32)*EXP(((-4*PI()*(719-487*(1.189+0.075*M32))*1000000000*6.02E+23)/(8.31*(M20+273.15)))*((((1.189+0.075*M32)*0.0000000001/2*((1.189+0.075*M32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*M32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>51.688635627471626</v>
-      </c>
-      <c r="N41" s="43">
-        <f>EXP(-61.9260681512942+65783.1796876913/(N$20+273.15)/8.31+2.53599567918181*N31+3.22062336896664*N25+5.56939536365427*N34)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*N34+207.58312042747*N25)*1000000000*6.02E+23)/(8.31*(N20+273.15)))*((((0.817581105867826+0.0645260838443783*N34)*0.0000000001/2*((0.817581105867826+0.0645260838443783*N34)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*N34)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>6.9525431163854643</v>
-      </c>
-      <c r="O41" s="43">
-        <f>EXP((6910-2542*O21*O21)/(O$20+273.15)/8.31+2.39*O32*O32)*EXP(((-4*PI()*(719-487*(1.189+0.075*O32))*1000000000*6.02E+23)/(8.31*(O20+273.15)))*((((1.189+0.075*O32)*0.0000000001/2*((1.189+0.075*O32)*0.0000000001-1.25*0.0000000001)^2)-(1/3*((1.189+0.075*O32)*0.0000000001-1.25*0.0000000001)^3))))</f>
-        <v>15.932987214363054</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="43">
-        <f>EXP(-194.750048582546+66615.7411108772/(B20+273.15)/8.31+8.09915077406752*B31+14.164822613712*B25+18.6234564741488*B34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B34)*1000000000*6.02E+23)/(8.31*(B20+273.15)))*((((1.13420686227572+0.136783049036052*B32)*0.0000000001/2*((1.13420686227572+0.136783049036052*B32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>2.5315165053372479</v>
-      </c>
-      <c r="C42" s="43">
-        <f>EXP(16.05-(19.45+1.17*C21*C21)*10000/(C20+273.15)/8.31-5.17*C31*C31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(C20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>7.8752470424744252E-3</v>
-      </c>
-      <c r="D42" s="43">
-        <f>EXP(-194.750048582546+66615.7411108772/(D20+273.15)/8.31+8.09915077406752*D31+14.164822613712*D25+18.6234564741488*D34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D34)*1000000000*6.02E+23)/(8.31*(D20+273.15)))*((((1.13420686227572+0.136783049036052*D32)*0.0000000001/2*((1.13420686227572+0.136783049036052*D32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>27.39537978757626</v>
-      </c>
-      <c r="E42" s="43">
-        <f>EXP(16.05-(19.45+1.17*E21*E21)*10000/(E20+273.15)/8.31-5.17*E31*E31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(E20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>0.11661252337565448</v>
-      </c>
-      <c r="F42" s="43">
-        <f>EXP(-194.750048582546+66615.7411108772/(F20+273.15)/8.31+8.09915077406752*F31+14.164822613712*F25+18.6234564741488*F34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*F34)*1000000000*6.02E+23)/(8.31*(F20+273.15)))*((((1.13420686227572+0.136783049036052*F32)*0.0000000001/2*((1.13420686227572+0.136783049036052*F32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*F32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>50.882724071553262</v>
-      </c>
-      <c r="G42" s="43">
-        <f>EXP(16.05-(19.45+1.17*G21*G21)*10000/(G20+273.15)/8.31-5.17*G31*G31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(G20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>4.4645674650589572E-2</v>
-      </c>
-      <c r="H42" s="43">
-        <f>EXP(-194.750048582546+66615.7411108772/(H20+273.15)/8.31+8.09915077406752*H31+14.164822613712*H25+18.6234564741488*H34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*H34)*1000000000*6.02E+23)/(8.31*(H20+273.15)))*((((1.13420686227572+0.136783049036052*H32)*0.0000000001/2*((1.13420686227572+0.136783049036052*H32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*H32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>51.944747468702836</v>
-      </c>
-      <c r="I42" s="43">
-        <f>EXP(16.05-(19.45+1.17*I21*I21)*10000/(I20+273.15)/8.31-5.17*I31*I31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(I20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>3.7030498811375226E-2</v>
-      </c>
-      <c r="J42" s="43">
-        <f>EXP(-194.750048582546+66615.7411108772/(J20+273.15)/8.31+8.09915077406752*J31+14.164822613712*J25+18.6234564741488*J34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*J34)*1000000000*6.02E+23)/(8.31*(J20+273.15)))*((((1.13420686227572+0.136783049036052*J32)*0.0000000001/2*((1.13420686227572+0.136783049036052*J32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*J32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>52.373936410513792</v>
-      </c>
-      <c r="K42" s="43">
-        <f>EXP(16.05-(19.45+1.17*K21*K21)*10000/(K20+273.15)/8.31-5.17*K31*K31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(K20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>3.1981444466069896E-2</v>
-      </c>
-      <c r="L42" s="43">
-        <f>EXP(-194.750048582546+66615.7411108772/(L20+273.15)/8.31+8.09915077406752*L31+14.164822613712*L25+18.6234564741488*L34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*L34)*1000000000*6.02E+23)/(8.31*(L20+273.15)))*((((1.13420686227572+0.136783049036052*L32)*0.0000000001/2*((1.13420686227572+0.136783049036052*L32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*L32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>47.389911748582733</v>
-      </c>
-      <c r="M42" s="43">
-        <f>EXP(16.05-(19.45+1.17*M21*M21)*10000/(M20+273.15)/8.31-5.17*M31*M31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(M20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>4.9235589282130961E-2</v>
-      </c>
-      <c r="N42" s="43">
-        <f>EXP(-194.750048582546+66615.7411108772/(N20+273.15)/8.31+8.09915077406752*N31+14.164822613712*N25+18.6234564741488*N34)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*N34)*1000000000*6.02E+23)/(8.31*(N20+273.15)))*((((1.13420686227572+0.136783049036052*N32)*0.0000000001/2*((1.13420686227572+0.136783049036052*N32)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*N32)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>53.205002111637093</v>
-      </c>
-      <c r="O42" s="43">
-        <f>EXP(16.05-(19.45+1.17*O21*O21)*10000/(O20+273.15)/8.31-5.17*O31*O31)*EXP(((-4*PI()*(196)*1000000000*6.02E+23)/(8.31*(O20+273.15)))*((((1.179)*0.0000000001/2*((1.179)*0.0000000001-1.066*0.0000000001)^2)-(1/3*((1.179)*0.0000000001-1.066*0.0000000001)^3))))</f>
-        <v>2.0441724579588139E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="N43" s="34"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="N44" s="34"/>
-    </row>
-    <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="63">
-        <f>4*LOG10((6.15*10^-4)*((B22/C22)*C41-B41)/(B42-(B22/C22)*C42))</f>
-        <v>-13.949470977821978</v>
-      </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="63">
-        <f>4*LOG10((6.15*10^-4)*((D22/E22)*E41-D41)/(D42-(D22/E22)*E42))</f>
-        <v>-14.870351008230029</v>
-      </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="63">
-        <f>4*LOG10((6.15*10^-4)*((F22/G22)*G41-F41)/(F42-(F22/G22)*G42))</f>
-        <v>-10.331425442841441</v>
-      </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="63">
-        <f>4*LOG10((6.15*10^-4)*((H22/I22)*I41-H41)/(H42-(H22/I22)*I42))</f>
-        <v>-10.242847286687626</v>
-      </c>
-      <c r="I45" s="61"/>
-      <c r="J45" s="63">
-        <f>4*LOG10((6.15*10^-4)*((J22/K22)*K41-J41)/(J42-(J22/K22)*K42))</f>
-        <v>-9.7340629659047853</v>
-      </c>
-      <c r="K45" s="61"/>
-      <c r="L45" s="63">
-        <f>4*LOG10((6.15*10^-4)*((L22/M22)*M41-L41)/(L42-(L22/M22)*M42))</f>
-        <v>-9.725020753839841</v>
-      </c>
-      <c r="M45" s="61"/>
-      <c r="N45" s="63">
-        <f>4*LOG10((6.15*10^-4)*((N22/O22)*O41-N41)/(N42-(N22/O22)*O42))</f>
-        <v>-9.6043748907681437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="63">
-        <f>B45-(-27489/(B20+273)+6.702+0.055*((B21*10000)-1)/(B20+273))</f>
-        <v>-0.28937347215304321</v>
-      </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="63">
-        <f>D45-(-27489/(D20+273)+6.702+0.055*((D21*10000)-1)/(D20+273))</f>
-        <v>-1.5551951451564676</v>
-      </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="63">
-        <f>F45-(-27489/(F20+273)+6.702+0.055*((F21*10000)-1)/(F20+273))</f>
-        <v>3.7402366886778342</v>
-      </c>
-      <c r="G46" s="61"/>
-      <c r="H46" s="63">
-        <f>H45-(-27489/(H20+273)+6.702+0.055*((H21*10000)-1)/(H20+273))</f>
-        <v>3.8288148448316495</v>
-      </c>
-      <c r="I46" s="61"/>
-      <c r="J46" s="63">
-        <f>J45-(-27489/(J20+273)+6.702+0.055*((J21*10000)-1)/(J20+273))</f>
-        <v>4.3375991656144901</v>
-      </c>
-      <c r="K46" s="61"/>
-      <c r="L46" s="63">
-        <f>L45-(-27489/(L20+273)+6.702+0.055*((L21*10000)-1)/(L20+273))</f>
-        <v>4.3466413776794344</v>
-      </c>
-      <c r="M46" s="61"/>
-      <c r="N46" s="63">
-        <f>N45-(-27489/(N20+273)+6.702+0.055*((N21*10000)-1)/(N20+273))</f>
-        <v>4.4672872407511317</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="65">
-        <f>B45-(-25096.3/(B20+273)+8.735+0.11*((B21*10000)-1)/(B20+273))</f>
-        <v>-4.5465949385173694</v>
-      </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="65">
-        <f>D45-(-25096.3/(D20+273)+8.735+0.11*((D21*10000)-1)/(D20+273))</f>
-        <v>-5.3348411757464156</v>
-      </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="65">
-        <f>F45-(-25096.3/(F20+273)+8.735+0.11*((F21*10000)-1)/(F20+273))</f>
-        <v>-0.10542015183615128</v>
-      </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65">
-        <f>H45-(-25096.3/(H20+273)+8.735+0.11*((H21*10000)-1)/(H20+273))</f>
-        <v>-1.684199568233602E-2</v>
-      </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65">
-        <f>J45-(-25096.3/(J20+273)+8.735+0.11*((J21*10000)-1)/(J20+273))</f>
-        <v>0.49194232510050462</v>
-      </c>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65">
-        <f>L45-(-25096.3/(L20+273)+8.735+0.11*((L21*10000)-1)/(L20+273))</f>
-        <v>0.50098453716544888</v>
-      </c>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65">
-        <f>N45-(-25096.3/(N20+273)+8.735+0.11*((N21*10000)-1)/(N20+273))</f>
-        <v>0.62163040023714622</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="34"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="34"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="34"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
-      <c r="B51" s="34"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B52" s="34"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="34"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="34"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
-      <c r="B55" s="34"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
-      <c r="B56" s="34"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="34"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="34"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="34"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A5:A15 A17:A19">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:A35 A37:A38">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C35 B25:B38">
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E35 D25:D38">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G35 F25:F38">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:I35 H25:H38">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:K35 J25:J38">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25:M35 L25:L38">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O35 N25:N38">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/files/Apatite_calculator.xlsx
+++ b/files/Apatite_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianji/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B31CD83-EDCE-A640-92FB-5253D4E72792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF90E50-B673-E546-9EF3-3E007E8F2EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E6C10F45-B446-D346-AD47-2F6A1762E94A}"/>
   </bookViews>
@@ -979,13 +979,13 @@
     </r>
   </si>
   <si>
-    <t>4. The formula of mineral, trace element partition coefficients will update automatically.</t>
-  </si>
-  <si>
     <t>5. The plagioclase trace element predictive models are from Sun et al. (2017).</t>
   </si>
   <si>
     <t>6. Details about apatite formula calculation can be found in Ketcham (2015).</t>
+  </si>
+  <si>
+    <t>4. The formula of mineral, trace element partition coefficients will be updated automatically.</t>
   </si>
 </sst>
 </file>
@@ -4163,17 +4163,17 @@
     </row>
     <row r="9" spans="1:1" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="20" x14ac:dyDescent="0.2">

--- a/files/Apatite_calculator.xlsx
+++ b/files/Apatite_calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianji/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF90E50-B673-E546-9EF3-3E007E8F2EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{674924CC-2543-0544-91A8-4C2ECD518AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E6C10F45-B446-D346-AD47-2F6A1762E94A}"/>
   </bookViews>
@@ -1349,7 +1349,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1576,19 +1581,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.14268104932204545</c:v>
+                  <c:v>0.14262766903150201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15497141334363743</c:v>
+                  <c:v>0.15491084714116027</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>6.7538952861878254</c:v>
+                  <c:v>6.7421706853816907</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>2.916627279043273</c:v>
+                  <c:v>2.909447961866956</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>2.4337375051338621</c:v>
+                  <c:v>2.4276016583714162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,49 +1694,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.0884402647897358</c:v>
+                  <c:v>2.0870085490549015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9046271699044635</c:v>
+                  <c:v>2.9017607812661383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5622341515437768</c:v>
+                  <c:v>3.5580553289761854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0560014504004611</c:v>
+                  <c:v>4.0507633704990056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4187996289640692</c:v>
+                  <c:v>4.412749705015953</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3156841188052146</c:v>
+                  <c:v>4.3098695439678281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0636677208393905</c:v>
+                  <c:v>4.0584172389343083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.725974718447949</c:v>
+                  <c:v>3.7214569404359645</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3177550551422206</c:v>
+                  <c:v>3.3140850039203773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0222123339347156</c:v>
+                  <c:v>3.0191274938222517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9088657419139659</c:v>
+                  <c:v>2.9059984415955453</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5288395807784876</c:v>
+                  <c:v>2.5266711280095948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.156949391774222</c:v>
+                  <c:v>2.1554140404435547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.805706391282776</c:v>
+                  <c:v>1.804714992696614</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4842609201356696</c:v>
+                  <c:v>1.4837124937166239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,64 +2324,64 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.14268104932204545</c:v>
+                  <c:v>0.14262766903150201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15497141334363743</c:v>
+                  <c:v>0.15491084714116027</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>6.7538952861878254</c:v>
+                  <c:v>6.7421706853816907</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00">
-                  <c:v>2.916627279043273</c:v>
+                  <c:v>2.909447961866956</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00">
-                  <c:v>2.4337375051338621</c:v>
+                  <c:v>2.4276016583714162</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>2.0884402647897358</c:v>
+                  <c:v>2.0870085490549015</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>2.9046271699044635</c:v>
+                  <c:v>2.9017607812661383</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00">
-                  <c:v>3.5622341515437768</c:v>
+                  <c:v>3.5580553289761854</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00">
-                  <c:v>4.0560014504004611</c:v>
+                  <c:v>4.0507633704990056</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00">
-                  <c:v>4.4187996289640692</c:v>
+                  <c:v>4.412749705015953</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00">
-                  <c:v>4.3156841188052146</c:v>
+                  <c:v>4.3098695439678281</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00">
-                  <c:v>4.0636677208393905</c:v>
+                  <c:v>4.0584172389343083</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00">
-                  <c:v>3.725974718447949</c:v>
+                  <c:v>3.7214569404359645</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00">
-                  <c:v>3.3177550551422206</c:v>
+                  <c:v>3.3140850039203773</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00">
-                  <c:v>3.0222123339347156</c:v>
+                  <c:v>3.0191274938222517</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>2.9088657419139659</c:v>
+                  <c:v>2.9059984415955453</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>2.5288395807784876</c:v>
+                  <c:v>2.5266711280095948</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>2.156949391774222</c:v>
+                  <c:v>2.1554140404435547</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>1.805706391282776</c:v>
+                  <c:v>1.804714992696614</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>1.4842609201356696</c:v>
+                  <c:v>1.4837124937166239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,7 +4438,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="7">
-        <v>60.8</v>
+        <v>60.08</v>
       </c>
       <c r="C5" s="7">
         <v>79.87</v>
@@ -4576,7 +4581,7 @@
       </c>
       <c r="B8" s="7">
         <f>B7/B5*B3</f>
-        <v>2.1353383458646621E-2</v>
+        <v>2.1609282860947314E-2</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:L8" si="0">C7/C5*C3</f>
@@ -4629,11 +4634,11 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8">
         <f>SUM(B8:N8)</f>
-        <v>2.5913707069792187</v>
+        <v>2.591626606381519</v>
       </c>
       <c r="Q8" s="5">
         <f>P8-0.5*M8-0.5*N8</f>
-        <v>2.5197494319606863</v>
+        <v>2.5200053313629867</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -4642,7 +4647,7 @@
       </c>
       <c r="B9" s="7">
         <f>(26-(27-26*(P8/Q8))/(2-(P8/Q8)))/Q8</f>
-        <v>10.211883691263274</v>
+        <v>10.210816368950754</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -4665,43 +4670,43 @@
       </c>
       <c r="B10" s="7">
         <f t="shared" ref="B10:L10" si="1">B7/B5*B3*$B$9/B3*B4</f>
-        <v>0.1090291341473222</v>
+        <v>0.1103242095789239</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>5.5891473815066657E-3</v>
+        <v>5.5885632168325861E-3</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>4.9505573014306647E-3</v>
+        <v>4.9500398807052646E-3</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0.217902248284397</v>
+        <v>0.21787947364863208</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="1"/>
-        <v>3.6584117537471032E-2</v>
+        <v>3.658029385066533E-2</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="1"/>
-        <v>3.4642937584328092E-2</v>
+        <v>3.4639316785132476E-2</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>9.7683004410507674</v>
+        <v>9.7672794810269998</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>6.3550652206727613E-3</v>
+        <v>6.3544010040490102E-3</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>1.9203420954149923E-3</v>
+        <v>1.9201413857292894E-3</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="1"/>
-        <v>5.8807080611500746</v>
+        <v>5.8800934232324433</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="1"/>
@@ -4709,15 +4714,15 @@
       </c>
       <c r="M10" s="7">
         <f>M8*$B$9</f>
-        <v>1.4512699127973205</v>
+        <v>1.4511182294442537</v>
       </c>
       <c r="N10" s="7">
         <f>N8*$B$9</f>
-        <v>1.1506347821141719E-2</v>
+        <v>1.1505145204451554E-2</v>
       </c>
       <c r="O10" s="7">
         <f>2-M10-N10</f>
-        <v>0.53722373938153778</v>
+        <v>0.53737662535129471</v>
       </c>
       <c r="P10" s="8"/>
     </row>
@@ -4776,7 +4781,7 @@
       </c>
       <c r="B15" s="7">
         <f>-61.9260681512942+65783.1796876913/(B13+273.15)/8.31+2.53599567918181*H10+3.22062336896664*B10+5.56939536365427*K10</f>
-        <v>1.9322332919760186</v>
+        <v>1.9303919303979313</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -4789,7 +4794,7 @@
       </c>
       <c r="B16" s="7">
         <f>-2474.08365451656+448.613976729953*K10+207.58312042747*B10</f>
-        <v>186.7167826676731</v>
+        <v>186.70988330647614</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -4802,7 +4807,7 @@
       </c>
       <c r="B17" s="7">
         <f>0.817581105867826+0.0645260838443783*K10</f>
-        <v>1.197040167285907</v>
+        <v>1.1970005071081</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4825,7 +4830,7 @@
       </c>
       <c r="B19" s="7">
         <f>-194.750048582546+66615.7411108772/(B13+273.15)/8.31+8.09915077406752*H10+14.164822613712*B10+18.6234564741488*K10</f>
-        <v>1.4869014268275436</v>
+        <v>1.4855303489144092</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4838,7 +4843,7 @@
       </c>
       <c r="B20" s="7">
         <f>-2173.59341853157+417.257453526437*K10</f>
-        <v>280.17585199630093</v>
+        <v>279.91938974394907</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4851,7 +4856,7 @@
       </c>
       <c r="B21" s="7">
         <f>1.13420686227572+0.136783049036052*I10</f>
-        <v>1.1350761274734267</v>
+        <v>1.1350760366198516</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4884,7 +4889,7 @@
       </c>
       <c r="B24" s="26">
         <f>EXP($B$15)*EXP(((-4*PI()*$B$16*1000000000*6.02E+23)/(8.31*($B$13+273.15)))*((($B$17*0.0000000001/2*($B$17*0.0000000001-$V24*0.0000000001)^2)-(1/3*($B$17*0.0000000001-$V24*0.0000000001)^3))))</f>
-        <v>0.14268104932204545</v>
+        <v>0.14262766903150201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4903,7 +4908,7 @@
       </c>
       <c r="B25" s="26">
         <f t="shared" ref="B25:B28" si="2">EXP($B$15)*EXP(((-4*PI()*$B$16*1000000000*6.02E+23)/(8.31*($B$13+273.15)))*((($B$17*0.0000000001/2*($B$17*0.0000000001-$V25*0.0000000001)^2)-(1/3*($B$17*0.0000000001-$V25*0.0000000001)^3))))</f>
-        <v>0.15497141334363743</v>
+        <v>0.15491084714116027</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4922,7 +4927,7 @@
       </c>
       <c r="B26" s="22">
         <f t="shared" si="2"/>
-        <v>6.7538952861878254</v>
+        <v>6.7421706853816907</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4941,7 +4946,7 @@
       </c>
       <c r="B27" s="22">
         <f t="shared" si="2"/>
-        <v>2.916627279043273</v>
+        <v>2.909447961866956</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4960,7 +4965,7 @@
       </c>
       <c r="B28" s="22">
         <f t="shared" si="2"/>
-        <v>2.4337375051338621</v>
+        <v>2.4276016583714162</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4987,7 +4992,7 @@
       </c>
       <c r="B30" s="24">
         <f>EXP($B$19)*EXP(((-4*PI()*$B$20*1000000000*6.02E+23)/(8.31*($B$13+273.15)))*((($B$21*0.0000000001/2*($B$21*0.0000000001-$V30*0.0000000001)^2)-(1/3*($B$21*0.0000000001-$V30*0.0000000001)^3))))</f>
-        <v>2.0884402647897358</v>
+        <v>2.0870085490549015</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5006,7 +5011,7 @@
       </c>
       <c r="B31" s="24">
         <f t="shared" ref="B31:B44" si="3">EXP($B$19)*EXP(((-4*PI()*$B$20*1000000000*6.02E+23)/(8.31*($B$13+273.15)))*((($B$21*0.0000000001/2*($B$21*0.0000000001-$V31*0.0000000001)^2)-(1/3*($B$21*0.0000000001-$V31*0.0000000001)^3))))</f>
-        <v>2.9046271699044635</v>
+        <v>2.9017607812661383</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5025,7 +5030,7 @@
       </c>
       <c r="B32" s="24">
         <f t="shared" si="3"/>
-        <v>3.5622341515437768</v>
+        <v>3.5580553289761854</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5044,7 +5049,7 @@
       </c>
       <c r="B33" s="24">
         <f t="shared" si="3"/>
-        <v>4.0560014504004611</v>
+        <v>4.0507633704990056</v>
       </c>
       <c r="U33" s="12" t="s">
         <v>20</v>
@@ -5059,7 +5064,7 @@
       </c>
       <c r="B34" s="24">
         <f t="shared" si="3"/>
-        <v>4.4187996289640692</v>
+        <v>4.412749705015953</v>
       </c>
       <c r="U34" s="12" t="s">
         <v>21</v>
@@ -5074,7 +5079,7 @@
       </c>
       <c r="B35" s="24">
         <f t="shared" si="3"/>
-        <v>4.3156841188052146</v>
+        <v>4.3098695439678281</v>
       </c>
       <c r="U35" s="12" t="s">
         <v>34</v>
@@ -5089,7 +5094,7 @@
       </c>
       <c r="B36" s="24">
         <f t="shared" si="3"/>
-        <v>4.0636677208393905</v>
+        <v>4.0584172389343083</v>
       </c>
       <c r="U36" s="12" t="s">
         <v>22</v>
@@ -5104,7 +5109,7 @@
       </c>
       <c r="B37" s="24">
         <f t="shared" si="3"/>
-        <v>3.725974718447949</v>
+        <v>3.7214569404359645</v>
       </c>
       <c r="U37" s="12" t="s">
         <v>23</v>
@@ -5119,7 +5124,7 @@
       </c>
       <c r="B38" s="24">
         <f t="shared" si="3"/>
-        <v>3.3177550551422206</v>
+        <v>3.3140850039203773</v>
       </c>
       <c r="U38" s="12" t="s">
         <v>24</v>
@@ -5134,7 +5139,7 @@
       </c>
       <c r="B39" s="24">
         <f t="shared" si="3"/>
-        <v>3.0222123339347156</v>
+        <v>3.0191274938222517</v>
       </c>
       <c r="U39" s="12" t="s">
         <v>25</v>
@@ -5149,7 +5154,7 @@
       </c>
       <c r="B40" s="24">
         <f t="shared" si="3"/>
-        <v>2.9088657419139659</v>
+        <v>2.9059984415955453</v>
       </c>
       <c r="U40" s="12" t="s">
         <v>26</v>
@@ -5164,7 +5169,7 @@
       </c>
       <c r="B41" s="24">
         <f t="shared" si="3"/>
-        <v>2.5288395807784876</v>
+        <v>2.5266711280095948</v>
       </c>
       <c r="U41" s="12" t="s">
         <v>27</v>
@@ -5179,7 +5184,7 @@
       </c>
       <c r="B42" s="24">
         <f t="shared" si="3"/>
-        <v>2.156949391774222</v>
+        <v>2.1554140404435547</v>
       </c>
       <c r="U42" s="12" t="s">
         <v>28</v>
@@ -5194,7 +5199,7 @@
       </c>
       <c r="B43" s="24">
         <f t="shared" si="3"/>
-        <v>1.805706391282776</v>
+        <v>1.804714992696614</v>
       </c>
       <c r="U43" s="12" t="s">
         <v>29</v>
@@ -5209,7 +5214,7 @@
       </c>
       <c r="B44" s="24">
         <f t="shared" si="3"/>
-        <v>1.4842609201356696</v>
+        <v>1.4837124937166239</v>
       </c>
       <c r="U44" s="12" t="s">
         <v>30</v>
@@ -5441,57 +5446,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3 B2:L6 N2:O6 B12:E12">
-    <cfRule type="cellIs" dxfId="13" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54 A55:E65 A67:E68">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:D70">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L9 B10:O11 B15:E16">
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F23">
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F87">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:H65 I55:I68">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:AC5">
-    <cfRule type="cellIs" dxfId="3" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5506,7 +5511,7 @@
   <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -6925,124 +6930,124 @@
         <v>58</v>
       </c>
       <c r="B22" s="30">
-        <f t="shared" ref="B22:X22" si="1">B4/60.8*2*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/2*1</f>
-        <v>5.2182787817819209E-2</v>
+        <f>B4/60.08*2*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/2*1</f>
+        <v>5.2805505664213388E-2</v>
       </c>
       <c r="C22" s="30">
-        <f t="shared" si="1"/>
-        <v>5.5779117524956477E-2</v>
+        <f>C4/60.08*2*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/2*1</f>
+        <v>5.6444557191881038E-2</v>
       </c>
       <c r="D22" s="30">
-        <f t="shared" si="1"/>
-        <v>4.3862003741730778E-2</v>
+        <f>D4/60.08*2*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/2*1</f>
+        <v>4.4385780442400186E-2</v>
       </c>
       <c r="E22" s="30">
-        <f t="shared" si="1"/>
-        <v>9.2668473232276408E-2</v>
+        <f>E4/60.08*2*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/2*1</f>
+        <v>9.3770683295034032E-2</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.14805615021853108</v>
+        <f t="shared" ref="F22:N22" si="1">F4/60.08*2*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/2*1</f>
+        <v>0.14980919366431039</v>
       </c>
       <c r="G22" s="30">
         <f t="shared" si="1"/>
-        <v>7.5450829737374311E-2</v>
+        <v>7.6349511243600052E-2</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" si="1"/>
-        <v>0.10419446496559209</v>
+        <v>0.10543260162252795</v>
       </c>
       <c r="I22" s="30">
         <f t="shared" si="1"/>
-        <v>9.9137347568905854E-2</v>
+        <v>0.10031587711902165</v>
       </c>
       <c r="J22" s="30">
         <f t="shared" si="1"/>
-        <v>2.4995700024413169E-2</v>
+        <v>2.5294642867235907E-2</v>
       </c>
       <c r="K22" s="30">
         <f t="shared" si="1"/>
-        <v>4.1526798574673618E-2</v>
+        <v>4.2022783575433049E-2</v>
       </c>
       <c r="L22" s="30">
         <f t="shared" si="1"/>
-        <v>0.1896916935329673</v>
+        <v>0.19193005813297312</v>
       </c>
       <c r="M22" s="30">
         <f t="shared" si="1"/>
-        <v>5.0854175823302636E-2</v>
+        <v>5.1461104363561203E-2</v>
       </c>
       <c r="N22" s="30">
         <f t="shared" si="1"/>
-        <v>8.821364368398707E-2</v>
+        <v>8.9263248667927397E-2</v>
       </c>
       <c r="O22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.36022290974396798</v>
+        <f t="shared" ref="O22:AE22" si="2">O4/60.08*2*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/2*1</f>
+        <v>0.36441397711840162</v>
       </c>
       <c r="P22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.1090291341473222</v>
+        <f t="shared" si="2"/>
+        <v>0.1103242095789239</v>
       </c>
       <c r="Q22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.13365352175769699</v>
+        <f t="shared" si="2"/>
+        <v>0.13523789949445947</v>
       </c>
       <c r="R22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.16019628588166104</v>
+        <f t="shared" si="2"/>
+        <v>0.16209118702748934</v>
       </c>
       <c r="S22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.13810517549288753</v>
+        <f t="shared" si="2"/>
+        <v>0.1397417284345214</v>
       </c>
       <c r="T22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.10629327362297691</v>
+        <f t="shared" si="2"/>
+        <v>0.10755613389892388</v>
       </c>
       <c r="U22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.31934311418451999</v>
+        <f t="shared" si="2"/>
+        <v>0.32307121700517311</v>
       </c>
       <c r="V22" s="30">
-        <f t="shared" si="1"/>
-        <v>9.001998831993703E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.1090928255736142E-2</v>
       </c>
       <c r="W22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.31704636866264202</v>
+        <f t="shared" si="2"/>
+        <v>0.32074836467181206</v>
       </c>
       <c r="X22" s="30">
-        <f t="shared" si="1"/>
-        <v>0.23579829004263139</v>
+        <f t="shared" si="2"/>
+        <v>0.2385701694234835</v>
       </c>
       <c r="Y22" s="30">
-        <f t="shared" ref="Y22:AD22" si="2">Y4/60.8*2*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/2*1</f>
-        <v>7.2812185013417935E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.3679624464174351E-2</v>
       </c>
       <c r="Z22" s="30">
         <f t="shared" si="2"/>
-        <v>9.0207078801554166E-2</v>
+        <v>9.1280228123587992E-2</v>
       </c>
       <c r="AA22" s="30">
         <f t="shared" si="2"/>
-        <v>0.103404427427331</v>
+        <v>0.10463325535903084</v>
       </c>
       <c r="AB22" s="30">
         <f t="shared" si="2"/>
-        <v>8.1459320986141726E-2</v>
+        <v>8.2429093774303186E-2</v>
       </c>
       <c r="AC22" s="30">
         <f t="shared" si="2"/>
-        <v>0.11291297059682381</v>
+        <v>0.11425375383148907</v>
       </c>
       <c r="AD22" s="30">
         <f t="shared" si="2"/>
-        <v>0.1145604436334579</v>
+        <v>0.11592060668683836</v>
       </c>
       <c r="AE22" s="30">
-        <f t="shared" ref="AE22" si="3">AE4/60.8*2*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/2*1</f>
-        <v>0.55955474527806415</v>
+        <f t="shared" si="2"/>
+        <v>0.56595684959513048</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -7050,123 +7055,123 @@
         <v>59</v>
       </c>
       <c r="B23" s="30">
-        <f t="shared" ref="B23:X23" si="4">B5/79.87*2*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/2*1</f>
+        <f>B5/79.87*2*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="C23" s="30">
-        <f t="shared" si="4"/>
+        <f>C5/79.87*2*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="D23" s="30">
-        <f t="shared" si="4"/>
+        <f>D5/79.87*2*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="E23" s="30">
-        <f t="shared" si="4"/>
+        <f>E5/79.87*2*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F23:N23" si="3">F5/79.87*2*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="G23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O23:AE23" si="4">O5/79.87*2*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/2*1</f>
         <v>0</v>
       </c>
       <c r="P23" s="30">
         <f t="shared" si="4"/>
-        <v>5.5891473815066657E-3</v>
+        <v>5.5885632168325861E-3</v>
       </c>
       <c r="Q23" s="30">
         <f t="shared" si="4"/>
-        <v>9.1633668267004538E-3</v>
+        <v>9.1621928150859826E-3</v>
       </c>
       <c r="R23" s="30">
         <f t="shared" si="4"/>
-        <v>4.6801615418281478E-3</v>
+        <v>4.6794428558851837E-3</v>
       </c>
       <c r="S23" s="30">
         <f t="shared" si="4"/>
-        <v>9.0853752609986477E-3</v>
+        <v>9.0841724763268579E-3</v>
       </c>
       <c r="T23" s="30">
         <f t="shared" si="4"/>
-        <v>5.2580881004542033E-3</v>
+        <v>5.2575523260699874E-3</v>
       </c>
       <c r="U23" s="30">
         <f t="shared" si="4"/>
-        <v>6.6058640611710105E-3</v>
+        <v>6.6038422210789533E-3</v>
       </c>
       <c r="V23" s="30">
         <f t="shared" si="4"/>
-        <v>7.1459156292609195E-3</v>
+        <v>7.1452989605460607E-3</v>
       </c>
       <c r="W23" s="30">
         <f t="shared" si="4"/>
-        <v>1.8273579698716295E-2</v>
+        <v>1.826802696321676E-2</v>
       </c>
       <c r="X23" s="30">
         <f t="shared" si="4"/>
-        <v>9.2388874791153198E-3</v>
+        <v>9.2367993626352573E-3</v>
       </c>
       <c r="Y23" s="30">
-        <f t="shared" ref="Y23:AD23" si="5">Y5/79.87*2*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/2*1</f>
-        <v>2.3627606462032053E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.3625957213764689E-3</v>
       </c>
       <c r="Z23" s="30">
-        <f t="shared" si="5"/>
-        <v>3.2110929066698785E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.2108152241817297E-3</v>
       </c>
       <c r="AA23" s="30">
-        <f t="shared" si="5"/>
-        <v>4.0658265908503728E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.0654235607401274E-3</v>
       </c>
       <c r="AB23" s="30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC23" s="30">
-        <f t="shared" si="5"/>
-        <v>2.6046524891914845E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.6043705605684475E-3</v>
       </c>
       <c r="AD23" s="30">
-        <f t="shared" si="5"/>
-        <v>5.2064268413143291E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.2058550740066399E-3</v>
       </c>
       <c r="AE23" s="30">
-        <f t="shared" ref="AE23" si="6">AE5/79.87*2*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/2*1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7175,123 +7180,123 @@
         <v>60</v>
       </c>
       <c r="B24" s="30">
-        <f t="shared" ref="B24:X24" si="7">B6/101.96*3*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/3*2</f>
+        <f>B6/101.96*3*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="C24" s="30">
-        <f t="shared" si="7"/>
-        <v>2.0158650127306932E-3</v>
+        <f>C6/101.96*3*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/3*2</f>
+        <v>2.015757216786269E-3</v>
       </c>
       <c r="D24" s="30">
-        <f t="shared" si="7"/>
-        <v>4.0239156041543154E-3</v>
+        <f>D6/101.96*3*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/3*2</f>
+        <v>4.0237463997637125E-3</v>
       </c>
       <c r="E24" s="30">
-        <f t="shared" si="7"/>
-        <v>8.0377234174148961E-3</v>
+        <f>E6/101.96*3*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/3*2</f>
+        <v>8.0370093831672231E-3</v>
       </c>
       <c r="F24" s="30">
-        <f t="shared" si="7"/>
-        <v>8.0261545822663868E-3</v>
+        <f t="shared" ref="F24:N24" si="5">F6/101.96*3*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/3*2</f>
+        <v>8.0250154742963088E-3</v>
       </c>
       <c r="G24" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9996558336743638E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.9995111963364682E-3</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9724583776731613E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.9722613615926195E-3</v>
       </c>
       <c r="I24" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J24" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9873657139849888E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.9873180900530055E-3</v>
       </c>
       <c r="K24" s="30">
-        <f t="shared" si="7"/>
-        <v>1.9810351928914527E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.9809563257842428E-3</v>
       </c>
       <c r="L24" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M24" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N24" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O24" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O24:AE24" si="6">O6/101.96*3*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="P24" s="30">
-        <f t="shared" si="7"/>
-        <v>4.9505573014306638E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.9500398807052655E-3</v>
       </c>
       <c r="Q24" s="30">
-        <f t="shared" si="7"/>
-        <v>7.8286049629925133E-3</v>
+        <f t="shared" si="6"/>
+        <v>7.8276019612219319E-3</v>
       </c>
       <c r="R24" s="30">
-        <f t="shared" si="7"/>
-        <v>1.4988671176980927E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.4986369515556994E-2</v>
       </c>
       <c r="S24" s="30">
-        <f t="shared" si="7"/>
-        <v>4.0668549128283485E-3</v>
+        <f t="shared" si="6"/>
+        <v>4.0663165145111597E-3</v>
       </c>
       <c r="T24" s="30">
-        <f t="shared" si="7"/>
-        <v>1.4565041599965009E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.4563557490903841E-2</v>
       </c>
       <c r="U24" s="30">
-        <f t="shared" si="7"/>
-        <v>8.2794878393994305E-3</v>
+        <f t="shared" si="6"/>
+        <v>8.276953757513944E-3</v>
       </c>
       <c r="V24" s="30">
-        <f t="shared" si="7"/>
-        <v>1.1747957673692468E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.1746943864079158E-2</v>
       </c>
       <c r="W24" s="30">
-        <f t="shared" si="7"/>
-        <v>9.5141978051348722E-3</v>
+        <f t="shared" si="6"/>
+        <v>9.5113067556101914E-3</v>
       </c>
       <c r="X24" s="30">
-        <f t="shared" si="7"/>
-        <v>8.2711421056654213E-3</v>
+        <f t="shared" si="6"/>
+        <v>8.2692727130379198E-3</v>
       </c>
       <c r="Y24" s="30">
-        <f t="shared" ref="Y24:AD24" si="8">Y6/101.96*3*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/3*2</f>
-        <v>8.3203801345016117E-3</v>
+        <f t="shared" si="6"/>
+        <v>8.3197993574117834E-3</v>
       </c>
       <c r="Z24" s="30">
-        <f t="shared" si="8"/>
-        <v>1.796712929830489E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.7965575572731238E-2</v>
       </c>
       <c r="AA24" s="30">
-        <f t="shared" si="8"/>
-        <v>5.6164721405653475E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.6159154007892099E-3</v>
       </c>
       <c r="AB24" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC24" s="30">
-        <f t="shared" si="8"/>
-        <v>6.1210355329067443E-3</v>
+        <f t="shared" si="6"/>
+        <v>6.1203729895822449E-3</v>
       </c>
       <c r="AD24" s="30">
-        <f t="shared" si="8"/>
-        <v>2.2431396773114606E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.2428933367840399E-2</v>
       </c>
       <c r="AE24" s="30">
-        <f t="shared" ref="AE24" si="9">AE6/101.96*3*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/3*2</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7300,123 +7305,123 @@
         <v>61</v>
       </c>
       <c r="B25" s="30">
-        <f t="shared" ref="B25:X25" si="10">B7/71.85*1*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
+        <f>B7/71.85*1*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="C25" s="30">
-        <f t="shared" si="10"/>
-        <v>2.8606485274602841E-3</v>
+        <f>C7/71.85*1*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/1*1</f>
+        <v>2.8604955577387339E-3</v>
       </c>
       <c r="D25" s="30">
-        <f t="shared" si="10"/>
-        <v>4.2826558976991023E-3</v>
+        <f>D7/71.85*1*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/1*1</f>
+        <v>4.2824758133602108E-3</v>
       </c>
       <c r="E25" s="30">
-        <f t="shared" si="10"/>
-        <v>2.8515180224064811E-3</v>
+        <f>E7/71.85*1*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/1*1</f>
+        <v>2.8512647067074812E-3</v>
       </c>
       <c r="F25" s="30">
-        <f t="shared" si="10"/>
-        <v>2.7050430937630023E-2</v>
+        <f t="shared" ref="F25:N25" si="7">F7/71.85*1*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/1*1</f>
+        <v>2.7046591818764412E-2</v>
       </c>
       <c r="G25" s="30">
-        <f t="shared" si="10"/>
-        <v>4.1145875819357726E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.1142899692244411E-2</v>
       </c>
       <c r="H25" s="30">
-        <f t="shared" si="10"/>
-        <v>2.7990515822902649E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.7987720031730479E-3</v>
       </c>
       <c r="I25" s="30">
-        <f t="shared" si="10"/>
-        <v>1.4218771999550562E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.421742070299664E-3</v>
       </c>
       <c r="J25" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L25" s="30">
-        <f t="shared" si="10"/>
-        <v>9.0663232683196607E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.064674752575716E-2</v>
       </c>
       <c r="M25" s="30">
-        <f t="shared" si="10"/>
-        <v>9.0369675283497305E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.0365269524589981E-2</v>
       </c>
       <c r="N25" s="30">
-        <f t="shared" si="10"/>
-        <v>8.3429040225749623E-2</v>
+        <f t="shared" si="7"/>
+        <v>8.34219850336997E-2</v>
       </c>
       <c r="O25" s="30">
-        <f t="shared" si="10"/>
-        <v>9.8528738069331323E-2</v>
+        <f t="shared" ref="O25:AE25" si="8">O7/71.85*1*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/1*1</f>
+        <v>9.8494722569994198E-2</v>
       </c>
       <c r="P25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.21790224828439697</v>
+        <f t="shared" si="8"/>
+        <v>0.21787947364863208</v>
       </c>
       <c r="Q25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.28514979538457941</v>
+        <f t="shared" si="8"/>
+        <v>0.28511326195991393</v>
       </c>
       <c r="R25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.36096209933827367</v>
+        <f t="shared" si="8"/>
+        <v>0.36090666997233867</v>
       </c>
       <c r="S25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.24527351974612499</v>
+        <f t="shared" si="8"/>
+        <v>0.24524104874504118</v>
       </c>
       <c r="T25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.28587700520324538</v>
+        <f t="shared" si="8"/>
+        <v>0.28584787568439785</v>
       </c>
       <c r="U25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.29666609112951203</v>
+        <f t="shared" si="8"/>
+        <v>0.29657529128993837</v>
       </c>
       <c r="V25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.15001967191382645</v>
+        <f t="shared" si="8"/>
+        <v>0.15000672571587476</v>
       </c>
       <c r="W25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.21638883953653004</v>
+        <f t="shared" si="8"/>
+        <v>0.21632308613676887</v>
       </c>
       <c r="X25" s="30">
-        <f t="shared" si="10"/>
-        <v>0.24648348825284028</v>
+        <f t="shared" si="8"/>
+        <v>0.24642777957200099</v>
       </c>
       <c r="Y25" s="30">
-        <f t="shared" ref="Y25:AD25" si="11">Y7/71.85*1*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/1*1</f>
-        <v>0.22901111981352892</v>
+        <f t="shared" si="8"/>
+        <v>0.22899513443671282</v>
       </c>
       <c r="Z25" s="30">
-        <f t="shared" si="11"/>
-        <v>0.21687665130549635</v>
+        <f t="shared" si="8"/>
+        <v>0.21685789667898561</v>
       </c>
       <c r="AA25" s="30">
-        <f t="shared" si="11"/>
-        <v>0.20032299410537874</v>
+        <f t="shared" si="8"/>
+        <v>0.20030313683980311</v>
       </c>
       <c r="AB25" s="30">
-        <f t="shared" si="11"/>
-        <v>3.3161610300778487E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.3159020686739885E-2</v>
       </c>
       <c r="AC25" s="30">
-        <f t="shared" si="11"/>
-        <v>2.0267712737398292E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0265518952097612E-2</v>
       </c>
       <c r="AD25" s="30">
-        <f t="shared" si="11"/>
-        <v>1.8809620924165209E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.8807555260583978E-2</v>
       </c>
       <c r="AE25" s="30">
-        <f t="shared" ref="AE25" si="12">AE7/71.85*1*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/1*1</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7425,123 +7430,123 @@
         <v>62</v>
       </c>
       <c r="B26" s="30">
-        <f t="shared" ref="B26:X26" si="13">B8/70.94*1*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
+        <f>B8/70.94*1*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="C26" s="30">
-        <f t="shared" si="13"/>
+        <f>C8/70.94*1*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="D26" s="30">
-        <f t="shared" si="13"/>
+        <f>D8/70.94*1*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="E26" s="30">
-        <f t="shared" si="13"/>
+        <f>E8/70.94*1*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="F26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="F26:N26" si="9">F8/70.94*1*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="G26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="O26:AE26" si="10">O8/70.94*1*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="P26" s="30">
-        <f t="shared" si="13"/>
-        <v>3.6584117537471025E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.658029385066533E-2</v>
       </c>
       <c r="Q26" s="30">
-        <f t="shared" si="13"/>
-        <v>4.2976173463575636E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.297066735127586E-2</v>
       </c>
       <c r="R26" s="30">
-        <f t="shared" si="13"/>
-        <v>5.8152812685548914E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.8143882735450535E-2</v>
       </c>
       <c r="S26" s="30">
-        <f t="shared" si="13"/>
-        <v>3.3609741045163177E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.3605291555715497E-2</v>
       </c>
       <c r="T26" s="30">
-        <f t="shared" si="13"/>
-        <v>2.9706895752211266E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.9703868759609672E-2</v>
       </c>
       <c r="U26" s="30">
-        <f t="shared" si="13"/>
-        <v>4.6111985451191391E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.6097872072525678E-2</v>
       </c>
       <c r="V26" s="30">
-        <f t="shared" si="13"/>
-        <v>3.6716511932895025E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.6713343420222547E-2</v>
       </c>
       <c r="W26" s="30">
-        <f t="shared" si="13"/>
-        <v>3.8827235516750123E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.8815437206153228E-2</v>
       </c>
       <c r="X26" s="30">
-        <f t="shared" si="13"/>
-        <v>6.092534468008088E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.0911574708689034E-2</v>
       </c>
       <c r="Y26" s="30">
-        <f t="shared" ref="Y26:AD26" si="14">Y8/70.94*1*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/1*1</f>
-        <v>4.7077995028080362E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.7074708901664812E-2</v>
       </c>
       <c r="Z26" s="30">
-        <f t="shared" si="14"/>
-        <v>5.4114856954848273E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.411017731817571E-2</v>
       </c>
       <c r="AA26" s="30">
-        <f t="shared" si="14"/>
-        <v>5.5571528918405472E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.5566020321586092E-2</v>
       </c>
       <c r="AB26" s="30">
-        <f t="shared" si="14"/>
-        <v>1.3759648150868144E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.3758573650031348E-2</v>
       </c>
       <c r="AC26" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD26" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE26" s="30">
-        <f t="shared" ref="AE26" si="15">AE8/70.94*1*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/1*1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -7550,123 +7555,123 @@
         <v>13</v>
       </c>
       <c r="B27" s="30">
-        <f t="shared" ref="B27:X27" si="16">B9/40.3*1*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
-        <v>2.5395929715227787E-3</v>
+        <f>B9/40.3*1*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
+        <v>2.5394659251628433E-3</v>
       </c>
       <c r="C27" s="30">
-        <f t="shared" si="16"/>
-        <v>1.2750471259182473E-2</v>
+        <f>C9/40.3*1*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/1*1</f>
+        <v>1.2749789443146902E-2</v>
       </c>
       <c r="D27" s="30">
-        <f t="shared" si="16"/>
-        <v>3.3086970564481781E-2</v>
+        <f>D9/40.3*1*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/1*1</f>
+        <v>3.3085579267734533E-2</v>
       </c>
       <c r="E27" s="30">
-        <f t="shared" si="16"/>
+        <f>E9/40.3*1*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/1*1</f>
         <v>0</v>
       </c>
       <c r="F27" s="30">
-        <f t="shared" si="16"/>
-        <v>0.12437651780144592</v>
+        <f t="shared" ref="F27:N27" si="11">F9/40.3*1*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/1*1</f>
+        <v>0.12435886572643713</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="16"/>
-        <v>9.3594809251280539E-2</v>
+        <f t="shared" si="11"/>
+        <v>9.3588039434283538E-2</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="16"/>
-        <v>0.2345473260748166</v>
+        <f t="shared" si="11"/>
+        <v>0.23452389866290879</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="16"/>
-        <v>0.1673122548363988</v>
+        <f t="shared" si="11"/>
+        <v>0.16729635413320193</v>
       </c>
       <c r="J27" s="30">
-        <f t="shared" si="16"/>
-        <v>2.5140422853338639E-3</v>
+        <f t="shared" si="11"/>
+        <v>2.5139820404690375E-3</v>
       </c>
       <c r="K27" s="30">
-        <f t="shared" si="16"/>
-        <v>1.253017048804048E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.2529671648694876E-2</v>
       </c>
       <c r="L27" s="30">
-        <f t="shared" si="16"/>
-        <v>0.11924374448722509</v>
+        <f t="shared" si="11"/>
+        <v>0.11922206257887742</v>
       </c>
       <c r="M27" s="30">
-        <f t="shared" si="16"/>
-        <v>0.1406586964045691</v>
+        <f t="shared" si="11"/>
+        <v>0.14065183892386407</v>
       </c>
       <c r="N27" s="30">
-        <f t="shared" si="16"/>
-        <v>0.13569612994273028</v>
+        <f t="shared" si="11"/>
+        <v>0.13568465477467626</v>
       </c>
       <c r="O27" s="30">
-        <f t="shared" si="16"/>
-        <v>0.10979047503538238</v>
+        <f t="shared" ref="O27:AE27" si="12">O9/40.3*1*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/1*1</f>
+        <v>0.10975257159823332</v>
       </c>
       <c r="P27" s="30">
-        <f t="shared" si="16"/>
-        <v>3.4642937584328085E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.4639316785132476E-2</v>
       </c>
       <c r="Q27" s="30">
-        <f t="shared" si="16"/>
-        <v>1.4556973853679982E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.4555108812511272E-2</v>
       </c>
       <c r="R27" s="30">
-        <f t="shared" si="16"/>
-        <v>1.3000664824926421E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.2998668441900889E-2</v>
       </c>
       <c r="S27" s="30">
-        <f t="shared" si="16"/>
-        <v>3.6269584549993142E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.626478293210772E-2</v>
       </c>
       <c r="T27" s="30">
-        <f t="shared" si="16"/>
-        <v>2.5958161056710987E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.5955516042498621E-2</v>
       </c>
       <c r="U27" s="30">
-        <f t="shared" si="16"/>
-        <v>2.8802550810039778E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.8793735286220031E-2</v>
       </c>
       <c r="V27" s="30">
-        <f t="shared" si="16"/>
-        <v>3.4946154957533844E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.4943139220771066E-2</v>
       </c>
       <c r="W27" s="30">
-        <f t="shared" si="16"/>
-        <v>3.3553733346666184E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.354353747867711E-2</v>
       </c>
       <c r="X27" s="30">
-        <f t="shared" si="16"/>
-        <v>2.6157743458239659E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.6151831446071538E-2</v>
       </c>
       <c r="Y27" s="30">
-        <f t="shared" ref="Y27:AD27" si="17">Y9/40.3*1*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/1*1</f>
-        <v>5.8985111715168188E-2</v>
+        <f t="shared" si="12"/>
+        <v>5.8980994451176473E-2</v>
       </c>
       <c r="Z27" s="30">
-        <f t="shared" si="17"/>
-        <v>7.0231502171941226E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.0225428832166772E-2</v>
       </c>
       <c r="AA27" s="30">
-        <f t="shared" si="17"/>
-        <v>5.3156834248294531E-2</v>
+        <f t="shared" si="12"/>
+        <v>5.3151565011083181E-2</v>
       </c>
       <c r="AB27" s="30">
-        <f t="shared" si="17"/>
-        <v>3.300957845260518E-2</v>
+        <f t="shared" si="12"/>
+        <v>3.3007000710843136E-2</v>
       </c>
       <c r="AC27" s="30">
-        <f t="shared" si="17"/>
-        <v>0.2322955767748778</v>
+        <f t="shared" si="12"/>
+        <v>0.23227043300910882</v>
       </c>
       <c r="AD27" s="30">
-        <f t="shared" si="17"/>
-        <v>0.27086177258471728</v>
+        <f t="shared" si="12"/>
+        <v>0.27083202667429029</v>
       </c>
       <c r="AE27" s="30">
-        <f t="shared" ref="AE27" si="18">AE9/40.3*1*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/1*1</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7675,124 +7680,124 @@
         <v>15</v>
       </c>
       <c r="B28" s="30">
-        <f t="shared" ref="B28:X28" si="19">B10/56.08*1*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
-        <v>9.7929114153567518</v>
+        <f>B10/56.08*1*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*1</f>
+        <v>9.7924215125406544</v>
       </c>
       <c r="C28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8480656620467837</v>
+        <f>C10/56.08*1*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/1*1</f>
+        <v>9.8475390486415808</v>
       </c>
       <c r="D28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8509256905657345</v>
+        <f>D10/56.08*1*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/1*1</f>
+        <v>9.8505114622263967</v>
       </c>
       <c r="E28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.9719016595771688</v>
+        <f>E10/56.08*1*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/1*1</f>
+        <v>9.9710158018622934</v>
       </c>
       <c r="F28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8043278051274072</v>
+        <f t="shared" ref="F28:N28" si="13">F10/56.08*1*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/1*1</f>
+        <v>9.8029363308130755</v>
       </c>
       <c r="G28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8434092471450381</v>
+        <f t="shared" si="13"/>
+        <v>9.8426972623697839</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.7310453239110544</v>
+        <f t="shared" si="13"/>
+        <v>9.7300733528768397</v>
       </c>
       <c r="I28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8482008928577542</v>
+        <f t="shared" si="13"/>
+        <v>9.8472649583108574</v>
       </c>
       <c r="J28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.9202145044108487</v>
+        <f t="shared" si="13"/>
+        <v>9.9199767828795302</v>
       </c>
       <c r="K28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8940174516767616</v>
+        <f t="shared" si="13"/>
+        <v>9.8936235603729124</v>
       </c>
       <c r="L28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.5554421962382659</v>
+        <f t="shared" si="13"/>
+        <v>9.5537047447450139</v>
       </c>
       <c r="M28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.7238600881422546</v>
+        <f t="shared" si="13"/>
+        <v>9.7233860244360102</v>
       </c>
       <c r="N28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.7307167289843299</v>
+        <f t="shared" si="13"/>
+        <v>9.729893849143922</v>
       </c>
       <c r="O28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.5840398998466441</v>
+        <f t="shared" ref="O28:AE28" si="14">O10/56.08*1*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/1*1</f>
+        <v>9.5807311605970789</v>
       </c>
       <c r="P28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.7683004410507657</v>
+        <f t="shared" si="14"/>
+        <v>9.7672794810269998</v>
       </c>
       <c r="Q28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.7650360272550127</v>
+        <f t="shared" si="14"/>
+        <v>9.7637849297131876</v>
       </c>
       <c r="R28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.5492017775670117</v>
+        <f t="shared" si="14"/>
+        <v>9.5477354014552631</v>
       </c>
       <c r="S28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8728624743084712</v>
+        <f t="shared" si="14"/>
+        <v>9.8715554366452309</v>
       </c>
       <c r="T28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.8007482382858999</v>
+        <f t="shared" si="14"/>
+        <v>9.7997495882534338</v>
       </c>
       <c r="U28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.4514509670743756</v>
+        <f t="shared" si="14"/>
+        <v>9.4485581854009428</v>
       </c>
       <c r="V28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.7808833538914612</v>
+        <f t="shared" si="14"/>
+        <v>9.7800392962393765</v>
       </c>
       <c r="W28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.7206211132898375</v>
+        <f t="shared" si="14"/>
+        <v>9.7176673385602435</v>
       </c>
       <c r="X28" s="30">
-        <f t="shared" si="19"/>
-        <v>9.6787708790638032</v>
+        <f t="shared" si="14"/>
+        <v>9.6765833428452943</v>
       </c>
       <c r="Y28" s="30">
-        <f t="shared" ref="Y28:AD28" si="20">Y10/56.08*1*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/1*1</f>
-        <v>9.6407075492302923</v>
+        <f t="shared" si="14"/>
+        <v>9.640034610977013</v>
       </c>
       <c r="Z28" s="30">
-        <f t="shared" si="20"/>
-        <v>9.6666786001683445</v>
+        <f t="shared" si="14"/>
+        <v>9.6658426644156741</v>
       </c>
       <c r="AA28" s="30">
-        <f t="shared" si="20"/>
-        <v>9.7326815462446916</v>
+        <f t="shared" si="14"/>
+        <v>9.7317167820992179</v>
       </c>
       <c r="AB28" s="30">
-        <f t="shared" si="20"/>
-        <v>9.7563495780210889</v>
+        <f t="shared" si="14"/>
+        <v>9.755587697653894</v>
       </c>
       <c r="AC28" s="30">
-        <f t="shared" si="20"/>
-        <v>9.9862060607553627</v>
+        <f t="shared" si="14"/>
+        <v>9.9851251498331735</v>
       </c>
       <c r="AD28" s="30">
-        <f t="shared" si="20"/>
-        <v>9.913953029559412</v>
+        <f t="shared" si="14"/>
+        <v>9.91286428397534</v>
       </c>
       <c r="AE28" s="30">
-        <f t="shared" ref="AE28" si="21">AE10/56.08*1*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/1*1</f>
-        <v>9.7063990051087874</v>
+        <f t="shared" si="14"/>
+        <v>9.7011947285807256</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -7800,123 +7805,123 @@
         <v>63</v>
       </c>
       <c r="B29" s="30">
-        <f t="shared" ref="B29:X29" si="22">B11/61.98*1*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*2</f>
-        <v>0.20475724422868069</v>
+        <f>B11/61.98*1*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*2</f>
+        <v>0.20474700098779866</v>
       </c>
       <c r="C29" s="30">
-        <f t="shared" si="22"/>
-        <v>0.19897153600970127</v>
+        <f>C11/61.98*1*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/1*2</f>
+        <v>0.19896089624736496</v>
       </c>
       <c r="D29" s="30">
-        <f t="shared" si="22"/>
-        <v>0.11915153000955682</v>
+        <f>D11/61.98*1*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/1*2</f>
+        <v>0.11914651972504593</v>
       </c>
       <c r="E29" s="30">
-        <f t="shared" si="22"/>
-        <v>3.6361685527734153E-2</v>
+        <f>E11/61.98*1*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/1*2</f>
+        <v>3.6358455323431071E-2</v>
       </c>
       <c r="F29" s="30">
-        <f t="shared" si="22"/>
-        <v>3.9610199477632183E-2</v>
+        <f t="shared" ref="F29:N29" si="15">F11/61.98*1*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/1*2</f>
+        <v>3.9604577819905694E-2</v>
       </c>
       <c r="G29" s="30">
-        <f t="shared" si="22"/>
-        <v>1.6447637044323827E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.6446447368382244E-2</v>
       </c>
       <c r="H29" s="30">
-        <f t="shared" si="22"/>
-        <v>6.489572642386433E-3</v>
+        <f t="shared" si="15"/>
+        <v>6.4889244410449663E-3</v>
       </c>
       <c r="I29" s="30">
-        <f t="shared" si="22"/>
-        <v>1.6483039176632911E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.6481472692970452E-2</v>
       </c>
       <c r="J29" s="30">
-        <f t="shared" si="22"/>
-        <v>6.2116882151666337E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.2115393623334701E-2</v>
       </c>
       <c r="K29" s="30">
-        <f t="shared" si="22"/>
-        <v>4.562453816942523E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.5622721808284278E-2</v>
       </c>
       <c r="L29" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M29" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N29" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O29" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="O29:AE29" si="16">O11/61.98*1*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="P29" s="30">
-        <f t="shared" si="22"/>
-        <v>6.3550652206727605E-3</v>
+        <f t="shared" si="16"/>
+        <v>6.3544010040490102E-3</v>
       </c>
       <c r="Q29" s="30">
-        <f t="shared" si="22"/>
-        <v>1.5424585013890584E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.5422608814279985E-2</v>
       </c>
       <c r="R29" s="30">
-        <f t="shared" si="22"/>
-        <v>5.2172218921046155E-2</v>
+        <f t="shared" si="16"/>
+        <v>5.2164207351356372E-2</v>
       </c>
       <c r="S29" s="30">
-        <f t="shared" si="22"/>
-        <v>6.6901666168437939E-3</v>
+        <f t="shared" si="16"/>
+        <v>6.6892809264207462E-3</v>
       </c>
       <c r="T29" s="30">
-        <f t="shared" si="22"/>
-        <v>5.5104320514140232E-3</v>
+        <f t="shared" si="16"/>
+        <v>5.5098705643710699E-3</v>
       </c>
       <c r="U29" s="30">
-        <f t="shared" si="22"/>
-        <v>4.4265470883216987E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.4251922662591085E-2</v>
       </c>
       <c r="V29" s="30">
-        <f t="shared" si="22"/>
-        <v>4.6401390718396598E-3</v>
+        <f t="shared" si="16"/>
+        <v>4.6397386432946493E-3</v>
       </c>
       <c r="W29" s="30">
-        <f t="shared" si="22"/>
-        <v>2.6939208222797256E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.6931022289865967E-2</v>
       </c>
       <c r="X29" s="30">
-        <f t="shared" si="22"/>
-        <v>4.0819247293980947E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.0810021578961589E-2</v>
       </c>
       <c r="Y29" s="30">
-        <f t="shared" ref="Y29:AD29" si="23">Y11/61.98*1*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/1*2</f>
-        <v>6.5364388213520344E-3</v>
+        <f t="shared" si="16"/>
+        <v>6.5359825664868558E-3</v>
       </c>
       <c r="Z29" s="30">
-        <f t="shared" si="23"/>
-        <v>5.9113536729756876E-3</v>
+        <f t="shared" si="16"/>
+        <v>5.9108424827224153E-3</v>
       </c>
       <c r="AA29" s="30">
-        <f t="shared" si="23"/>
-        <v>1.487311523144162E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.48716409154231E-2</v>
       </c>
       <c r="AB29" s="30">
-        <f t="shared" si="23"/>
-        <v>6.6431235629968194E-2</v>
+        <f t="shared" si="16"/>
+        <v>6.6426047966919616E-2</v>
       </c>
       <c r="AC29" s="30">
-        <f t="shared" si="23"/>
-        <v>3.6921096118569904E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.6917099764417892E-2</v>
       </c>
       <c r="AD29" s="30">
-        <f t="shared" si="23"/>
-        <v>9.392904752211774E-2</v>
+        <f t="shared" si="16"/>
+        <v>9.3918732279005254E-2</v>
       </c>
       <c r="AE29" s="30">
-        <f t="shared" ref="AE29" si="24">AE11/61.98*1*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/1*2</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7925,123 +7930,123 @@
         <v>64</v>
       </c>
       <c r="B30" s="30">
-        <f t="shared" ref="B30:X30" si="25">B12/94.2*1*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*2</f>
+        <f>B12/94.2*1*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="C30" s="30">
-        <f t="shared" si="25"/>
+        <f>C12/94.2*1*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="D30" s="30">
-        <f t="shared" si="25"/>
+        <f>D12/94.2*1*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="E30" s="30">
-        <f t="shared" si="25"/>
+        <f>E12/94.2*1*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="F30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="F30:N30" si="17">F12/94.2*1*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="G30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="O30:AE30" si="18">O12/94.2*1*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/1*2</f>
         <v>0</v>
       </c>
       <c r="P30" s="30">
-        <f t="shared" si="25"/>
-        <v>1.9203420954149921E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.9201413857292894E-3</v>
       </c>
       <c r="Q30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S30" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T30" s="30">
-        <f t="shared" si="25"/>
-        <v>9.3998429261087037E-4</v>
+        <f t="shared" si="18"/>
+        <v>9.39888512643718E-4</v>
       </c>
       <c r="U30" s="30">
-        <f t="shared" si="25"/>
-        <v>2.2403837051623294E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.2396979965926796E-3</v>
       </c>
       <c r="V30" s="30">
-        <f t="shared" si="25"/>
-        <v>1.4478306416421101E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.4477056986806432E-3</v>
       </c>
       <c r="W30" s="30">
-        <f t="shared" si="25"/>
-        <v>1.3418550843819312E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.3414473390750388E-3</v>
       </c>
       <c r="X30" s="30">
-        <f t="shared" si="25"/>
-        <v>2.2381253956837749E-3</v>
+        <f t="shared" si="18"/>
+        <v>2.2376195483581381E-3</v>
       </c>
       <c r="Y30" s="30">
-        <f t="shared" ref="Y30:AD30" si="26">Y12/94.2*1*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/1*2</f>
-        <v>8.4544204886767376E-4</v>
+        <f t="shared" si="18"/>
+        <v>8.4538303553356839E-4</v>
       </c>
       <c r="Z30" s="30">
-        <f t="shared" si="26"/>
-        <v>1.1020093614769221E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.1019140641092182E-3</v>
       </c>
       <c r="AA30" s="30">
-        <f t="shared" si="26"/>
-        <v>1.1861747179370153E-3</v>
+        <f t="shared" si="18"/>
+        <v>1.1860571368949671E-3</v>
       </c>
       <c r="AB30" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC30" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD30" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE30" s="30">
-        <f t="shared" ref="AE30" si="27">AE12/94.2*1*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/1*2</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -8050,124 +8055,124 @@
         <v>65</v>
       </c>
       <c r="B31" s="30">
-        <f t="shared" ref="B31:X31" si="28">B13/141.94*5*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/5*2</f>
-        <v>5.9991219175687025</v>
+        <f>B13/141.94*5*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/5*2</f>
+        <v>5.998821803884745</v>
       </c>
       <c r="C31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.968902167037089</v>
+        <f>C13/141.94*5*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/5*2</f>
+        <v>5.9685829872099649</v>
       </c>
       <c r="D31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9833476148310432</v>
+        <f>D13/141.94*5*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/5*2</f>
+        <v>5.9830960169382132</v>
       </c>
       <c r="E31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9238689792183523</v>
+        <f>E13/141.94*5*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/5*2</f>
+        <v>5.9233427300417851</v>
       </c>
       <c r="F31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.8865154456336928</v>
+        <f t="shared" ref="F31:N31" si="19">F13/141.94*5*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/5*2</f>
+        <v>5.8856800048766802</v>
       </c>
       <c r="G31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9438900424147594</v>
+        <f t="shared" si="19"/>
+        <v>5.9434601142151156</v>
       </c>
       <c r="H31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9268063578451793</v>
+        <f t="shared" si="19"/>
+        <v>5.9262143675796457</v>
       </c>
       <c r="I31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9106195041519074</v>
+        <f t="shared" si="19"/>
+        <v>5.910057781960445</v>
       </c>
       <c r="J31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9972962254432698</v>
+        <f t="shared" si="19"/>
+        <v>5.9971525101595082</v>
       </c>
       <c r="K31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9938459835247215</v>
+        <f t="shared" si="19"/>
+        <v>5.9936073621738846</v>
       </c>
       <c r="L31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9421069758101526</v>
+        <f t="shared" si="19"/>
+        <v>5.9410265315537618</v>
       </c>
       <c r="M31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9773612754092289</v>
+        <f t="shared" si="19"/>
+        <v>5.9770698633553643</v>
       </c>
       <c r="N31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9494923253916872</v>
+        <f t="shared" si="19"/>
+        <v>5.9489892054847386</v>
       </c>
       <c r="O31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.7948780270242812</v>
+        <f t="shared" ref="O31:AE31" si="20">O13/141.94*5*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/5*2</f>
+        <v>5.7928774363991566</v>
       </c>
       <c r="P31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.8807080611500737</v>
+        <f t="shared" si="20"/>
+        <v>5.8800934232324442</v>
       </c>
       <c r="Q31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.8348768211691713</v>
+        <f t="shared" si="20"/>
+        <v>5.8341292560780191</v>
       </c>
       <c r="R31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.8561442538045059</v>
+        <f t="shared" si="20"/>
+        <v>5.8552449838717147</v>
       </c>
       <c r="S31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.8032632852659223</v>
+        <f t="shared" si="20"/>
+        <v>5.8024950092260923</v>
       </c>
       <c r="T31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.8438136822732396</v>
+        <f t="shared" si="20"/>
+        <v>5.8432182252140814</v>
       </c>
       <c r="U31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.7957593159960821</v>
+        <f t="shared" si="20"/>
+        <v>5.7939854226127974</v>
       </c>
       <c r="V31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.9129746312154428</v>
+        <f t="shared" si="20"/>
+        <v>5.9124643612016348</v>
       </c>
       <c r="W31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.716622941290483</v>
+        <f t="shared" si="20"/>
+        <v>5.7148858489600851</v>
       </c>
       <c r="X31" s="30">
-        <f t="shared" si="28"/>
-        <v>5.7854611159992828</v>
+        <f t="shared" si="20"/>
+        <v>5.7841535216889959</v>
       </c>
       <c r="Y31" s="30">
-        <f t="shared" ref="Y31:AD31" si="29">Y13/141.94*5*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/5*2</f>
-        <v>5.9430787289027318</v>
+        <f t="shared" si="20"/>
+        <v>5.9426638916100849</v>
       </c>
       <c r="Z31" s="30">
-        <f t="shared" si="29"/>
-        <v>5.9099218682072943</v>
+        <f t="shared" si="20"/>
+        <v>5.9094108017707789</v>
       </c>
       <c r="AA31" s="30">
-        <f t="shared" si="29"/>
-        <v>5.8907488941045312</v>
+        <f t="shared" si="20"/>
+        <v>5.8901649663045692</v>
       </c>
       <c r="AB31" s="30">
-        <f t="shared" si="29"/>
-        <v>5.9870341301149566</v>
+        <f t="shared" si="20"/>
+        <v>5.9865665983065703</v>
       </c>
       <c r="AC31" s="30">
-        <f t="shared" si="29"/>
-        <v>5.8010213208806762</v>
+        <f t="shared" si="20"/>
+        <v>5.8003934160219686</v>
       </c>
       <c r="AD31" s="30">
-        <f t="shared" si="29"/>
-        <v>5.7904920868245737</v>
+        <f t="shared" si="20"/>
+        <v>5.7898561777507336</v>
       </c>
       <c r="AE31" s="30">
-        <f t="shared" ref="AE31" si="30">AE13/141.94*5*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/5*2</f>
-        <v>5.6697966017340304</v>
+        <f t="shared" si="20"/>
+        <v>5.6667566288916049</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
@@ -8175,123 +8180,123 @@
         <v>66</v>
       </c>
       <c r="B32" s="30">
-        <f t="shared" ref="B32:X32" si="31">B14/152*3*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/3*2</f>
+        <f>B14/152*3*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="C32" s="30">
-        <f t="shared" si="31"/>
+        <f>C14/152*3*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="D32" s="30">
-        <f t="shared" si="31"/>
+        <f>D14/152*3*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="E32" s="30">
-        <f t="shared" si="31"/>
+        <f>E14/152*3*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="F32:N32" si="21">F14/152*3*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="G32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="O32:AE32" si="22">O14/152*3*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)/3*2</f>
         <v>0</v>
       </c>
       <c r="P32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="T32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X32" s="30">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y32" s="30">
-        <f t="shared" ref="Y32:AD32" si="32">Y14/152*3*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)/3*2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z32" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA32" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB32" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC32" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD32" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE32" s="30">
-        <f t="shared" ref="AE32" si="33">AE14/152*3*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)/3*2</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8300,123 +8305,123 @@
         <v>4</v>
       </c>
       <c r="B33" s="30">
-        <f t="shared" ref="B33:X33" si="34">B15/19*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)</f>
+        <f>B15/19*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="C33" s="30">
-        <f t="shared" si="34"/>
+        <f>C15/19*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="D33" s="30">
-        <f t="shared" si="34"/>
+        <f>D15/19*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="E33" s="30">
-        <f t="shared" si="34"/>
+        <f>E15/19*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="F33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="F33:N33" si="23">F15/19*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="G33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H33" s="30">
-        <f t="shared" si="34"/>
-        <v>2.1857683317226426</v>
+        <f t="shared" si="23"/>
+        <v>2.18555000949361</v>
       </c>
       <c r="I33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J33" s="30">
-        <f t="shared" si="34"/>
-        <v>2.2876064662342936</v>
+        <f t="shared" si="23"/>
+        <v>2.2875516475293187</v>
       </c>
       <c r="K33" s="30">
-        <f t="shared" si="34"/>
-        <v>2.3759973072485261</v>
+        <f t="shared" si="23"/>
+        <v>2.3759027162816246</v>
       </c>
       <c r="L33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="O33:AE33" si="24">O15/19*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="P33" s="30">
-        <f t="shared" si="34"/>
-        <v>1.4512699127973205</v>
+        <f t="shared" si="24"/>
+        <v>1.4511182294442537</v>
       </c>
       <c r="Q33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S33" s="30">
-        <f t="shared" si="34"/>
-        <v>2.1169306900243106</v>
+        <f t="shared" si="24"/>
+        <v>2.1166504361314269</v>
       </c>
       <c r="T33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V33" s="30">
-        <f t="shared" si="34"/>
-        <v>1.8154583646615767</v>
+        <f t="shared" si="24"/>
+        <v>1.8153016966522277</v>
       </c>
       <c r="W33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X33" s="30">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y33" s="30">
-        <f t="shared" ref="Y33:AD33" si="35">Y15/19*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)</f>
-        <v>1.615046591696919</v>
+        <f t="shared" si="24"/>
+        <v>1.6149338586193072</v>
       </c>
       <c r="Z33" s="30">
-        <f t="shared" si="35"/>
-        <v>1.6322375833681699</v>
+        <f t="shared" si="24"/>
+        <v>1.6320964339817854</v>
       </c>
       <c r="AA33" s="30">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB33" s="30">
-        <f t="shared" si="35"/>
-        <v>1.9845241396754285</v>
+        <f t="shared" si="24"/>
+        <v>1.9843691667556749</v>
       </c>
       <c r="AC33" s="30">
-        <f t="shared" si="35"/>
-        <v>2.0858105113885999</v>
+        <f t="shared" si="24"/>
+        <v>2.0855847424279292</v>
       </c>
       <c r="AD33" s="30">
-        <f t="shared" si="35"/>
-        <v>2.3855929993641856</v>
+        <f t="shared" si="24"/>
+        <v>2.3853310146810118</v>
       </c>
       <c r="AE33" s="30">
-        <f t="shared" ref="AE33" si="36">AE15/19*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8425,124 +8430,124 @@
         <v>5</v>
       </c>
       <c r="B34" s="30">
-        <f t="shared" ref="B34:X34" si="37">B16/35.5*(26-(27-26*((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.8*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)</f>
-        <v>8.937221124854669E-2</v>
+        <f>B16/35.5*(26-(27-26*((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)))/(2-((B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19+B16/35.5)/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2))))/(B4/60.08*2+B5/79.87*2+B6/101.96*3+B7/71.85*1+B8/70.94*1+B9/40.3*1+B10/56.08*1+B11/61.98*1+B12/94.2*1+B13/141.94*5+B14/152*3+B15/19/2+B16/35.5/2)</f>
+        <v>8.9367740290308167E-2</v>
       </c>
       <c r="C34" s="30">
-        <f t="shared" si="37"/>
-        <v>0.15632436931962193</v>
+        <f>C16/35.5*(26-(27-26*((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)))/(2-((C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19+C16/35.5)/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2))))/(C4/60.08*2+C5/79.87*2+C6/101.96*3+C7/71.85*1+C8/70.94*1+C9/40.3*1+C10/56.08*1+C11/61.98*1+C12/94.2*1+C13/141.94*5+C14/152*3+C15/19/2+C16/35.5/2)</f>
+        <v>0.15631601006296497</v>
       </c>
       <c r="D34" s="30">
-        <f t="shared" si="37"/>
-        <v>0.13579638341535194</v>
+        <f>D16/35.5*(26-(27-26*((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)))/(2-((D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19+D16/35.5)/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2))))/(D4/60.08*2+D5/79.87*2+D6/101.96*3+D7/71.85*1+D8/70.94*1+D9/40.3*1+D10/56.08*1+D11/61.98*1+D12/94.2*1+D13/141.94*5+D14/152*3+D15/19/2+D16/35.5/2)</f>
+        <v>0.1357906732199696</v>
       </c>
       <c r="E34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.7313935485344139E-2</v>
+        <f>E16/35.5*(26-(27-26*((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)))/(2-((E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19+E16/35.5)/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2))))/(E4/60.08*2+E5/79.87*2+E6/101.96*3+E7/71.85*1+E8/70.94*1+E9/40.3*1+E10/56.08*1+E11/61.98*1+E12/94.2*1+E13/141.94*5+E14/152*3+E15/19/2+E16/35.5/2)</f>
+        <v>1.7312397395233731E-2</v>
       </c>
       <c r="F34" s="30">
-        <f t="shared" si="37"/>
-        <v>2.8815025394643694E-2</v>
+        <f t="shared" ref="F34:N34" si="25">F16/35.5*(26-(27-26*((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)))/(2-((F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19+F16/35.5)/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2))))/(F4/60.08*2+F5/79.87*2+F6/101.96*3+F7/71.85*1+F8/70.94*1+F9/40.3*1+F10/56.08*1+F11/61.98*1+F12/94.2*1+F13/141.94*5+F14/152*3+F15/19/2+F16/35.5/2)</f>
+        <v>2.881093583659337E-2</v>
       </c>
       <c r="G34" s="30">
-        <f t="shared" si="37"/>
-        <v>2.0101329036761508E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.0099875085200905E-2</v>
       </c>
       <c r="H34" s="30">
-        <f t="shared" si="37"/>
-        <v>5.6651227095086071E-3</v>
+        <f t="shared" si="25"/>
+        <v>5.6645568571262956E-3</v>
       </c>
       <c r="I34" s="30">
-        <f t="shared" si="37"/>
-        <v>5.7555986939025793E-3</v>
+        <f t="shared" si="25"/>
+        <v>5.7550517042834299E-3</v>
       </c>
       <c r="J34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.9977783906836143E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.9977305172290582E-2</v>
       </c>
       <c r="K34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.4224390723043134E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.4223824434997281E-2</v>
       </c>
       <c r="L34" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M34" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N34" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O34" s="30">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="O34:AE34" si="26">O16/35.5*(26-(27-26*((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)))/(2-((O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19+O16/35.5)/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2))))/(O4/60.08*2+O5/79.87*2+O6/101.96*3+O7/71.85*1+O8/70.94*1+O9/40.3*1+O10/56.08*1+O11/61.98*1+O12/94.2*1+O13/141.94*5+O14/152*3+O15/19/2+O16/35.5/2)</f>
         <v>0</v>
       </c>
       <c r="P34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.1506347821141717E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.1505145204451554E-2</v>
       </c>
       <c r="Q34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.2079854342791022E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.2078306670459686E-2</v>
       </c>
       <c r="R34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.3753316171494896</v>
+        <f t="shared" si="26"/>
+        <v>1.3751204211274455</v>
       </c>
       <c r="S34" s="30">
-        <f t="shared" si="37"/>
-        <v>2.9201163867040728E-3</v>
+        <f t="shared" si="26"/>
+        <v>2.9197298015461821E-3</v>
       </c>
       <c r="T34" s="30">
-        <f t="shared" si="37"/>
-        <v>7.187055596542255E-2</v>
+        <f t="shared" si="26"/>
+        <v>7.1863232694657594E-2</v>
       </c>
       <c r="U34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.7626644788815611</v>
+        <f t="shared" si="26"/>
+        <v>1.7621249846262681</v>
       </c>
       <c r="V34" s="30">
-        <f t="shared" si="37"/>
-        <v>5.7627737933529637E-3</v>
+        <f t="shared" si="26"/>
+        <v>5.762276485171124E-3</v>
       </c>
       <c r="W34" s="30">
-        <f t="shared" si="37"/>
-        <v>8.3286907911590352E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.3261599779421824E-2</v>
       </c>
       <c r="X34" s="30">
-        <f t="shared" si="37"/>
-        <v>1.7490098849160478</v>
+        <f t="shared" si="26"/>
+        <v>1.7486145844675103</v>
       </c>
       <c r="Y34" s="30">
-        <f t="shared" ref="Y34:AD34" si="38">Y16/35.5*(26-(27-26*((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)))/(2-((Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19+Y16/35.5)/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2))))/(Y4/60.8*2+Y5/79.87*2+Y6/101.96*3+Y7/71.85*1+Y8/70.94*1+Y9/40.3*1+Y10/56.08*1+Y11/61.98*1+Y12/94.2*1+Y13/141.94*5+Y14/152*3+Y15/19/2+Y16/35.5/2)</f>
-        <v>7.7543551252481566E-3</v>
+        <f t="shared" si="26"/>
+        <v>7.7538138576942308E-3</v>
       </c>
       <c r="Z34" s="30">
-        <f t="shared" si="38"/>
-        <v>7.3105128064173287E-3</v>
+        <f t="shared" si="26"/>
+        <v>7.3098806224710109E-3</v>
       </c>
       <c r="AA34" s="30">
-        <f t="shared" si="38"/>
-        <v>1.195081470000398</v>
+        <f t="shared" si="26"/>
+        <v>1.1949630060654899</v>
       </c>
       <c r="AB34" s="30">
-        <f t="shared" si="38"/>
-        <v>4.1030894099306492E-2</v>
+        <f t="shared" si="26"/>
+        <v>4.1027689967226895E-2</v>
       </c>
       <c r="AC34" s="30">
-        <f t="shared" si="38"/>
-        <v>5.8601012482175736E-3</v>
+        <f t="shared" si="26"/>
+        <v>5.8594669485239979E-3</v>
       </c>
       <c r="AD34" s="30">
-        <f t="shared" si="38"/>
-        <v>1.1713727093402126E-2</v>
+        <f t="shared" si="26"/>
+        <v>1.1712440697490433E-2</v>
       </c>
       <c r="AE34" s="30">
-        <f t="shared" ref="AE34" si="39">AE16/35.5*(26-(27-26*((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)))/(2-((AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19+AE16/35.5)/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2))))/(AE4/60.8*2+AE5/79.87*2+AE6/101.96*3+AE7/71.85*1+AE8/70.94*1+AE9/40.3*1+AE10/56.08*1+AE11/61.98*1+AE12/94.2*1+AE13/141.94*5+AE14/152*3+AE15/19/2+AE16/35.5/2)</f>
-        <v>0.36350676410099014</v>
+        <f t="shared" si="26"/>
+        <v>0.36331186280760558</v>
       </c>
     </row>
     <row r="35" spans="1:31" s="51" customFormat="1" x14ac:dyDescent="0.2">
@@ -8551,123 +8556,123 @@
       </c>
       <c r="B35" s="32">
         <f>2-B33-B34</f>
-        <v>1.9106277887514533</v>
+        <v>1.9106322597096919</v>
       </c>
       <c r="C35" s="32">
-        <f t="shared" ref="C35:AE35" si="40">2-C33-C34</f>
-        <v>1.8436756306803781</v>
+        <f>2-C33-C34</f>
+        <v>1.843683989937035</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.8642036165846481</v>
+        <f>2-D33-D34</f>
+        <v>1.8642093267800304</v>
       </c>
       <c r="E35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.9826860645146558</v>
+        <f>2-E33-E34</f>
+        <v>1.9826876026047662</v>
       </c>
       <c r="F35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.9711849746053562</v>
+        <f t="shared" ref="F35:N35" si="27">2-F33-F34</f>
+        <v>1.9711890641634067</v>
       </c>
       <c r="G35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.9798986709632385</v>
+        <f t="shared" si="27"/>
+        <v>1.9799001249147992</v>
       </c>
       <c r="H35" s="32">
-        <f t="shared" si="40"/>
-        <v>-0.19143345443215123</v>
+        <f t="shared" si="27"/>
+        <v>-0.1912145663507363</v>
       </c>
       <c r="I35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.9942444013060974</v>
+        <f t="shared" si="27"/>
+        <v>1.9942449482957165</v>
       </c>
       <c r="J35" s="32">
-        <f t="shared" si="40"/>
-        <v>-0.30758425014112978</v>
+        <f t="shared" si="27"/>
+        <v>-0.30752895270160929</v>
       </c>
       <c r="K35" s="32">
-        <f t="shared" si="40"/>
-        <v>-0.39022169797156925</v>
+        <f t="shared" si="27"/>
+        <v>-0.39012654071662189</v>
       </c>
       <c r="L35" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="M35" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="N35" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="O35" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="O35" si="28">2-O33-O34</f>
         <v>2</v>
       </c>
       <c r="P35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.53722373938153778</v>
+        <f t="shared" ref="P35" si="29">2-P33-P34</f>
+        <v>0.53737662535129471</v>
       </c>
       <c r="Q35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.9879201456572089</v>
+        <f t="shared" ref="Q35" si="30">2-Q33-Q34</f>
+        <v>1.9879216933295403</v>
       </c>
       <c r="R35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.62466838285051041</v>
+        <f t="shared" ref="R35" si="31">2-R33-R34</f>
+        <v>0.62487957887255452</v>
       </c>
       <c r="S35" s="32">
-        <f t="shared" si="40"/>
-        <v>-0.11985080641101463</v>
+        <f t="shared" ref="S35:W35" si="32">2-S33-S34</f>
+        <v>-0.11957016593297308</v>
       </c>
       <c r="T35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.9281294440345775</v>
+        <f t="shared" si="32"/>
+        <v>1.9281367673053424</v>
       </c>
       <c r="U35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.23733552111843892</v>
+        <f t="shared" si="32"/>
+        <v>0.2378750153737319</v>
       </c>
       <c r="V35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.17877886154507031</v>
+        <f t="shared" si="32"/>
+        <v>0.17893602686260113</v>
       </c>
       <c r="W35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.9167130920884097</v>
+        <f t="shared" si="32"/>
+        <v>1.9167384002205781</v>
       </c>
       <c r="X35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.25099011508395219</v>
+        <f t="shared" ref="X35" si="33">2-X33-X34</f>
+        <v>0.25138541553248972</v>
       </c>
       <c r="Y35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.37719905317783287</v>
+        <f t="shared" ref="Y35" si="34">2-Y33-Y34</f>
+        <v>0.37731232752299859</v>
       </c>
       <c r="Z35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.36045190382541276</v>
+        <f t="shared" ref="Z35" si="35">2-Z33-Z34</f>
+        <v>0.3605936853957436</v>
       </c>
       <c r="AA35" s="32">
-        <f t="shared" si="40"/>
-        <v>0.80491852999960201</v>
+        <f t="shared" ref="AA35" si="36">2-AA33-AA34</f>
+        <v>0.80503699393451011</v>
       </c>
       <c r="AB35" s="32">
-        <f t="shared" si="40"/>
-        <v>-2.5555033774735003E-2</v>
+        <f t="shared" ref="AB35:AE35" si="37">2-AB33-AB34</f>
+        <v>-2.5396856722901769E-2</v>
       </c>
       <c r="AC35" s="32">
-        <f t="shared" si="40"/>
-        <v>-9.1670612636817431E-2</v>
+        <f t="shared" si="37"/>
+        <v>-9.1444209376453242E-2</v>
       </c>
       <c r="AD35" s="32">
-        <f t="shared" si="40"/>
-        <v>-0.39730672645758769</v>
+        <f t="shared" si="37"/>
+        <v>-0.39704345537850227</v>
       </c>
       <c r="AE35" s="32">
-        <f t="shared" si="40"/>
-        <v>1.6364932358990099</v>
+        <f t="shared" si="37"/>
+        <v>1.6366881371923945</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -8681,123 +8686,123 @@
       </c>
       <c r="B38" s="42">
         <f>EXP(-61.9260681512942+65783.1796876913/(B$19+273.15)/8.31+2.53599567918181*B28+3.22062336896664*B22+5.56939536365427*B31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*B31+207.58312042747*B22)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((0.817581105867826+0.0645260838443783*B31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-0.9556*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-0.9556*0.0000000001)^3))))</f>
-        <v>6.6823080916559877E-2</v>
+        <v>6.6816742004305943E-2</v>
       </c>
       <c r="C38" s="42">
-        <f t="shared" ref="C38:AE38" si="41">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9556*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9556*0.0000000001)^3))))</f>
-        <v>8.9933392673370194E-2</v>
+        <f t="shared" ref="C38:AE38" si="38">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9556*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9556*0.0000000001)^3))))</f>
+        <v>8.9918308847442951E-2</v>
       </c>
       <c r="D38" s="42">
-        <f t="shared" si="41"/>
-        <v>8.4762289824162285E-2</v>
+        <f t="shared" si="38"/>
+        <v>8.4752452799267838E-2</v>
       </c>
       <c r="E38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.15020961865109508</v>
+        <f t="shared" si="38"/>
+        <v>0.15014797789825995</v>
       </c>
       <c r="F38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.11319106225808549</v>
+        <f t="shared" si="38"/>
+        <v>0.11311376689575928</v>
       </c>
       <c r="G38" s="42">
-        <f t="shared" si="41"/>
-        <v>9.9470446190061776E-2</v>
+        <f t="shared" si="38"/>
+        <v>9.9443173471432902E-2</v>
       </c>
       <c r="H38" s="42">
-        <f t="shared" si="41"/>
-        <v>7.9835067222797651E-2</v>
+        <f t="shared" si="38"/>
+        <v>7.980515287408145E-2</v>
       </c>
       <c r="I38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.11639664680308998</v>
+        <f t="shared" si="38"/>
+        <v>0.11634468140682183</v>
       </c>
       <c r="J38" s="42">
-        <f t="shared" si="41"/>
-        <v>9.5183209123369542E-2</v>
+        <f t="shared" si="38"/>
+        <v>9.5177139799503416E-2</v>
       </c>
       <c r="K38" s="42">
-        <f t="shared" si="41"/>
-        <v>8.9581208867976658E-2</v>
+        <f t="shared" si="38"/>
+        <v>8.9572289867521943E-2</v>
       </c>
       <c r="L38" s="42">
-        <f t="shared" si="41"/>
-        <v>5.0132497509970085E-2</v>
+        <f t="shared" si="38"/>
+        <v>5.013616594933077E-2</v>
       </c>
       <c r="M38" s="42">
-        <f t="shared" si="41"/>
-        <v>7.191858501993878E-2</v>
+        <f t="shared" si="38"/>
+        <v>7.191630817141563E-2</v>
       </c>
       <c r="N38" s="42">
-        <f t="shared" si="41"/>
-        <v>8.3799138497023695E-2</v>
+        <f t="shared" si="38"/>
+        <v>8.3790058226695108E-2</v>
       </c>
       <c r="O38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.10908230718705848</v>
+        <f t="shared" si="38"/>
+        <v>0.10896258986475291</v>
       </c>
       <c r="P38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.14268104932204481</v>
+        <f t="shared" si="38"/>
+        <v>0.14262766903150176</v>
       </c>
       <c r="Q38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.17898576688226078</v>
+        <f t="shared" si="38"/>
+        <v>0.17887024884101257</v>
       </c>
       <c r="R38" s="42">
-        <f t="shared" si="41"/>
-        <v>8.9464719629977124E-2</v>
+        <f t="shared" si="38"/>
+        <v>8.942005777658929E-2</v>
       </c>
       <c r="S38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.24981150733595545</v>
+        <f t="shared" si="38"/>
+        <v>0.24958433873826147</v>
       </c>
       <c r="T38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.17484975741862124</v>
+        <f t="shared" si="38"/>
+        <v>0.17474945971720926</v>
       </c>
       <c r="U38" s="42">
-        <f t="shared" si="41"/>
-        <v>7.7704664365594825E-2</v>
+        <f t="shared" si="38"/>
+        <v>7.7619529333475157E-2</v>
       </c>
       <c r="V38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.11587654311285663</v>
+        <f t="shared" si="38"/>
+        <v>0.11584535148967079</v>
       </c>
       <c r="W38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.22286371149958956</v>
+        <f t="shared" si="38"/>
+        <v>0.22237953719723524</v>
       </c>
       <c r="X38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.1546503317741853</v>
+        <f t="shared" si="38"/>
+        <v>0.15445170266463401</v>
       </c>
       <c r="Y38" s="42">
-        <f t="shared" si="41"/>
-        <v>6.9167349891768509E-2</v>
+        <f t="shared" si="38"/>
+        <v>6.9158696362235886E-2</v>
       </c>
       <c r="Z38" s="42">
-        <f t="shared" si="41"/>
-        <v>8.8264026367514098E-2</v>
+        <f t="shared" si="38"/>
+        <v>8.8241512434345304E-2</v>
       </c>
       <c r="AA38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.11482933245571969</v>
+        <f t="shared" si="38"/>
+        <v>0.11478736441186038</v>
       </c>
       <c r="AB38" s="42">
-        <f t="shared" si="41"/>
-        <v>7.7785077829929203E-2</v>
+        <f t="shared" si="38"/>
+        <v>7.7797889609331941E-2</v>
       </c>
       <c r="AC38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.31022228154865095</v>
+        <f t="shared" si="38"/>
+        <v>0.30995559293517333</v>
       </c>
       <c r="AD38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.29308932591473297</v>
+        <f t="shared" si="38"/>
+        <v>0.29283734435917452</v>
       </c>
       <c r="AE38" s="42">
-        <f t="shared" si="41"/>
-        <v>0.46291155670954248</v>
+        <f t="shared" si="38"/>
+        <v>0.46235712856531419</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
@@ -8806,123 +8811,123 @@
       </c>
       <c r="B39" s="42">
         <f>EXP(-61.9260681512942+65783.1796876913/(B$19+273.15)/8.31+2.53599567918181*B28+3.22062336896664*B22+5.56939536365427*B31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*B31+207.58312042747*B22)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((0.817581105867826+0.0645260838443783*B31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-0.9584*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-0.9584*0.0000000001)^3))))</f>
-        <v>7.3149367964774711E-2</v>
+        <v>7.314175587735422E-2</v>
       </c>
       <c r="C39" s="42">
-        <f t="shared" ref="C39:AE39" si="42">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9584*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9584*0.0000000001)^3))))</f>
-        <v>9.7882781604643476E-2</v>
+        <f t="shared" ref="C39:AE39" si="39">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9584*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-0.9584*0.0000000001)^3))))</f>
+        <v>9.7865475077223055E-2</v>
       </c>
       <c r="D39" s="42">
-        <f t="shared" si="42"/>
-        <v>9.243041979873734E-2</v>
+        <f t="shared" si="39"/>
+        <v>9.2419014801880001E-2</v>
       </c>
       <c r="E39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.16252842906739079</v>
+        <f t="shared" si="39"/>
+        <v>0.1624594823586448</v>
       </c>
       <c r="F39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.12213058308020508</v>
+        <f t="shared" si="39"/>
+        <v>0.12204459140717848</v>
       </c>
       <c r="G39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.10790111840697121</v>
+        <f t="shared" si="39"/>
+        <v>0.10787027035330803</v>
       </c>
       <c r="H39" s="42">
-        <f t="shared" si="42"/>
-        <v>8.651255675623E-2</v>
+        <f t="shared" si="39"/>
+        <v>8.6478760397566884E-2</v>
       </c>
       <c r="I39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.12568318909800655</v>
+        <f t="shared" si="39"/>
+        <v>0.12562527528691841</v>
       </c>
       <c r="J39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.10392330741149609</v>
+        <f t="shared" si="39"/>
+        <v>0.10391623923052462</v>
       </c>
       <c r="K39" s="42">
-        <f t="shared" si="42"/>
-        <v>9.7872186795359556E-2</v>
+        <f t="shared" si="39"/>
+        <v>9.7861744497938066E-2</v>
       </c>
       <c r="L39" s="42">
-        <f t="shared" si="42"/>
-        <v>5.5494345257112672E-2</v>
+        <f t="shared" si="39"/>
+        <v>5.5496305355875332E-2</v>
       </c>
       <c r="M39" s="42">
-        <f t="shared" si="42"/>
-        <v>7.922722764257599E-2</v>
+        <f t="shared" si="39"/>
+        <v>7.9223967136413664E-2</v>
       </c>
       <c r="N39" s="42">
-        <f t="shared" si="42"/>
-        <v>9.2057106153803331E-2</v>
+        <f t="shared" si="39"/>
+        <v>9.2045664833456331E-2</v>
       </c>
       <c r="O39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.11872398463011516</v>
+        <f t="shared" si="39"/>
+        <v>0.11858677846487115</v>
       </c>
       <c r="P39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.15497141334363673</v>
+        <f t="shared" si="39"/>
+        <v>0.15491084714116005</v>
       </c>
       <c r="Q39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.19289861957866897</v>
+        <f t="shared" si="39"/>
+        <v>0.19277064031407154</v>
       </c>
       <c r="R39" s="42">
-        <f t="shared" si="42"/>
-        <v>9.710109313339739E-2</v>
+        <f t="shared" si="39"/>
+        <v>9.7050254924926929E-2</v>
       </c>
       <c r="S39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.26684896192900587</v>
+        <f t="shared" si="39"/>
+        <v>0.26660204062002224</v>
       </c>
       <c r="T39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.18782863067502387</v>
+        <f t="shared" si="39"/>
+        <v>0.18771832017127421</v>
       </c>
       <c r="U39" s="42">
-        <f t="shared" si="42"/>
-        <v>8.4186055009923461E-2</v>
+        <f t="shared" si="39"/>
+        <v>8.4089764178107373E-2</v>
       </c>
       <c r="V39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.1261365458005945</v>
+        <f t="shared" si="39"/>
+        <v>0.12610077931886118</v>
       </c>
       <c r="W39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.23752313590671748</v>
+        <f t="shared" si="39"/>
+        <v>0.23699869432473439</v>
       </c>
       <c r="X39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.16599010986119611</v>
+        <f t="shared" si="39"/>
+        <v>0.16577191276774544</v>
       </c>
       <c r="Y39" s="42">
-        <f t="shared" si="42"/>
-        <v>7.5668046066153835E-2</v>
+        <f t="shared" si="39"/>
+        <v>7.5657635885197305E-2</v>
       </c>
       <c r="Z39" s="42">
-        <f t="shared" si="42"/>
-        <v>9.6017588620876879E-2</v>
+        <f t="shared" si="39"/>
+        <v>9.5991726939734234E-2</v>
       </c>
       <c r="AA39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.12455019866519244</v>
+        <f t="shared" si="39"/>
+        <v>0.12450272809541697</v>
       </c>
       <c r="AB39" s="42">
-        <f t="shared" si="42"/>
-        <v>8.7056547351509583E-2</v>
+        <f t="shared" si="39"/>
+        <v>8.7069326691256194E-2</v>
       </c>
       <c r="AC39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.32977071234193944</v>
+        <f t="shared" si="39"/>
+        <v>0.32948329962325978</v>
       </c>
       <c r="AD39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.31148818616101526</v>
+        <f t="shared" si="39"/>
+        <v>0.31121669006149072</v>
       </c>
       <c r="AE39" s="42">
-        <f t="shared" si="42"/>
-        <v>0.50931861163258174</v>
+        <f t="shared" si="39"/>
+        <v>0.50865739605653582</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
@@ -8931,123 +8936,123 @@
       </c>
       <c r="B40" s="43">
         <f>EXP(-61.9260681512942+65783.1796876913/(B$19+273.15)/8.31+2.53599567918181*B28+3.22062336896664*B22+5.56939536365427*B31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*B31+207.58312042747*B22)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((0.817581105867826+0.0645260838443783*B31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-1.18*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-1.18*0.0000000001)^3))))</f>
-        <v>5.1353698637471821</v>
+        <v>5.1311118172260546</v>
       </c>
       <c r="C40" s="43">
-        <f t="shared" ref="C40:AE40" si="43">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.18*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.18*0.0000000001)^3))))</f>
-        <v>5.0995766048122739</v>
+        <f t="shared" ref="C40:AE40" si="40">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.18*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.18*0.0000000001)^3))))</f>
+        <v>5.0950025043640617</v>
       </c>
       <c r="D40" s="43">
-        <f t="shared" si="43"/>
-        <v>5.3354419349625166</v>
+        <f t="shared" si="40"/>
+        <v>5.3316868535153583</v>
       </c>
       <c r="E40" s="43">
-        <f t="shared" si="43"/>
-        <v>6.186828086288612</v>
+        <f t="shared" si="40"/>
+        <v>6.1773716237410161</v>
       </c>
       <c r="F40" s="43">
-        <f t="shared" si="43"/>
-        <v>3.9544176930375943</v>
+        <f t="shared" si="40"/>
+        <v>3.9449260595184734</v>
       </c>
       <c r="G40" s="43">
-        <f t="shared" si="43"/>
-        <v>4.701828576066589</v>
+        <f t="shared" si="40"/>
+        <v>4.6961050765061794</v>
       </c>
       <c r="H40" s="43">
-        <f t="shared" si="43"/>
-        <v>3.5396253115730936</v>
+        <f t="shared" si="40"/>
+        <v>3.5337507414727405</v>
       </c>
       <c r="I40" s="43">
-        <f t="shared" si="43"/>
-        <v>4.3005253499377547</v>
+        <f t="shared" si="40"/>
+        <v>4.2936126102529935</v>
       </c>
       <c r="J40" s="43">
-        <f t="shared" si="43"/>
-        <v>6.4438129491795024</v>
+        <f t="shared" si="40"/>
+        <v>6.4412101127334118</v>
       </c>
       <c r="K40" s="43">
-        <f t="shared" si="43"/>
-        <v>6.2412016807511401</v>
+        <f t="shared" si="40"/>
+        <v>6.2370215414995434</v>
       </c>
       <c r="L40" s="43">
-        <f t="shared" si="43"/>
-        <v>6.1770360586932744</v>
+        <f t="shared" si="40"/>
+        <v>6.1588978945698019</v>
       </c>
       <c r="M40" s="43">
-        <f t="shared" si="43"/>
-        <v>7.3202171701604701</v>
+        <f t="shared" si="40"/>
+        <v>7.3144142747626368</v>
       </c>
       <c r="N40" s="43">
-        <f t="shared" si="43"/>
-        <v>7.2502850706618602</v>
+        <f t="shared" si="40"/>
+        <v>7.2402283320852696</v>
       </c>
       <c r="O40" s="43">
-        <f t="shared" si="43"/>
-        <v>5.2212234369905861</v>
+        <f t="shared" si="40"/>
+        <v>5.1910394643019542</v>
       </c>
       <c r="P40" s="43">
-        <f t="shared" si="43"/>
-        <v>6.7538952861877295</v>
+        <f t="shared" si="40"/>
+        <v>6.7421706853817378</v>
       </c>
       <c r="Q40" s="43">
-        <f t="shared" si="43"/>
-        <v>5.6641981756234294</v>
+        <f t="shared" si="40"/>
+        <v>5.652099905243964</v>
       </c>
       <c r="R40" s="43">
-        <f t="shared" si="43"/>
-        <v>4.0005832622994628</v>
+        <f t="shared" si="40"/>
+        <v>3.9906458067009085</v>
       </c>
       <c r="S40" s="43">
-        <f t="shared" si="43"/>
-        <v>5.1185987192325246</v>
+        <f t="shared" si="40"/>
+        <v>5.1071027079735396</v>
       </c>
       <c r="T40" s="43">
-        <f t="shared" si="43"/>
-        <v>4.7973589429243244</v>
+        <f t="shared" si="40"/>
+        <v>4.7891806803811754</v>
       </c>
       <c r="U40" s="43">
-        <f t="shared" si="43"/>
-        <v>3.0192345876640942</v>
+        <f t="shared" si="40"/>
+        <v>3.0041500189234984</v>
       </c>
       <c r="V40" s="43">
-        <f t="shared" si="43"/>
-        <v>6.2740003696890856</v>
+        <f t="shared" si="40"/>
+        <v>6.2650065974800855</v>
       </c>
       <c r="W40" s="43">
-        <f t="shared" si="43"/>
-        <v>3.8459076871324567</v>
+        <f t="shared" si="40"/>
+        <v>3.8261349014029165</v>
       </c>
       <c r="X40" s="43">
-        <f t="shared" si="43"/>
-        <v>3.885355922789588</v>
+        <f t="shared" si="40"/>
+        <v>3.8706975763748295</v>
       </c>
       <c r="Y40" s="43">
-        <f t="shared" si="43"/>
-        <v>4.881060022224462</v>
+        <f t="shared" si="40"/>
+        <v>4.8755471932817374</v>
       </c>
       <c r="Z40" s="43">
-        <f t="shared" si="43"/>
-        <v>4.6235472777552378</v>
+        <f t="shared" si="40"/>
+        <v>4.6170197234335069</v>
       </c>
       <c r="AA40" s="43">
-        <f t="shared" si="43"/>
-        <v>5.1473715990409259</v>
+        <f t="shared" si="40"/>
+        <v>5.138933717307907</v>
       </c>
       <c r="AB40" s="43">
-        <f t="shared" si="43"/>
-        <v>17.059076885641002</v>
+        <f t="shared" si="40"/>
+        <v>17.037520913918712</v>
       </c>
       <c r="AC40" s="43">
-        <f t="shared" si="43"/>
-        <v>5.0784920340270716</v>
+        <f t="shared" si="40"/>
+        <v>5.0690320642041948</v>
       </c>
       <c r="AD40" s="43">
-        <f t="shared" si="43"/>
-        <v>4.7124940953499923</v>
+        <f t="shared" si="40"/>
+        <v>4.7036941109360653</v>
       </c>
       <c r="AE40" s="43">
-        <f t="shared" si="43"/>
-        <v>31.319132754338021</v>
+        <f t="shared" si="40"/>
+        <v>31.026477028025003</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="18" x14ac:dyDescent="0.2">
@@ -9056,123 +9061,123 @@
       </c>
       <c r="B41" s="43">
         <f>EXP(-61.9260681512942+65783.1796876913/(B$19+273.15)/8.31+2.53599567918181*B28+3.22062336896664*B22+5.56939536365427*B31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*B31+207.58312042747*B22)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((0.817581105867826+0.0645260838443783*B31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>2.4602075242040864</v>
+        <v>2.4572450096681679</v>
       </c>
       <c r="C41" s="43">
-        <f t="shared" ref="C41:AE41" si="44">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.3*0.0000000001)^3))))</f>
-        <v>2.4528925349054651</v>
+        <f t="shared" ref="C41:AE41" si="41">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.3*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.3*0.0000000001)^3))))</f>
+        <v>2.4497686107657914</v>
       </c>
       <c r="D41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.5780442635127585</v>
+        <f t="shared" si="41"/>
+        <v>2.5754499235124202</v>
       </c>
       <c r="E41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.9470775621668963</v>
+        <f t="shared" si="41"/>
+        <v>2.9408508839990017</v>
       </c>
       <c r="F41" s="43">
-        <f t="shared" si="44"/>
-        <v>1.8407102752266045</v>
+        <f t="shared" si="41"/>
+        <v>1.834632350664573</v>
       </c>
       <c r="G41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.2489525205320788</v>
+        <f t="shared" si="41"/>
+        <v>2.2451123205606724</v>
       </c>
       <c r="H41" s="43">
-        <f t="shared" si="44"/>
-        <v>1.6691514550170656</v>
+        <f t="shared" si="41"/>
+        <v>1.6652652153749907</v>
       </c>
       <c r="I41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.05218094186072</v>
+        <f t="shared" si="41"/>
+        <v>2.0476307030839465</v>
       </c>
       <c r="J41" s="43">
-        <f t="shared" si="44"/>
-        <v>3.1447941863509214</v>
+        <f t="shared" si="41"/>
+        <v>3.1429741330858572</v>
       </c>
       <c r="K41" s="43">
-        <f t="shared" si="44"/>
-        <v>3.0140285945149952</v>
+        <f t="shared" si="41"/>
+        <v>3.0111285352437251</v>
       </c>
       <c r="L41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.4513160781702155</v>
+        <f t="shared" si="41"/>
+        <v>2.4403769540868567</v>
       </c>
       <c r="M41" s="43">
-        <f t="shared" si="44"/>
-        <v>3.2158779443927936</v>
+        <f t="shared" si="41"/>
+        <v>3.2120678191340413</v>
       </c>
       <c r="N41" s="43">
-        <f t="shared" si="44"/>
-        <v>3.120593616278831</v>
+        <f t="shared" si="41"/>
+        <v>3.1142025420378485</v>
       </c>
       <c r="O41" s="43">
-        <f t="shared" si="44"/>
-        <v>1.9359517366651622</v>
+        <f t="shared" si="41"/>
+        <v>1.9200450268455176</v>
       </c>
       <c r="P41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.9166272790432379</v>
+        <f t="shared" si="41"/>
+        <v>2.9094479618669711</v>
       </c>
       <c r="Q41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.4895377600139272</v>
+        <f t="shared" si="41"/>
+        <v>2.4821973430805722</v>
       </c>
       <c r="R41" s="43">
-        <f t="shared" si="44"/>
-        <v>1.6791810471945681</v>
+        <f t="shared" si="41"/>
+        <v>1.6732356843944685</v>
       </c>
       <c r="S41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.3875556214173494</v>
+        <f t="shared" si="41"/>
+        <v>2.3804100590361084</v>
       </c>
       <c r="T41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.2106889727127883</v>
+        <f t="shared" si="41"/>
+        <v>2.2055523359812534</v>
       </c>
       <c r="U41" s="43">
-        <f t="shared" si="44"/>
-        <v>1.1827942073798585</v>
+        <f t="shared" si="41"/>
+        <v>1.1744582335748619</v>
       </c>
       <c r="V41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.7792551659584452</v>
+        <f t="shared" si="41"/>
+        <v>2.7735693286896241</v>
       </c>
       <c r="W41" s="43">
-        <f t="shared" si="44"/>
-        <v>1.6595095958773973</v>
+        <f t="shared" si="41"/>
+        <v>1.6482230647740959</v>
       </c>
       <c r="X41" s="43">
-        <f t="shared" si="44"/>
-        <v>1.6752703718219384</v>
+        <f t="shared" si="41"/>
+        <v>1.6666784460182187</v>
       </c>
       <c r="Y41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.1593950898145491</v>
+        <f t="shared" si="41"/>
+        <v>2.1558277537934045</v>
       </c>
       <c r="Z41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.0515939010898645</v>
+        <f t="shared" si="41"/>
+        <v>2.0474474168047681</v>
       </c>
       <c r="AA41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.286579941650682</v>
+        <f t="shared" si="41"/>
+        <v>2.2812865927328634</v>
       </c>
       <c r="AB41" s="43">
-        <f t="shared" si="44"/>
-        <v>6.6718482920758895</v>
+        <f t="shared" si="41"/>
+        <v>6.6585590646653374</v>
       </c>
       <c r="AC41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.4996311482759936</v>
+        <f t="shared" si="41"/>
+        <v>2.4935542493296827</v>
       </c>
       <c r="AD41" s="43">
-        <f t="shared" si="44"/>
-        <v>2.2981279780485515</v>
+        <f t="shared" si="41"/>
+        <v>2.2925110287243591</v>
       </c>
       <c r="AE41" s="43">
-        <f t="shared" si="44"/>
-        <v>8.1346773124820384</v>
+        <f t="shared" si="41"/>
+        <v>8.0237467243250009</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
@@ -9181,123 +9186,123 @@
       </c>
       <c r="B42" s="43">
         <f>EXP(-61.9260681512942+65783.1796876913/(B$19+273.15)/8.31+2.53599567918181*B28+3.22062336896664*B22+5.56939536365427*B31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*B31+207.58312042747*B22)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((0.817581105867826+0.0645260838443783*B31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-1.31*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*B31)*0.0000000001-1.31*0.0000000001)^3))))</f>
-        <v>2.0581460241047402</v>
+        <v>2.055605497134152</v>
       </c>
       <c r="C42" s="43">
-        <f t="shared" ref="C42:AE42" si="45">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.31*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.31*0.0000000001)^3))))</f>
-        <v>2.0659261613249762</v>
+        <f t="shared" ref="C42:AE42" si="42">EXP(-61.9260681512942+65783.1796876913/(C$19+273.15)/8.31+2.53599567918181*C28+3.22062336896664*C22+5.56939536365427*C31)*EXP(((-4*PI()*(-2474.08365451656+448.613976729953*C31+207.58312042747*C22)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((0.817581105867826+0.0645260838443783*C31)*0.0000000001/2*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.31*0.0000000001)^2)-(1/3*((0.817581105867826+0.0645260838443783*C31)*0.0000000001-1.31*0.0000000001)^3))))</f>
+        <v>2.0632320515832041</v>
       </c>
       <c r="D42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.1678577640025054</v>
+        <f t="shared" si="42"/>
+        <v>2.1656231775002475</v>
       </c>
       <c r="E42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.4956225618847929</v>
+        <f t="shared" si="42"/>
+        <v>2.4902309344601465</v>
       </c>
       <c r="F42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.5596778293675211</v>
+        <f t="shared" si="42"/>
+        <v>1.5544130346268918</v>
       </c>
       <c r="G42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.8999911740379132</v>
+        <f t="shared" si="42"/>
+        <v>1.896671159995911</v>
       </c>
       <c r="H42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.4095927464938016</v>
+        <f t="shared" si="42"/>
+        <v>1.406234215527266</v>
       </c>
       <c r="I42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.7420821721697861</v>
+        <f t="shared" si="42"/>
+        <v>1.7381327457201683</v>
       </c>
       <c r="J42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.6436531537634402</v>
+        <f t="shared" si="42"/>
+        <v>2.642085796970246</v>
       </c>
       <c r="K42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.529007881464568</v>
+        <f t="shared" si="42"/>
+        <v>2.5265148168148608</v>
       </c>
       <c r="L42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.9851460347152405</v>
+        <f t="shared" si="42"/>
+        <v>1.9760440150572616</v>
       </c>
       <c r="M42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.6469192532038228</v>
+        <f t="shared" si="42"/>
+        <v>2.6436992784167237</v>
       </c>
       <c r="N42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.570736221705757</v>
+        <f t="shared" si="42"/>
+        <v>2.5653335981166276</v>
       </c>
       <c r="O42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.5855667057196863</v>
+        <f t="shared" si="42"/>
+        <v>1.5722250179971355</v>
       </c>
       <c r="P42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.4337375051338337</v>
+        <f t="shared" si="42"/>
+        <v>2.4276016583714277</v>
       </c>
       <c r="Q42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.0991355594687011</v>
+        <f t="shared" si="42"/>
+        <v>2.0928045119089971</v>
       </c>
       <c r="R42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.3979976495179085</v>
+        <f t="shared" si="42"/>
+        <v>1.392926447945688</v>
       </c>
       <c r="S42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.0459136443471428</v>
+        <f t="shared" si="42"/>
+        <v>2.0396621784138436</v>
       </c>
       <c r="T42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.8802275952777503</v>
+        <f t="shared" si="42"/>
+        <v>1.8757619724467196</v>
       </c>
       <c r="U42" s="43">
-        <f t="shared" si="45"/>
-        <v>0.97938544912345893</v>
+        <f t="shared" si="42"/>
+        <v>0.97231882049350593</v>
       </c>
       <c r="V42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.3198248002307991</v>
+        <f t="shared" si="42"/>
+        <v>2.3149628081226123</v>
       </c>
       <c r="W42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.4137151925590696</v>
+        <f t="shared" si="42"/>
+        <v>1.4039031370505846</v>
       </c>
       <c r="X42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.4160086997204551</v>
+        <f t="shared" si="42"/>
+        <v>1.4085869249260963</v>
       </c>
       <c r="Y42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.7923350117733869</v>
+        <f t="shared" si="42"/>
+        <v>1.7892979249046679</v>
       </c>
       <c r="Z42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.713967421641629</v>
+        <f t="shared" si="42"/>
+        <v>1.7104179210457928</v>
       </c>
       <c r="AA42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.9166838805137072</v>
+        <f t="shared" si="42"/>
+        <v>1.9121405686336492</v>
       </c>
       <c r="AB42" s="43">
-        <f t="shared" si="45"/>
-        <v>5.3298376651145496</v>
+        <f t="shared" si="42"/>
+        <v>5.3189091359005172</v>
       </c>
       <c r="AC42" s="43">
-        <f t="shared" si="45"/>
-        <v>2.1659075765163065</v>
+        <f t="shared" si="42"/>
+        <v>2.1605379532827578</v>
       </c>
       <c r="AD42" s="43">
-        <f t="shared" si="45"/>
-        <v>1.9898185571849265</v>
+        <f t="shared" si="42"/>
+        <v>1.9848577389438171</v>
       </c>
       <c r="AE42" s="43">
-        <f t="shared" si="45"/>
-        <v>6.3364329155578565</v>
+        <f t="shared" si="42"/>
+        <v>6.2477989535403902</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
@@ -9310,123 +9315,123 @@
       </c>
       <c r="B44" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.216*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.216*0.0000000001)^3))))</f>
-        <v>7.0244466782419472</v>
+        <v>7.0200633298285027</v>
       </c>
       <c r="C44" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.216*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.216*0.0000000001)^3))))</f>
-        <v>6.6038082068998945</v>
+        <v>6.5994550904622695</v>
       </c>
       <c r="D44" s="43">
-        <f t="shared" ref="D44:AE44" si="46">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.216*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.216*0.0000000001)^3))))</f>
-        <v>6.388764368286397</v>
+        <f t="shared" ref="D44:AE44" si="43">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.216*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.216*0.0000000001)^3))))</f>
+        <v>6.3857568555585473</v>
       </c>
       <c r="E44" s="43">
-        <f t="shared" si="46"/>
-        <v>9.8400921189734945</v>
+        <f t="shared" si="43"/>
+        <v>9.8311532722049524</v>
       </c>
       <c r="F44" s="43">
-        <f t="shared" si="46"/>
-        <v>2.8796050741361601</v>
+        <f t="shared" si="43"/>
+        <v>2.8759064772582525</v>
       </c>
       <c r="G44" s="43">
-        <f t="shared" si="46"/>
-        <v>3.7110203152826142</v>
+        <f t="shared" si="43"/>
+        <v>3.7086353217045893</v>
       </c>
       <c r="H44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.621390207204811</v>
+        <f t="shared" si="43"/>
+        <v>1.6201162098634452</v>
       </c>
       <c r="I44" s="43">
-        <f t="shared" si="46"/>
-        <v>2.9961241033124311</v>
+        <f t="shared" si="43"/>
+        <v>2.993655567918494</v>
       </c>
       <c r="J44" s="43">
-        <f t="shared" si="46"/>
-        <v>9.7149133974816557</v>
+        <f t="shared" si="43"/>
+        <v>9.7124258505692609</v>
       </c>
       <c r="K44" s="43">
-        <f t="shared" si="46"/>
-        <v>8.9837966577007329</v>
+        <f t="shared" si="43"/>
+        <v>8.9801079837768416</v>
       </c>
       <c r="L44" s="43">
-        <f t="shared" si="46"/>
-        <v>2.9939477043007421</v>
+        <f t="shared" si="43"/>
+        <v>2.990113627967844</v>
       </c>
       <c r="M44" s="43">
-        <f t="shared" si="46"/>
-        <v>3.038096057116797</v>
+        <f t="shared" si="43"/>
+        <v>3.0370502327560085</v>
       </c>
       <c r="N44" s="43">
-        <f t="shared" si="46"/>
-        <v>3.346938747602568</v>
+        <f t="shared" si="43"/>
+        <v>3.3449131402799104</v>
       </c>
       <c r="O44" s="43">
-        <f t="shared" si="46"/>
-        <v>3.2097189023467934</v>
+        <f t="shared" si="43"/>
+        <v>3.2018421389466991</v>
       </c>
       <c r="P44" s="43">
-        <f t="shared" si="46"/>
-        <v>2.0884402647896794</v>
+        <f t="shared" si="43"/>
+        <v>2.0870085490549286</v>
       </c>
       <c r="Q44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.3198339255746843</v>
+        <f t="shared" si="43"/>
+        <v>1.3187695203013257</v>
       </c>
       <c r="R44" s="43">
-        <f t="shared" si="46"/>
-        <v>0.52900330215094771</v>
+        <f t="shared" si="43"/>
+        <v>0.52850420371299212</v>
       </c>
       <c r="S44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.5584496718684258</v>
+        <f t="shared" si="43"/>
+        <v>1.5570667402311495</v>
       </c>
       <c r="T44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.125117398525898</v>
+        <f t="shared" si="43"/>
+        <v>1.1243889265838245</v>
       </c>
       <c r="U44" s="43">
-        <f t="shared" si="46"/>
-        <v>0.63317399600561641</v>
+        <f t="shared" si="43"/>
+        <v>0.63190382420038205</v>
       </c>
       <c r="V44" s="43">
-        <f t="shared" si="46"/>
-        <v>2.5538505161471279</v>
+        <f t="shared" si="43"/>
+        <v>2.5522732826202077</v>
       </c>
       <c r="W44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.2986790734005231</v>
+        <f t="shared" si="43"/>
+        <v>1.295947262852891</v>
       </c>
       <c r="X44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.0119781852191099</v>
+        <f t="shared" si="43"/>
+        <v>1.0103872495420791</v>
       </c>
       <c r="Y44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.095928404035124</v>
+        <f t="shared" si="43"/>
+        <v>1.0954424544861916</v>
       </c>
       <c r="Z44" s="43">
-        <f t="shared" si="46"/>
-        <v>0.96556311200907907</v>
+        <f t="shared" si="43"/>
+        <v>0.96504446389777288</v>
       </c>
       <c r="AA44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.4505074115695145</v>
+        <f t="shared" si="43"/>
+        <v>1.4495288513292801</v>
       </c>
       <c r="AB44" s="43">
-        <f t="shared" si="46"/>
-        <v>15.092729042598394</v>
+        <f t="shared" si="43"/>
+        <v>15.082193084302959</v>
       </c>
       <c r="AC44" s="43">
-        <f t="shared" si="46"/>
-        <v>2.3240675588948361</v>
+        <f t="shared" si="43"/>
+        <v>2.3220312465275423</v>
       </c>
       <c r="AD44" s="43">
-        <f t="shared" si="46"/>
-        <v>1.4181431897358328</v>
+        <f t="shared" si="43"/>
+        <v>1.416842752024938</v>
       </c>
       <c r="AE44" s="43">
-        <f t="shared" si="46"/>
-        <v>66.848873822571292</v>
+        <f t="shared" si="43"/>
+        <v>66.595217549609202</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
@@ -9435,123 +9440,123 @@
       </c>
       <c r="B45" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.196*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.196*0.0000000001)^3))))</f>
-        <v>8.6500478304007959</v>
+        <v>8.6440239029628962</v>
       </c>
       <c r="C45" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.196*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.196*0.0000000001)^3))))</f>
-        <v>8.0967836125581449</v>
+        <v>8.0908072369452011</v>
       </c>
       <c r="D45" s="43">
-        <f t="shared" ref="D45:AE45" si="47">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.196*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.196*0.0000000001)^3))))</f>
-        <v>8.2736461206267791</v>
+        <f t="shared" ref="D45:AE45" si="44">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.196*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.196*0.0000000001)^3))))</f>
+        <v>8.2690828184007525</v>
       </c>
       <c r="E45" s="43">
-        <f t="shared" si="47"/>
-        <v>13.115743442082973</v>
+        <f t="shared" si="44"/>
+        <v>13.101081329410958</v>
       </c>
       <c r="F45" s="43">
-        <f t="shared" si="47"/>
-        <v>3.7741363558927539</v>
+        <f t="shared" si="44"/>
+        <v>3.7680430302026058</v>
       </c>
       <c r="G45" s="43">
-        <f t="shared" si="47"/>
-        <v>5.0467395210624897</v>
+        <f t="shared" si="44"/>
+        <v>5.0425923921903557</v>
       </c>
       <c r="H45" s="43">
-        <f t="shared" si="47"/>
-        <v>2.2021837450744282</v>
+        <f t="shared" si="44"/>
+        <v>2.1998985025295581</v>
       </c>
       <c r="I45" s="43">
-        <f t="shared" si="47"/>
-        <v>4.018109889437989</v>
+        <f t="shared" si="44"/>
+        <v>4.0138593803247815</v>
       </c>
       <c r="J45" s="43">
-        <f t="shared" si="47"/>
-        <v>13.116036530896581</v>
+        <f t="shared" si="44"/>
+        <v>13.111972975302226</v>
       </c>
       <c r="K45" s="43">
-        <f t="shared" si="47"/>
-        <v>12.242683142058826</v>
+        <f t="shared" si="44"/>
+        <v>12.236518869697262</v>
       </c>
       <c r="L45" s="43">
-        <f t="shared" si="47"/>
-        <v>4.275820384743021</v>
+        <f t="shared" si="44"/>
+        <v>4.2681016644232246</v>
       </c>
       <c r="M45" s="43">
-        <f t="shared" si="47"/>
-        <v>4.4138963615328359</v>
+        <f t="shared" si="44"/>
+        <v>4.4117517054981237</v>
       </c>
       <c r="N45" s="43">
-        <f t="shared" si="47"/>
-        <v>4.7971436800020522</v>
+        <f t="shared" si="44"/>
+        <v>4.7930675774939067</v>
       </c>
       <c r="O45" s="43">
-        <f t="shared" si="47"/>
-        <v>4.2672572833310287</v>
+        <f t="shared" si="44"/>
+        <v>4.2526460527167513</v>
       </c>
       <c r="P45" s="43">
-        <f t="shared" si="47"/>
-        <v>2.9046271699043831</v>
+        <f t="shared" si="44"/>
+        <v>2.9017607812661779</v>
       </c>
       <c r="Q45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.7851504574867363</v>
+        <f t="shared" si="44"/>
+        <v>1.7830693369272326</v>
       </c>
       <c r="R45" s="43">
-        <f t="shared" si="47"/>
-        <v>0.70679582584132139</v>
+        <f t="shared" si="44"/>
+        <v>0.70584808817519196</v>
       </c>
       <c r="S45" s="43">
-        <f t="shared" si="47"/>
-        <v>2.0641588044377608</v>
+        <f t="shared" si="44"/>
+        <v>2.0615786518065771</v>
       </c>
       <c r="T45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.5201152083388059</v>
+        <f t="shared" si="44"/>
+        <v>1.5187026175452456</v>
       </c>
       <c r="U45" s="43">
-        <f t="shared" si="47"/>
-        <v>0.81902362752895241</v>
+        <f t="shared" si="44"/>
+        <v>0.81675054523488133</v>
       </c>
       <c r="V45" s="43">
-        <f t="shared" si="47"/>
-        <v>3.5674611930873334</v>
+        <f t="shared" si="44"/>
+        <v>3.5643949022490524</v>
       </c>
       <c r="W45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.635605568327001</v>
+        <f t="shared" si="44"/>
+        <v>1.6308827543411646</v>
       </c>
       <c r="X45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.3054765160100943</v>
+        <f t="shared" si="44"/>
+        <v>1.3026774580983373</v>
       </c>
       <c r="Y45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.5509726911348942</v>
+        <f t="shared" si="44"/>
+        <v>1.5499811258138279</v>
       </c>
       <c r="Z45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.3457416605280592</v>
+        <f t="shared" si="44"/>
+        <v>1.3446935875277219</v>
       </c>
       <c r="AA45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.9922093122032409</v>
+        <f t="shared" si="44"/>
+        <v>1.9903258959969317</v>
       </c>
       <c r="AB45" s="43">
-        <f t="shared" si="47"/>
-        <v>21.751961629636707</v>
+        <f t="shared" si="44"/>
+        <v>21.732091814417878</v>
       </c>
       <c r="AC45" s="43">
-        <f t="shared" si="47"/>
-        <v>2.9972628952743929</v>
+        <f t="shared" si="44"/>
+        <v>2.9938348014137417</v>
       </c>
       <c r="AD45" s="43">
-        <f t="shared" si="47"/>
-        <v>1.7796306337421515</v>
+        <f t="shared" si="44"/>
+        <v>1.7775667444348475</v>
       </c>
       <c r="AE45" s="43">
-        <f t="shared" si="47"/>
-        <v>88.662072362888168</v>
+        <f t="shared" si="44"/>
+        <v>88.161160754006644</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -9560,123 +9565,123 @@
       </c>
       <c r="B46" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.179*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.179*0.0000000001)^3))))</f>
-        <v>9.5658285611803446</v>
+        <v>9.5588546313572067</v>
       </c>
       <c r="C46" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.179*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.179*0.0000000001)^3))))</f>
-        <v>8.9466204925865416</v>
+        <v>8.9396916765003347</v>
       </c>
       <c r="D46" s="43">
-        <f t="shared" ref="D46:AE46" si="48">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.179*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.179*0.0000000001)^3))))</f>
-        <v>9.5575537688760814</v>
+        <f t="shared" ref="D46:AE46" si="45">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.179*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.179*0.0000000001)^3))))</f>
+        <v>9.5518599801467943</v>
       </c>
       <c r="E46" s="43">
-        <f t="shared" si="48"/>
-        <v>15.607127452045708</v>
+        <f t="shared" si="45"/>
+        <v>15.587708544800359</v>
       </c>
       <c r="F46" s="43">
-        <f t="shared" si="48"/>
-        <v>4.4436693015775637</v>
+        <f t="shared" si="45"/>
+        <v>4.4356130086491357</v>
       </c>
       <c r="G46" s="43">
-        <f t="shared" si="48"/>
-        <v>6.0958222255493029</v>
+        <f t="shared" si="45"/>
+        <v>6.0901435375797277</v>
       </c>
       <c r="H46" s="43">
-        <f t="shared" si="48"/>
-        <v>2.6613660834890402</v>
+        <f t="shared" si="45"/>
+        <v>2.6581898270294673</v>
       </c>
       <c r="I46" s="43">
-        <f t="shared" si="48"/>
-        <v>4.8119515305926992</v>
+        <f t="shared" si="45"/>
+        <v>4.8061708792460118</v>
       </c>
       <c r="J46" s="43">
-        <f t="shared" si="48"/>
-        <v>15.668350469787491</v>
+        <f t="shared" si="45"/>
+        <v>15.663000920124468</v>
       </c>
       <c r="K46" s="43">
-        <f t="shared" si="48"/>
-        <v>14.744467611253135</v>
+        <f t="shared" si="45"/>
+        <v>14.736224783356624</v>
       </c>
       <c r="L46" s="43">
-        <f t="shared" si="48"/>
-        <v>5.3355496655477781</v>
+        <f t="shared" si="45"/>
+        <v>5.3241796845064346</v>
       </c>
       <c r="M46" s="43">
-        <f t="shared" si="48"/>
-        <v>5.5668248997936649</v>
+        <f t="shared" si="45"/>
+        <v>5.5636301955732694</v>
       </c>
       <c r="N46" s="43">
-        <f t="shared" si="48"/>
-        <v>5.9994504567838467</v>
+        <f t="shared" si="45"/>
+        <v>5.9934416674935882</v>
       </c>
       <c r="O46" s="43">
-        <f t="shared" si="48"/>
-        <v>5.0931988707872984</v>
+        <f t="shared" si="45"/>
+        <v>5.0726926112291926</v>
       </c>
       <c r="P46" s="43">
-        <f t="shared" si="48"/>
-        <v>3.5622341515436768</v>
+        <f t="shared" si="45"/>
+        <v>3.5580553289762347</v>
       </c>
       <c r="Q46" s="43">
-        <f t="shared" si="48"/>
-        <v>2.1493336141884156</v>
+        <f t="shared" si="45"/>
+        <v>2.1463538403452378</v>
       </c>
       <c r="R46" s="43">
-        <f t="shared" si="48"/>
-        <v>0.84038778207497677</v>
+        <f t="shared" si="45"/>
+        <v>0.83906240386529307</v>
       </c>
       <c r="S46" s="43">
-        <f t="shared" si="48"/>
-        <v>2.4560180652619858</v>
+        <f t="shared" si="45"/>
+        <v>2.4523977051624395</v>
       </c>
       <c r="T46" s="43">
-        <f t="shared" si="48"/>
-        <v>1.8313292294621275</v>
+        <f t="shared" si="45"/>
+        <v>1.8293081919491763</v>
       </c>
       <c r="U46" s="43">
-        <f t="shared" si="48"/>
-        <v>0.95613734111772142</v>
+        <f t="shared" si="45"/>
+        <v>0.95304321998342101</v>
       </c>
       <c r="V46" s="43">
-        <f t="shared" si="48"/>
-        <v>4.3880176141794722</v>
+        <f t="shared" si="45"/>
+        <v>4.3835889153539398</v>
       </c>
       <c r="W46" s="43">
-        <f t="shared" si="48"/>
-        <v>1.8825588308206145</v>
+        <f t="shared" si="45"/>
+        <v>1.8762253940854818</v>
       </c>
       <c r="X46" s="43">
-        <f t="shared" si="48"/>
-        <v>1.5221986958065252</v>
+        <f t="shared" si="45"/>
+        <v>1.5184118175131955</v>
       </c>
       <c r="Y46" s="43">
-        <f t="shared" si="48"/>
-        <v>1.9226388237330416</v>
+        <f t="shared" si="45"/>
+        <v>1.9211768245506315</v>
       </c>
       <c r="Z46" s="43">
-        <f t="shared" si="48"/>
-        <v>1.6526667885683657</v>
+        <f t="shared" si="45"/>
+        <v>1.6511326942689641</v>
       </c>
       <c r="AA46" s="43">
-        <f t="shared" si="48"/>
-        <v>2.4215366219248318</v>
+        <f t="shared" si="45"/>
+        <v>2.4188446800177226</v>
       </c>
       <c r="AB46" s="43">
-        <f t="shared" si="48"/>
-        <v>26.987145992149607</v>
+        <f t="shared" si="45"/>
+        <v>26.959092259131008</v>
       </c>
       <c r="AC46" s="43">
-        <f t="shared" si="48"/>
-        <v>3.4959076876788506</v>
+        <f t="shared" si="45"/>
+        <v>3.4913452152574922</v>
       </c>
       <c r="AD46" s="43">
-        <f t="shared" si="48"/>
-        <v>2.0275023733434065</v>
+        <f t="shared" si="45"/>
+        <v>2.0248713286314191</v>
       </c>
       <c r="AE46" s="43">
-        <f t="shared" si="48"/>
-        <v>105.66587668561121</v>
+        <f t="shared" si="45"/>
+        <v>104.94729162085912</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
@@ -9685,123 +9690,123 @@
       </c>
       <c r="B47" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.163*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.163*0.0000000001)^3))))</f>
-        <v>9.881755090331497</v>
+        <v>9.874479970919694</v>
       </c>
       <c r="C47" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.163*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.163*0.0000000001)^3))))</f>
-        <v>9.2565801042451561</v>
+        <v>9.2493266361415962</v>
       </c>
       <c r="D47" s="43">
-        <f t="shared" ref="D47:AE47" si="49">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.163*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.163*0.0000000001)^3))))</f>
-        <v>10.293663661460871</v>
+        <f t="shared" ref="D47:AE47" si="46">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.163*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.163*0.0000000001)^3))))</f>
+        <v>10.287308754655978</v>
       </c>
       <c r="E47" s="43">
-        <f t="shared" si="49"/>
-        <v>17.357695643558799</v>
+        <f t="shared" si="46"/>
+        <v>17.334767079237452</v>
       </c>
       <c r="F47" s="43">
-        <f t="shared" si="49"/>
-        <v>4.9078005201901052</v>
+        <f t="shared" si="46"/>
+        <v>4.8983143691505227</v>
       </c>
       <c r="G47" s="43">
-        <f t="shared" si="49"/>
-        <v>6.8636568219273695</v>
+        <f t="shared" si="46"/>
+        <v>6.8567906016309017</v>
       </c>
       <c r="H47" s="43">
-        <f t="shared" si="49"/>
-        <v>3.002016695087621</v>
+        <f t="shared" si="46"/>
+        <v>2.9981368448728367</v>
       </c>
       <c r="I47" s="43">
-        <f t="shared" si="49"/>
-        <v>5.3889513257424504</v>
+        <f t="shared" si="46"/>
+        <v>5.3819931359018716</v>
       </c>
       <c r="J47" s="43">
-        <f t="shared" si="49"/>
-        <v>17.390121178234573</v>
+        <f t="shared" si="46"/>
+        <v>17.383866275523818</v>
       </c>
       <c r="K47" s="43">
-        <f t="shared" si="49"/>
-        <v>16.493083107888062</v>
+        <f t="shared" si="46"/>
+        <v>16.483315896805511</v>
       </c>
       <c r="L47" s="43">
-        <f t="shared" si="49"/>
-        <v>6.1489468623500283</v>
+        <f t="shared" si="46"/>
+        <v>6.1345601688686671</v>
       </c>
       <c r="M47" s="43">
-        <f t="shared" si="49"/>
-        <v>6.4594183051349772</v>
+        <f t="shared" si="46"/>
+        <v>6.4553471389265544</v>
       </c>
       <c r="N47" s="43">
-        <f t="shared" si="49"/>
-        <v>6.9239516152196252</v>
+        <f t="shared" si="46"/>
+        <v>6.9163431471727694</v>
       </c>
       <c r="O47" s="43">
-        <f t="shared" si="49"/>
-        <v>5.7046999151193347</v>
+        <f t="shared" si="46"/>
+        <v>5.6795313520787039</v>
       </c>
       <c r="P47" s="43">
-        <f t="shared" si="49"/>
-        <v>4.0560014504003465</v>
+        <f t="shared" si="46"/>
+        <v>4.0507633704990633</v>
       </c>
       <c r="Q47" s="43">
-        <f t="shared" si="49"/>
-        <v>2.4155638916002449</v>
+        <f t="shared" si="46"/>
+        <v>2.4118806565499971</v>
       </c>
       <c r="R47" s="43">
-        <f t="shared" si="49"/>
-        <v>0.93180006913100921</v>
+        <f t="shared" si="46"/>
+        <v>0.93020054040844136</v>
       </c>
       <c r="S47" s="43">
-        <f t="shared" si="49"/>
-        <v>2.7430121662271607</v>
+        <f t="shared" si="46"/>
+        <v>2.7385783117327125</v>
       </c>
       <c r="T47" s="43">
-        <f t="shared" si="49"/>
-        <v>2.0619089991846185</v>
+        <f t="shared" si="46"/>
+        <v>2.0594048331364561</v>
       </c>
       <c r="U47" s="43">
-        <f t="shared" si="49"/>
-        <v>1.0498441101992995</v>
+        <f t="shared" si="46"/>
+        <v>1.0461567611503004</v>
       </c>
       <c r="V47" s="43">
-        <f t="shared" si="49"/>
-        <v>5.006949324453652</v>
+        <f t="shared" si="46"/>
+        <v>5.0014184224781637</v>
       </c>
       <c r="W47" s="43">
-        <f t="shared" si="49"/>
-        <v>2.0539087582482454</v>
+        <f t="shared" si="46"/>
+        <v>2.0463944512427599</v>
       </c>
       <c r="X47" s="43">
-        <f t="shared" si="49"/>
-        <v>1.6709918603996312</v>
+        <f t="shared" si="46"/>
+        <v>1.6664883639761474</v>
       </c>
       <c r="Y47" s="43">
-        <f t="shared" si="49"/>
-        <v>2.2040703685176459</v>
+        <f t="shared" si="46"/>
+        <v>2.2022248175373362</v>
       </c>
       <c r="Z47" s="43">
-        <f t="shared" si="49"/>
-        <v>1.8835073180884101</v>
+        <f t="shared" si="46"/>
+        <v>1.8815799802222186</v>
       </c>
       <c r="AA47" s="43">
-        <f t="shared" si="49"/>
-        <v>2.7380344658329241</v>
+        <f t="shared" si="46"/>
+        <v>2.7347047893633651</v>
       </c>
       <c r="AB47" s="43">
-        <f t="shared" si="49"/>
-        <v>30.594811010112313</v>
+        <f t="shared" si="46"/>
+        <v>30.560800145560556</v>
       </c>
       <c r="AC47" s="43">
-        <f t="shared" si="49"/>
-        <v>3.8404360389855046</v>
+        <f t="shared" si="46"/>
+        <v>3.8350476355921463</v>
       </c>
       <c r="AD47" s="43">
-        <f t="shared" si="49"/>
-        <v>2.1781455570938637</v>
+        <f t="shared" si="46"/>
+        <v>2.1751576386454747</v>
       </c>
       <c r="AE47" s="43">
-        <f t="shared" si="49"/>
-        <v>118.2397893879314</v>
+        <f t="shared" si="46"/>
+        <v>117.34857521975653</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
@@ -9810,123 +9815,123 @@
       </c>
       <c r="B48" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.132*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.132*0.0000000001)^3))))</f>
-        <v>8.91802026897175</v>
+        <v>8.9118895817516943</v>
       </c>
       <c r="C48" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.132*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.132*0.0000000001)^3))))</f>
-        <v>8.4315252461823089</v>
+        <v>8.4253313622062809</v>
       </c>
       <c r="D48" s="43">
-        <f t="shared" ref="D48:AE48" si="50">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.132*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.132*0.0000000001)^3))))</f>
-        <v>10.088268726665085</v>
+        <f t="shared" ref="D48:AE48" si="47">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.132*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.132*0.0000000001)^3))))</f>
+        <v>10.082154102190716</v>
       </c>
       <c r="E48" s="43">
-        <f t="shared" si="50"/>
-        <v>18.305849925281134</v>
+        <f t="shared" si="47"/>
+        <v>18.281004085045435</v>
       </c>
       <c r="F48" s="43">
-        <f t="shared" si="50"/>
-        <v>5.1477562269417003</v>
+        <f t="shared" si="47"/>
+        <v>5.1375274602089265</v>
       </c>
       <c r="G48" s="43">
-        <f t="shared" si="50"/>
-        <v>7.3792160025686213</v>
+        <f t="shared" si="47"/>
+        <v>7.3715293931095092</v>
       </c>
       <c r="H48" s="43">
-        <f t="shared" si="50"/>
-        <v>3.2501389598080026</v>
+        <f t="shared" si="47"/>
+        <v>3.2457276101390273</v>
       </c>
       <c r="I48" s="43">
-        <f t="shared" si="50"/>
-        <v>5.7745924057820988</v>
+        <f t="shared" si="47"/>
+        <v>5.7668247330757945</v>
       </c>
       <c r="J48" s="43">
-        <f t="shared" si="50"/>
-        <v>17.991928513432228</v>
+        <f t="shared" si="47"/>
+        <v>17.985371161246185</v>
       </c>
       <c r="K48" s="43">
-        <f t="shared" si="50"/>
-        <v>17.33131271077179</v>
+        <f t="shared" si="47"/>
+        <v>17.320817899746856</v>
       </c>
       <c r="L48" s="43">
-        <f t="shared" si="50"/>
-        <v>6.780652759030021</v>
+        <f t="shared" si="47"/>
+        <v>6.7638128382095672</v>
       </c>
       <c r="M48" s="43">
-        <f t="shared" si="50"/>
-        <v>7.1566076733258379</v>
+        <f t="shared" si="47"/>
+        <v>7.1518189837819985</v>
       </c>
       <c r="N48" s="43">
-        <f t="shared" si="50"/>
-        <v>7.6428050175398106</v>
+        <f t="shared" si="47"/>
+        <v>7.6338941076981026</v>
       </c>
       <c r="O48" s="43">
-        <f t="shared" si="50"/>
-        <v>6.1683846486429985</v>
+        <f t="shared" si="47"/>
+        <v>6.1395311591228481</v>
       </c>
       <c r="P48" s="43">
-        <f t="shared" si="50"/>
-        <v>4.418799628963944</v>
+        <f t="shared" si="47"/>
+        <v>4.412749705016016</v>
       </c>
       <c r="Q48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.5956312755317028</v>
+        <f t="shared" si="47"/>
+        <v>2.5914553079512839</v>
       </c>
       <c r="R48" s="43">
-        <f t="shared" si="50"/>
-        <v>0.97092884980271843</v>
+        <f t="shared" si="47"/>
+        <v>0.96921373661392463</v>
       </c>
       <c r="S48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.9500395507398891</v>
+        <f t="shared" si="47"/>
+        <v>2.9449959820344609</v>
       </c>
       <c r="T48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.2308190979722751</v>
+        <f t="shared" si="47"/>
+        <v>2.2279462469186067</v>
       </c>
       <c r="U48" s="43">
-        <f t="shared" si="50"/>
-        <v>1.0950727763258796</v>
+        <f t="shared" si="47"/>
+        <v>1.0910990093781192</v>
       </c>
       <c r="V48" s="43">
-        <f t="shared" si="50"/>
-        <v>5.4683069905147512</v>
+        <f t="shared" si="47"/>
+        <v>5.46191943570531</v>
       </c>
       <c r="W48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.1555920413773437</v>
+        <f t="shared" si="47"/>
+        <v>2.1473624162176908</v>
       </c>
       <c r="X48" s="43">
-        <f t="shared" si="50"/>
-        <v>1.7463515182340787</v>
+        <f t="shared" si="47"/>
+        <v>1.7414830227072504</v>
       </c>
       <c r="Y48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.4117328962707889</v>
+        <f t="shared" si="47"/>
+        <v>2.4095918978018651</v>
       </c>
       <c r="Z48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.0538100661828733</v>
+        <f t="shared" si="47"/>
+        <v>2.0515799181313916</v>
       </c>
       <c r="AA48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.954153408783442</v>
+        <f t="shared" si="47"/>
+        <v>2.9503728438085828</v>
       </c>
       <c r="AB48" s="43">
-        <f t="shared" si="50"/>
-        <v>31.739861892316203</v>
+        <f t="shared" si="47"/>
+        <v>31.704071085194478</v>
       </c>
       <c r="AC48" s="43">
-        <f t="shared" si="50"/>
-        <v>4.0240656176518828</v>
+        <f t="shared" si="47"/>
+        <v>4.0182327584496651</v>
       </c>
       <c r="AD48" s="43">
-        <f t="shared" si="50"/>
-        <v>2.1845248334699696</v>
+        <f t="shared" si="47"/>
+        <v>2.1815386433286474</v>
       </c>
       <c r="AE48" s="43">
-        <f t="shared" si="50"/>
-        <v>127.76663249175638</v>
+        <f t="shared" si="47"/>
+        <v>126.7387693848632</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="18" x14ac:dyDescent="0.2">
@@ -9935,123 +9940,123 @@
       </c>
       <c r="B49" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>8.0987777896061601</v>
+        <v>8.0935367750066831</v>
       </c>
       <c r="C49" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>7.7008390196501022</v>
+        <v>7.6955036519696254</v>
       </c>
       <c r="D49" s="43">
-        <f t="shared" ref="D49:AE49" si="51">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.12*0.0000000001)^3))))</f>
-        <v>9.4638628734535892</v>
+        <f t="shared" ref="D49:AE49" si="48">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.12*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.12*0.0000000001)^3))))</f>
+        <v>9.4583400223560172</v>
       </c>
       <c r="E49" s="43">
-        <f t="shared" si="51"/>
-        <v>17.734409322956189</v>
+        <f t="shared" si="48"/>
+        <v>17.710771517539634</v>
       </c>
       <c r="F49" s="43">
-        <f t="shared" si="51"/>
-        <v>4.9902731183706495</v>
+        <f t="shared" si="48"/>
+        <v>4.9805568867244334</v>
       </c>
       <c r="G49" s="43">
-        <f t="shared" si="51"/>
-        <v>7.1908408697653021</v>
+        <f t="shared" si="48"/>
+        <v>7.1834620824972086</v>
       </c>
       <c r="H49" s="43">
-        <f t="shared" si="51"/>
-        <v>3.1795297084680647</v>
+        <f t="shared" si="48"/>
+        <v>3.1752724127178507</v>
       </c>
       <c r="I49" s="43">
-        <f t="shared" si="51"/>
-        <v>5.633709164819237</v>
+        <f t="shared" si="48"/>
+        <v>5.6262451416234569</v>
       </c>
       <c r="J49" s="43">
-        <f t="shared" si="51"/>
-        <v>17.211811004501261</v>
+        <f t="shared" si="48"/>
+        <v>17.205686362642393</v>
       </c>
       <c r="K49" s="43">
-        <f t="shared" si="51"/>
-        <v>16.682257595931329</v>
+        <f t="shared" si="48"/>
+        <v>16.672360298671293</v>
       </c>
       <c r="L49" s="43">
-        <f t="shared" si="51"/>
-        <v>6.6279117217427475</v>
+        <f t="shared" si="48"/>
+        <v>6.6116732135052541</v>
       </c>
       <c r="M49" s="43">
-        <f t="shared" si="51"/>
-        <v>6.9877351609648954</v>
+        <f t="shared" si="48"/>
+        <v>6.9831227320189102</v>
       </c>
       <c r="N49" s="43">
-        <f t="shared" si="51"/>
-        <v>7.4689280882128397</v>
+        <f t="shared" si="48"/>
+        <v>7.4603365922017906</v>
       </c>
       <c r="O49" s="43">
-        <f t="shared" si="51"/>
-        <v>6.0570960721027616</v>
+        <f t="shared" si="48"/>
+        <v>6.0291381200666416</v>
       </c>
       <c r="P49" s="43">
-        <f t="shared" si="51"/>
-        <v>4.3156841188050921</v>
+        <f t="shared" si="48"/>
+        <v>4.3098695439678893</v>
       </c>
       <c r="Q49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.5315165053372479</v>
+        <f t="shared" si="48"/>
+        <v>2.527520879549952</v>
       </c>
       <c r="R49" s="43">
-        <f t="shared" si="51"/>
-        <v>0.93428228730966956</v>
+        <f t="shared" si="48"/>
+        <v>0.93268435228609003</v>
       </c>
       <c r="S49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.8909597581566406</v>
+        <f t="shared" si="48"/>
+        <v>2.8860934827993763</v>
       </c>
       <c r="T49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.1839617860905483</v>
+        <f t="shared" si="48"/>
+        <v>2.1811931230482093</v>
       </c>
       <c r="U49" s="43">
-        <f t="shared" si="51"/>
-        <v>1.0613893849539175</v>
+        <f t="shared" si="48"/>
+        <v>1.0576420619340341</v>
       </c>
       <c r="V49" s="43">
-        <f t="shared" si="51"/>
-        <v>5.3427489218077913</v>
+        <f t="shared" si="48"/>
+        <v>5.3365986831006325</v>
       </c>
       <c r="W49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.1075650122030338</v>
+        <f t="shared" si="48"/>
+        <v>2.0996851544485375</v>
       </c>
       <c r="X49" s="43">
-        <f t="shared" si="51"/>
-        <v>1.6952844485477712</v>
+        <f t="shared" si="48"/>
+        <v>1.690676761348572</v>
       </c>
       <c r="Y49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.352342503034913</v>
+        <f t="shared" si="48"/>
+        <v>2.350287757197866</v>
       </c>
       <c r="Z49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.0059409461341482</v>
+        <f t="shared" si="48"/>
+        <v>2.0037976115098468</v>
       </c>
       <c r="AA49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.8781608481846144</v>
+        <f t="shared" si="48"/>
+        <v>2.8745431949374418</v>
       </c>
       <c r="AB49" s="43">
-        <f t="shared" si="51"/>
-        <v>29.999077297191072</v>
+        <f t="shared" si="48"/>
+        <v>29.966334826073325</v>
       </c>
       <c r="AC49" s="43">
-        <f t="shared" si="51"/>
-        <v>3.9118950243985915</v>
+        <f t="shared" si="48"/>
+        <v>3.9063464828387602</v>
       </c>
       <c r="AD49" s="43">
-        <f t="shared" si="51"/>
-        <v>2.0875867830662691</v>
+        <f t="shared" si="48"/>
+        <v>2.0848429678438456</v>
       </c>
       <c r="AE49" s="43">
-        <f t="shared" si="51"/>
-        <v>125.48066889713098</v>
+        <f t="shared" si="48"/>
+        <v>124.4860295967092</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
@@ -10060,123 +10065,123 @@
       </c>
       <c r="B50" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.107*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.107*0.0000000001)^3))))</f>
-        <v>7.0487047286681834</v>
+        <v>7.0445430672595872</v>
       </c>
       <c r="C50" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.107*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.107*0.0000000001)^3))))</f>
-        <v>6.7527051112787415</v>
+        <v>6.748426082628276</v>
       </c>
       <c r="D50" s="43">
-        <f t="shared" ref="D50:AE50" si="52">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.107*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.107*0.0000000001)^3))))</f>
-        <v>8.5344120932882443</v>
+        <f t="shared" ref="D50:AE50" si="49">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.107*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.107*0.0000000001)^3))))</f>
+        <v>8.5297345531506448</v>
       </c>
       <c r="E50" s="43">
-        <f t="shared" si="52"/>
-        <v>16.598119255329653</v>
+        <f t="shared" si="49"/>
+        <v>16.576823165847433</v>
       </c>
       <c r="F50" s="43">
-        <f t="shared" si="52"/>
-        <v>4.6816379007872344</v>
+        <f t="shared" si="49"/>
+        <v>4.6728993501749043</v>
       </c>
       <c r="G50" s="43">
-        <f t="shared" si="52"/>
-        <v>6.7663345545033904</v>
+        <f t="shared" si="49"/>
+        <v>6.7596349866074901</v>
       </c>
       <c r="H50" s="43">
-        <f t="shared" si="52"/>
-        <v>3.0066545624704486</v>
+        <f t="shared" si="49"/>
+        <v>3.0027679196412933</v>
       </c>
       <c r="I50" s="43">
-        <f t="shared" si="52"/>
-        <v>5.3156902233627097</v>
+        <f t="shared" si="49"/>
+        <v>5.3088974619705196</v>
       </c>
       <c r="J50" s="43">
-        <f t="shared" si="52"/>
-        <v>15.840226341950732</v>
+        <f t="shared" si="49"/>
+        <v>15.834838739574231</v>
       </c>
       <c r="K50" s="43">
-        <f t="shared" si="52"/>
-        <v>15.456902449192372</v>
+        <f t="shared" si="49"/>
+        <v>15.448101423435658</v>
       </c>
       <c r="L50" s="43">
-        <f t="shared" si="52"/>
-        <v>6.2317837000166865</v>
+        <f t="shared" si="49"/>
+        <v>6.2170805394756998</v>
       </c>
       <c r="M50" s="43">
-        <f t="shared" si="52"/>
-        <v>6.5506531784483055</v>
+        <f t="shared" si="49"/>
+        <v>6.5464896756976954</v>
       </c>
       <c r="N50" s="43">
-        <f t="shared" si="52"/>
-        <v>7.0181754468355324</v>
+        <f t="shared" si="49"/>
+        <v>7.0103990371516431</v>
       </c>
       <c r="O50" s="43">
-        <f t="shared" si="52"/>
-        <v>5.7660302089195818</v>
+        <f t="shared" si="49"/>
+        <v>5.7403813647595596</v>
       </c>
       <c r="P50" s="43">
-        <f t="shared" si="52"/>
-        <v>4.063667720839276</v>
+        <f t="shared" si="49"/>
+        <v>4.058417238934366</v>
       </c>
       <c r="Q50" s="43">
-        <f t="shared" si="52"/>
-        <v>2.3857897317969865</v>
+        <f t="shared" si="49"/>
+        <v>2.3821945412369048</v>
       </c>
       <c r="R50" s="43">
-        <f t="shared" si="52"/>
-        <v>0.86693357140432525</v>
+        <f t="shared" si="49"/>
+        <v>0.86554338544772491</v>
       </c>
       <c r="S50" s="43">
-        <f t="shared" si="52"/>
-        <v>2.7461161950250714</v>
+        <f t="shared" si="49"/>
+        <v>2.741676777347803</v>
       </c>
       <c r="T50" s="43">
-        <f t="shared" si="52"/>
-        <v>2.0681218080860035</v>
+        <f t="shared" si="49"/>
+        <v>2.0656060335134043</v>
       </c>
       <c r="U50" s="43">
-        <f t="shared" si="52"/>
-        <v>0.99676143250653937</v>
+        <f t="shared" si="49"/>
+        <v>0.99343533115239857</v>
       </c>
       <c r="V50" s="43">
-        <f t="shared" si="52"/>
-        <v>5.031087939961278</v>
+        <f t="shared" si="49"/>
+        <v>5.0255162514452429</v>
       </c>
       <c r="W50" s="43">
-        <f t="shared" si="52"/>
-        <v>2.0057178442402894</v>
+        <f t="shared" si="49"/>
+        <v>1.9985621869822945</v>
       </c>
       <c r="X50" s="43">
-        <f t="shared" si="52"/>
-        <v>1.5955502021009136</v>
+        <f t="shared" si="49"/>
+        <v>1.5914371587475216</v>
       </c>
       <c r="Y50" s="43">
-        <f t="shared" si="52"/>
-        <v>2.2077508801501562</v>
+        <f t="shared" si="49"/>
+        <v>2.2059019420095325</v>
       </c>
       <c r="Z50" s="43">
-        <f t="shared" si="52"/>
-        <v>1.888498493783499</v>
+        <f t="shared" si="49"/>
+        <v>1.8865640309598326</v>
       </c>
       <c r="AA50" s="43">
-        <f t="shared" si="52"/>
-        <v>2.705065041122916</v>
+        <f t="shared" si="49"/>
+        <v>2.7018100251795722</v>
       </c>
       <c r="AB50" s="43">
-        <f t="shared" si="52"/>
-        <v>27.032473208210543</v>
+        <f t="shared" si="49"/>
+        <v>27.004725790439974</v>
       </c>
       <c r="AC50" s="43">
-        <f t="shared" si="52"/>
-        <v>3.6882775386260316</v>
+        <f t="shared" si="49"/>
+        <v>3.6832808022376291</v>
       </c>
       <c r="AD50" s="43">
-        <f t="shared" si="52"/>
-        <v>1.9318994210622367</v>
+        <f t="shared" si="49"/>
+        <v>1.9295301199354593</v>
       </c>
       <c r="AE50" s="43">
-        <f t="shared" si="52"/>
-        <v>119.50024050014007</v>
+        <f t="shared" si="49"/>
+        <v>118.59122525873885</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
@@ -10185,123 +10190,123 @@
       </c>
       <c r="B51" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.095*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.095*0.0000000001)^3))))</f>
-        <v>6.010809694442373</v>
+        <v>6.0076462878570425</v>
       </c>
       <c r="C51" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.095*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.095*0.0000000001)^3))))</f>
-        <v>5.8050810323433142</v>
+        <v>5.801792202704088</v>
       </c>
       <c r="D51" s="43">
-        <f t="shared" ref="D51:AE51" si="53">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.095*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.095*0.0000000001)^3))))</f>
-        <v>7.5222759297772992</v>
+        <f t="shared" ref="D51:AE51" si="50">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.095*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.095*0.0000000001)^3))))</f>
+        <v>7.5184747295556544</v>
       </c>
       <c r="E51" s="43">
-        <f t="shared" si="53"/>
-        <v>15.171447343962416</v>
+        <f t="shared" si="50"/>
+        <v>15.153000320366244</v>
       </c>
       <c r="F51" s="43">
-        <f t="shared" si="53"/>
-        <v>4.2951220414948788</v>
+        <f t="shared" si="50"/>
+        <v>4.2875679971269358</v>
       </c>
       <c r="G51" s="43">
-        <f t="shared" si="53"/>
-        <v>6.2099994122865443</v>
+        <f t="shared" si="50"/>
+        <v>6.2041646388953238</v>
       </c>
       <c r="H51" s="43">
-        <f t="shared" si="53"/>
-        <v>2.7738738607038105</v>
+        <f t="shared" si="50"/>
+        <v>2.7704728860184273</v>
       </c>
       <c r="I51" s="43">
-        <f t="shared" si="53"/>
-        <v>4.8975670906056443</v>
+        <f t="shared" si="50"/>
+        <v>4.8916319931446592</v>
       </c>
       <c r="J51" s="43">
-        <f t="shared" si="53"/>
-        <v>14.214986420880201</v>
+        <f t="shared" si="50"/>
+        <v>14.210439651716355</v>
       </c>
       <c r="K51" s="43">
-        <f t="shared" si="53"/>
-        <v>13.958735878648296</v>
+        <f t="shared" si="50"/>
+        <v>13.951229417209461</v>
       </c>
       <c r="L51" s="43">
-        <f t="shared" si="53"/>
-        <v>5.6941203502805529</v>
+        <f t="shared" si="50"/>
+        <v>5.6814414430310158</v>
       </c>
       <c r="M51" s="43">
-        <f t="shared" si="53"/>
-        <v>5.9595554827133483</v>
+        <f t="shared" si="50"/>
+        <v>5.9559813565210069</v>
       </c>
       <c r="N51" s="43">
-        <f t="shared" si="53"/>
-        <v>6.4068359704951812</v>
+        <f t="shared" si="50"/>
+        <v>6.4001333766601114</v>
       </c>
       <c r="O51" s="43">
-        <f t="shared" si="53"/>
-        <v>5.3649213752448865</v>
+        <f t="shared" si="50"/>
+        <v>5.3423724685085201</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" si="53"/>
-        <v>3.7259747184478442</v>
+        <f t="shared" si="50"/>
+        <v>3.721456940436016</v>
       </c>
       <c r="Q51" s="43">
-        <f t="shared" si="53"/>
-        <v>2.1940531083331036</v>
+        <f t="shared" si="50"/>
+        <v>2.19096757266824</v>
       </c>
       <c r="R51" s="43">
-        <f t="shared" si="53"/>
-        <v>0.78524966038938926</v>
+        <f t="shared" si="50"/>
+        <v>0.78410042331150831</v>
       </c>
       <c r="S51" s="43">
-        <f t="shared" si="53"/>
-        <v>2.5500976084502276</v>
+        <f t="shared" si="50"/>
+        <v>2.5462196104524146</v>
       </c>
       <c r="T51" s="43">
-        <f t="shared" si="53"/>
-        <v>1.91152963942156</v>
+        <f t="shared" si="50"/>
+        <v>1.9093457553141779</v>
       </c>
       <c r="U51" s="43">
-        <f t="shared" si="53"/>
-        <v>0.91632727831034355</v>
+        <f t="shared" si="50"/>
+        <v>0.91350562478370934</v>
       </c>
       <c r="V51" s="43">
-        <f t="shared" si="53"/>
-        <v>4.6118264592944938</v>
+        <f t="shared" si="50"/>
+        <v>4.6070103850207627</v>
       </c>
       <c r="W51" s="43">
-        <f t="shared" si="53"/>
-        <v>1.8731307252709661</v>
+        <f t="shared" si="50"/>
+        <v>1.8668890215815144</v>
       </c>
       <c r="X51" s="43">
-        <f t="shared" si="53"/>
-        <v>1.4704239888465411</v>
+        <f t="shared" si="50"/>
+        <v>1.4669092167847322</v>
       </c>
       <c r="Y51" s="43">
-        <f t="shared" si="53"/>
-        <v>2.0148488569063279</v>
+        <f t="shared" si="50"/>
+        <v>2.0132658594707458</v>
       </c>
       <c r="Z51" s="43">
-        <f t="shared" si="53"/>
-        <v>1.7310046486993247</v>
+        <f t="shared" si="50"/>
+        <v>1.7293416575102727</v>
       </c>
       <c r="AA51" s="43">
-        <f t="shared" si="53"/>
-        <v>2.4778107886923837</v>
+        <f t="shared" si="50"/>
+        <v>2.4750165500009502</v>
       </c>
       <c r="AB51" s="43">
-        <f t="shared" si="53"/>
-        <v>23.620227037698555</v>
+        <f t="shared" si="50"/>
+        <v>23.597949451398364</v>
       </c>
       <c r="AC51" s="43">
-        <f t="shared" si="53"/>
-        <v>3.4053435280187392</v>
+        <f t="shared" si="50"/>
+        <v>3.4010219798548369</v>
       </c>
       <c r="AD51" s="43">
-        <f t="shared" si="53"/>
-        <v>1.7531209342892213</v>
+        <f t="shared" si="50"/>
+        <v>1.7511621217630826</v>
       </c>
       <c r="AE51" s="43">
-        <f t="shared" si="53"/>
-        <v>111.25461575979439</v>
+        <f t="shared" si="50"/>
+        <v>110.4604400848073</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
@@ -10310,123 +10315,123 @@
       </c>
       <c r="B52" s="44">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.083*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.083*0.0000000001)^3))))</f>
-        <v>4.9784632516857963</v>
+        <v>4.976217361168473</v>
       </c>
       <c r="C52" s="44">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.083*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.083*0.0000000001)^3))))</f>
-        <v>4.8523540663098137</v>
+        <v>4.8499877593519232</v>
       </c>
       <c r="D52" s="44">
-        <f t="shared" ref="D52:AE52" si="54">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.083*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.083*0.0000000001)^3))))</f>
-        <v>6.4413227768036645</v>
+        <f t="shared" ref="D52:AE52" si="51">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.083*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.083*0.0000000001)^3))))</f>
+        <v>6.4384035617383528</v>
       </c>
       <c r="E52" s="44">
-        <f t="shared" si="54"/>
-        <v>13.498432917111524</v>
+        <f t="shared" si="51"/>
+        <v>13.483194043482824</v>
       </c>
       <c r="F52" s="44">
-        <f t="shared" si="54"/>
-        <v>3.8411234636887994</v>
+        <f t="shared" si="51"/>
+        <v>3.8349028163191727</v>
       </c>
       <c r="G52" s="44">
-        <f t="shared" si="54"/>
-        <v>5.543174229931557</v>
+        <f t="shared" si="51"/>
+        <v>5.5383363032121409</v>
       </c>
       <c r="H52" s="44">
-        <f t="shared" si="54"/>
-        <v>2.4904866603343532</v>
+        <f t="shared" si="51"/>
+        <v>2.4876548147523412</v>
       </c>
       <c r="I52" s="44">
-        <f t="shared" si="54"/>
-        <v>4.3941686972845515</v>
+        <f t="shared" si="51"/>
+        <v>4.3892270364055381</v>
       </c>
       <c r="J52" s="44">
-        <f t="shared" si="54"/>
-        <v>12.383963096447138</v>
+        <f t="shared" si="51"/>
+        <v>12.3803197939085</v>
       </c>
       <c r="K52" s="44">
-        <f t="shared" si="54"/>
-        <v>12.238455070981029</v>
+        <f t="shared" si="51"/>
+        <v>12.232370758728109</v>
       </c>
       <c r="L52" s="44">
-        <f t="shared" si="54"/>
-        <v>5.0426322453143415</v>
+        <f t="shared" si="51"/>
+        <v>5.0323053516395744</v>
       </c>
       <c r="M52" s="44">
-        <f t="shared" si="54"/>
-        <v>5.2469397622888039</v>
+        <f t="shared" si="51"/>
+        <v>5.2440463713780536</v>
       </c>
       <c r="N52" s="44">
-        <f t="shared" si="54"/>
-        <v>5.6668600385964947</v>
+        <f t="shared" si="51"/>
+        <v>5.6614038047230908</v>
       </c>
       <c r="O52" s="44">
-        <f t="shared" si="54"/>
-        <v>4.8684987182072677</v>
+        <f t="shared" si="51"/>
+        <v>4.8496445896723044</v>
       </c>
       <c r="P52" s="44">
-        <f t="shared" si="54"/>
-        <v>3.3177550551421278</v>
+        <f t="shared" si="51"/>
+        <v>3.3140850039204235</v>
       </c>
       <c r="Q52" s="44">
-        <f t="shared" si="54"/>
-        <v>1.9634812673139739</v>
+        <f t="shared" si="51"/>
+        <v>1.9609813768847859</v>
       </c>
       <c r="R52" s="44">
-        <f t="shared" si="54"/>
-        <v>0.69159271003878875</v>
+        <f t="shared" si="51"/>
+        <v>0.69070430996759635</v>
       </c>
       <c r="S52" s="44">
-        <f t="shared" si="54"/>
-        <v>2.3096932059378865</v>
+        <f t="shared" si="51"/>
+        <v>2.3064767503780641</v>
       </c>
       <c r="T52" s="44">
-        <f t="shared" si="54"/>
-        <v>1.7202983736457544</v>
+        <f t="shared" si="51"/>
+        <v>1.7185032356103653</v>
       </c>
       <c r="U52" s="44">
-        <f t="shared" si="54"/>
-        <v>0.82197516133093096</v>
+        <f t="shared" si="51"/>
+        <v>0.81971660854206996</v>
       </c>
       <c r="V52" s="44">
-        <f t="shared" si="54"/>
-        <v>4.1042901963375469</v>
+        <f t="shared" si="51"/>
+        <v>4.1003513305927832</v>
       </c>
       <c r="W52" s="44">
-        <f t="shared" si="54"/>
-        <v>1.712503042904302</v>
+        <f t="shared" si="51"/>
+        <v>1.7073240552170561</v>
       </c>
       <c r="X52" s="44">
-        <f t="shared" si="54"/>
-        <v>1.3228350455880726</v>
+        <f t="shared" si="51"/>
+        <v>1.3199933138579769</v>
       </c>
       <c r="Y52" s="44">
-        <f t="shared" si="54"/>
-        <v>1.7829645602649387</v>
+        <f t="shared" si="51"/>
+        <v>1.7816871815764501</v>
       </c>
       <c r="Z52" s="44">
-        <f t="shared" si="54"/>
-        <v>1.5406064568352846</v>
+        <f t="shared" si="51"/>
+        <v>1.5392574740687988</v>
       </c>
       <c r="AA52" s="44">
-        <f t="shared" si="54"/>
-        <v>2.2056410287967663</v>
+        <f t="shared" si="51"/>
+        <v>2.2033744685552059</v>
       </c>
       <c r="AB52" s="44">
-        <f t="shared" si="54"/>
-        <v>19.900824490183943</v>
+        <f t="shared" si="51"/>
+        <v>19.884147223046607</v>
       </c>
       <c r="AC52" s="44">
-        <f t="shared" si="54"/>
-        <v>3.069863363410176</v>
+        <f t="shared" si="51"/>
+        <v>3.0663084197183843</v>
       </c>
       <c r="AD52" s="44">
-        <f t="shared" si="54"/>
-        <v>1.5532011823251624</v>
+        <f t="shared" si="51"/>
+        <v>1.5516758357125593</v>
       </c>
       <c r="AE52" s="44">
-        <f t="shared" si="54"/>
-        <v>101.04239916727856</v>
+        <f t="shared" si="51"/>
+        <v>100.38489790424069</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
@@ -10435,123 +10440,123 @@
       </c>
       <c r="B53" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.075*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.075*0.0000000001)^3))))</f>
-        <v>4.3216419978940115</v>
+        <v>4.3199349214246219</v>
       </c>
       <c r="C53" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.075*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.075*0.0000000001)^3))))</f>
-        <v>4.2405175207679981</v>
+        <v>4.2386996903423686</v>
       </c>
       <c r="D53" s="43">
-        <f t="shared" ref="D53:AE53" si="55">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.075*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.075*0.0000000001)^3))))</f>
-        <v>5.7178121115607174</v>
+        <f t="shared" ref="D53:AE53" si="52">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.075*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.075*0.0000000001)^3))))</f>
+        <v>5.7154486430182718</v>
       </c>
       <c r="E53" s="43">
-        <f t="shared" si="55"/>
-        <v>12.304948081585399</v>
+        <f t="shared" si="52"/>
+        <v>12.291902828670278</v>
       </c>
       <c r="F53" s="43">
-        <f t="shared" si="55"/>
-        <v>3.5162097854826015</v>
+        <f t="shared" si="52"/>
+        <v>3.5109020025342632</v>
       </c>
       <c r="G53" s="43">
-        <f t="shared" si="55"/>
-        <v>5.0617356275047243</v>
+        <f t="shared" si="52"/>
+        <v>5.0575880987106885</v>
       </c>
       <c r="H53" s="43">
-        <f t="shared" si="55"/>
-        <v>2.2837917333324813</v>
+        <f t="shared" si="52"/>
+        <v>2.281358287582651</v>
       </c>
       <c r="I53" s="43">
-        <f t="shared" si="55"/>
-        <v>4.0290390979384618</v>
+        <f t="shared" si="52"/>
+        <v>4.0247889802603165</v>
       </c>
       <c r="J53" s="43">
-        <f t="shared" si="55"/>
-        <v>11.115518991065533</v>
+        <f t="shared" si="52"/>
+        <v>11.112471682246357</v>
       </c>
       <c r="K53" s="43">
-        <f t="shared" si="55"/>
-        <v>11.032067246594153</v>
+        <f t="shared" si="52"/>
+        <v>11.0269353327791</v>
       </c>
       <c r="L53" s="43">
-        <f t="shared" si="55"/>
-        <v>4.5717635706061728</v>
+        <f t="shared" si="52"/>
+        <v>4.5630603881986014</v>
       </c>
       <c r="M53" s="43">
-        <f t="shared" si="55"/>
-        <v>4.7346138627142649</v>
+        <f t="shared" si="52"/>
+        <v>4.7321874454536159</v>
       </c>
       <c r="N53" s="43">
-        <f t="shared" si="55"/>
-        <v>5.1326296178537536</v>
+        <f t="shared" si="52"/>
+        <v>5.1280328516041269</v>
       </c>
       <c r="O53" s="43">
-        <f t="shared" si="55"/>
-        <v>4.5016766071984247</v>
+        <f t="shared" si="52"/>
+        <v>4.4854432100297945</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="55"/>
-        <v>3.0222123339346312</v>
+        <f t="shared" si="52"/>
+        <v>3.019127493822293</v>
       </c>
       <c r="Q53" s="43">
-        <f t="shared" si="55"/>
-        <v>1.7965436748183319</v>
+        <f t="shared" si="52"/>
+        <v>1.7944475867102352</v>
       </c>
       <c r="R53" s="43">
-        <f t="shared" si="55"/>
-        <v>0.62582112504865439</v>
+        <f t="shared" si="52"/>
+        <v>0.62510514155280894</v>
       </c>
       <c r="S53" s="43">
-        <f t="shared" si="55"/>
-        <v>2.1329727561186091</v>
+        <f t="shared" si="52"/>
+        <v>2.1302220544568784</v>
       </c>
       <c r="T53" s="43">
-        <f t="shared" si="55"/>
-        <v>1.5804514956416524</v>
+        <f t="shared" si="52"/>
+        <v>1.5789280871796518</v>
       </c>
       <c r="U53" s="43">
-        <f t="shared" si="55"/>
-        <v>0.75439755933123365</v>
+        <f t="shared" si="52"/>
+        <v>0.75252186719741743</v>
       </c>
       <c r="V53" s="43">
-        <f t="shared" si="55"/>
-        <v>3.7367076080486346</v>
+        <f t="shared" si="52"/>
+        <v>3.7333758382289841</v>
       </c>
       <c r="W53" s="43">
-        <f t="shared" si="55"/>
-        <v>1.5945825653962324</v>
+        <f t="shared" si="52"/>
+        <v>1.5901506992529106</v>
       </c>
       <c r="X53" s="43">
-        <f t="shared" si="55"/>
-        <v>1.2166989637967174</v>
+        <f t="shared" si="52"/>
+        <v>1.2143177823532525</v>
       </c>
       <c r="Y53" s="43">
-        <f t="shared" si="55"/>
-        <v>1.6160442082042792</v>
+        <f t="shared" si="52"/>
+        <v>1.614976329622144</v>
       </c>
       <c r="Z53" s="43">
-        <f t="shared" si="55"/>
-        <v>1.4027917086847501</v>
+        <f t="shared" si="52"/>
+        <v>1.4016593654362284</v>
       </c>
       <c r="AA53" s="43">
-        <f t="shared" si="55"/>
-        <v>2.009479671540185</v>
+        <f t="shared" si="52"/>
+        <v>2.0075755582755055</v>
       </c>
       <c r="AB53" s="43">
-        <f t="shared" si="55"/>
-        <v>17.404333163335632</v>
+        <f t="shared" si="52"/>
+        <v>17.3911749074562</v>
       </c>
       <c r="AC53" s="43">
-        <f t="shared" si="55"/>
-        <v>2.8277561952015464</v>
+        <f t="shared" si="52"/>
+        <v>2.8247299212589208</v>
       </c>
       <c r="AD53" s="43">
-        <f t="shared" si="55"/>
-        <v>1.4141834059668676</v>
+        <f t="shared" si="52"/>
+        <v>1.4129422635343436</v>
       </c>
       <c r="AE53" s="43">
-        <f t="shared" si="55"/>
-        <v>93.49070060544669</v>
+        <f t="shared" si="52"/>
+        <v>92.929974907309742</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
@@ -10560,123 +10565,123 @@
       </c>
       <c r="B54" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.072*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.072*0.0000000001)^3))))</f>
-        <v>4.0851435530595275</v>
+        <v>4.0836208417230573</v>
       </c>
       <c r="C54" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.072*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.072*0.0000000001)^3))))</f>
-        <v>4.0190386576340904</v>
+        <v>4.017409881687902</v>
       </c>
       <c r="D54" s="43">
-        <f t="shared" ref="D54:AE54" si="56">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.072*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.072*0.0000000001)^3))))</f>
-        <v>5.450522753596065</v>
+        <f t="shared" ref="D54:AE54" si="53">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.072*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.072*0.0000000001)^3))))</f>
+        <v>5.4483568662443247</v>
       </c>
       <c r="E54" s="43">
-        <f t="shared" si="56"/>
-        <v>11.849725708258472</v>
+        <f t="shared" si="53"/>
+        <v>11.837494664702009</v>
       </c>
       <c r="F54" s="43">
-        <f t="shared" si="56"/>
-        <v>3.3919860269456463</v>
+        <f t="shared" si="53"/>
+        <v>3.3870174474002508</v>
       </c>
       <c r="G54" s="43">
-        <f t="shared" si="56"/>
-        <v>4.8771632809559735</v>
+        <f t="shared" si="53"/>
+        <v>4.8732733910633792</v>
       </c>
       <c r="H54" s="43">
-        <f t="shared" si="56"/>
-        <v>2.2041461451935569</v>
+        <f t="shared" si="53"/>
+        <v>2.2018621566030125</v>
       </c>
       <c r="I54" s="43">
-        <f t="shared" si="56"/>
-        <v>3.8886487758398358</v>
+        <f t="shared" si="53"/>
+        <v>3.8846575591537431</v>
       </c>
       <c r="J54" s="43">
-        <f t="shared" si="56"/>
-        <v>10.639170456989902</v>
+        <f t="shared" si="53"/>
+        <v>10.636340067503964</v>
       </c>
       <c r="K54" s="43">
-        <f t="shared" si="56"/>
-        <v>10.576344007179079</v>
+        <f t="shared" si="53"/>
+        <v>10.571561375045983</v>
       </c>
       <c r="L54" s="43">
-        <f t="shared" si="56"/>
-        <v>4.3915343653788357</v>
+        <f t="shared" si="53"/>
+        <v>4.3834341923461464</v>
       </c>
       <c r="M54" s="43">
-        <f t="shared" si="56"/>
-        <v>4.5391739265338078</v>
+        <f t="shared" si="53"/>
+        <v>4.5369202271645186</v>
       </c>
       <c r="N54" s="43">
-        <f t="shared" si="56"/>
-        <v>4.9282919051054774</v>
+        <f t="shared" si="53"/>
+        <v>4.9240141009192886</v>
       </c>
       <c r="O54" s="43">
-        <f t="shared" si="56"/>
-        <v>4.359291661078978</v>
+        <f t="shared" si="53"/>
+        <v>4.3440486385607144</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="56"/>
-        <v>2.9088657419138855</v>
+        <f t="shared" si="53"/>
+        <v>2.9059984415955848</v>
       </c>
       <c r="Q54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.7324390699975416</v>
+        <f t="shared" si="53"/>
+        <v>1.7304931733861164</v>
       </c>
       <c r="R54" s="43">
-        <f t="shared" si="56"/>
-        <v>0.6009362478096153</v>
+        <f t="shared" si="53"/>
+        <v>0.60028298505000677</v>
       </c>
       <c r="S54" s="43">
-        <f t="shared" si="56"/>
-        <v>2.064538488421753</v>
+        <f t="shared" si="53"/>
+        <v>2.0619631352276326</v>
       </c>
       <c r="T54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.5264820159948356</v>
+        <f t="shared" si="53"/>
+        <v>1.5250604159235124</v>
       </c>
       <c r="U54" s="43">
-        <f t="shared" si="56"/>
-        <v>0.72853519091635444</v>
+        <f t="shared" si="53"/>
+        <v>0.72680117873200067</v>
       </c>
       <c r="V54" s="43">
-        <f t="shared" si="56"/>
-        <v>3.5957333705527872</v>
+        <f t="shared" si="53"/>
+        <v>3.5926275988500396</v>
       </c>
       <c r="W54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.5488401080026182</v>
+        <f t="shared" si="53"/>
+        <v>1.5446900696868267</v>
       </c>
       <c r="X54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.17599233157778</v>
+        <f t="shared" si="53"/>
+        <v>1.1737822115906733</v>
       </c>
       <c r="Y54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.5522565552543464</v>
+        <f t="shared" si="53"/>
+        <v>1.551266205437023</v>
       </c>
       <c r="Z54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.3499474632456252</v>
+        <f t="shared" si="53"/>
+        <v>1.3488956134695702</v>
       </c>
       <c r="AA54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.9343737613997416</v>
+        <f t="shared" si="53"/>
+        <v>1.9326041274199435</v>
       </c>
       <c r="AB54" s="43">
-        <f t="shared" si="56"/>
-        <v>16.484622762607739</v>
+        <f t="shared" si="53"/>
+        <v>16.472706492600704</v>
       </c>
       <c r="AC54" s="43">
-        <f t="shared" si="56"/>
-        <v>2.7347351449312747</v>
+        <f t="shared" si="53"/>
+        <v>2.7319061365429849</v>
       </c>
       <c r="AD54" s="43">
-        <f t="shared" si="56"/>
-        <v>1.3617078789736559</v>
+        <f t="shared" si="53"/>
+        <v>1.3605700598415982</v>
       </c>
       <c r="AE54" s="43">
-        <f t="shared" si="56"/>
-        <v>90.558078524178271</v>
+        <f t="shared" si="53"/>
+        <v>90.033879746901107</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
@@ -10685,123 +10690,123 @@
       </c>
       <c r="B55" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.062*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.062*0.0000000001)^3))))</f>
-        <v>3.3442776667419158</v>
+        <v>3.3432951293807118</v>
       </c>
       <c r="C55" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.062*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.062*0.0000000001)^3))))</f>
-        <v>3.3207546390051861</v>
+        <v>3.3196848012958382</v>
       </c>
       <c r="D55" s="43">
-        <f t="shared" ref="D55:AE55" si="57">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.062*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.062*0.0000000001)^3))))</f>
-        <v>4.5892705903044835</v>
+        <f t="shared" ref="D55:AE55" si="54">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.062*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.062*0.0000000001)^3))))</f>
+        <v>4.5877098586543923</v>
       </c>
       <c r="E55" s="43">
-        <f t="shared" si="57"/>
-        <v>10.330111187996195</v>
+        <f t="shared" si="54"/>
+        <v>10.320500299547847</v>
       </c>
       <c r="F55" s="43">
-        <f t="shared" si="57"/>
-        <v>2.9759006165399073</v>
+        <f t="shared" si="54"/>
+        <v>2.9720253682267903</v>
       </c>
       <c r="G55" s="43">
-        <f t="shared" si="57"/>
-        <v>4.2580101198556504</v>
+        <f t="shared" si="54"/>
+        <v>4.2549534430305957</v>
       </c>
       <c r="H55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.9354428722134545</v>
+        <f t="shared" si="54"/>
+        <v>1.9336450248617991</v>
       </c>
       <c r="I55" s="43">
-        <f t="shared" si="57"/>
-        <v>3.4158938443447484</v>
+        <f t="shared" si="54"/>
+        <v>3.412743481158115</v>
       </c>
       <c r="J55" s="43">
-        <f t="shared" si="57"/>
-        <v>9.0776209940082886</v>
+        <f t="shared" si="54"/>
+        <v>9.0754726095731755</v>
       </c>
       <c r="K55" s="43">
-        <f t="shared" si="57"/>
-        <v>9.0729199769358768</v>
+        <f t="shared" si="54"/>
+        <v>9.0692447919868115</v>
       </c>
       <c r="L55" s="43">
-        <f t="shared" si="57"/>
-        <v>3.7892574558651515</v>
+        <f t="shared" si="54"/>
+        <v>3.7830907890055605</v>
       </c>
       <c r="M55" s="43">
-        <f t="shared" si="57"/>
-        <v>3.8889554900341885</v>
+        <f t="shared" si="54"/>
+        <v>3.8872526207697375</v>
       </c>
       <c r="N55" s="43">
-        <f t="shared" si="57"/>
-        <v>4.2460849333583832</v>
+        <f t="shared" si="54"/>
+        <v>4.2428289227810829</v>
       </c>
       <c r="O55" s="43">
-        <f t="shared" si="57"/>
-        <v>3.8745695374814786</v>
+        <f t="shared" si="54"/>
+        <v>3.86257646090194</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="57"/>
-        <v>2.5288395807784179</v>
+        <f t="shared" si="54"/>
+        <v>2.526671128009629</v>
       </c>
       <c r="Q55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.5169565704074666</v>
+        <f t="shared" si="54"/>
+        <v>1.5154939944056105</v>
       </c>
       <c r="R55" s="43">
-        <f t="shared" si="57"/>
-        <v>0.51862928186023338</v>
+        <f t="shared" si="54"/>
+        <v>0.51817270774962709</v>
       </c>
       <c r="S55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.8321331133562959</v>
+        <f t="shared" si="54"/>
+        <v>1.8301307127700801</v>
       </c>
       <c r="T55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.3440531069113286</v>
+        <f t="shared" si="54"/>
+        <v>1.3429619747836998</v>
       </c>
       <c r="U55" s="43">
-        <f t="shared" si="57"/>
-        <v>0.64176433015873413</v>
+        <f t="shared" si="54"/>
+        <v>0.64048449812314323</v>
       </c>
       <c r="V55" s="43">
-        <f t="shared" si="57"/>
-        <v>3.1231675145691269</v>
+        <f t="shared" si="54"/>
+        <v>3.1207890895461659</v>
       </c>
       <c r="W55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.3928489260676891</v>
+        <f t="shared" si="54"/>
+        <v>1.3896241252621</v>
       </c>
       <c r="X55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.0390698038725488</v>
+        <f t="shared" si="54"/>
+        <v>1.0374106024964569</v>
       </c>
       <c r="Y55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.339398028763652</v>
+        <f t="shared" si="54"/>
+        <v>1.3386552709227535</v>
       </c>
       <c r="Z55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.1728269510292837</v>
+        <f t="shared" si="54"/>
+        <v>1.1720335078811017</v>
       </c>
       <c r="AA55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.6828988542124355</v>
+        <f t="shared" si="54"/>
+        <v>1.6815605999091583</v>
       </c>
       <c r="AB55" s="43">
-        <f t="shared" si="57"/>
-        <v>13.542313561331687</v>
+        <f t="shared" si="54"/>
+        <v>13.534148325082604</v>
       </c>
       <c r="AC55" s="43">
-        <f t="shared" si="57"/>
-        <v>2.4212175796982325</v>
+        <f t="shared" si="54"/>
+        <v>2.4190276318809696</v>
       </c>
       <c r="AD55" s="43">
-        <f t="shared" si="57"/>
-        <v>1.1881556153512891</v>
+        <f t="shared" si="54"/>
+        <v>1.187342750844316</v>
       </c>
       <c r="AE55" s="43">
-        <f t="shared" si="57"/>
-        <v>80.568334060900426</v>
+        <f t="shared" si="54"/>
+        <v>80.16378526925142</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
@@ -10810,123 +10815,123 @@
       </c>
       <c r="B56" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.052*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.052*0.0000000001)^3))))</f>
-        <v>2.6863918766262143</v>
+        <v>2.6858339826909705</v>
       </c>
       <c r="C56" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.052*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.052*0.0000000001)^3))))</f>
-        <v>2.6942115990746633</v>
+        <v>2.693588078886501</v>
       </c>
       <c r="D56" s="43">
-        <f t="shared" ref="D56:AE56" si="58">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.052*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.052*0.0000000001)^3))))</f>
-        <v>3.7921660657327787</v>
+        <f t="shared" ref="D56:AE56" si="55">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.052*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.052*0.0000000001)^3))))</f>
+        <v>3.7911167863900515</v>
       </c>
       <c r="E56" s="43">
-        <f t="shared" si="58"/>
-        <v>8.8486972013257148</v>
+        <f t="shared" si="55"/>
+        <v>8.8414797057665755</v>
       </c>
       <c r="F56" s="43">
-        <f t="shared" si="58"/>
-        <v>2.5678054096737752</v>
+        <f t="shared" si="55"/>
+        <v>2.5649317229219459</v>
       </c>
       <c r="G56" s="43">
-        <f t="shared" si="58"/>
-        <v>3.6508038650550305</v>
+        <f t="shared" si="55"/>
+        <v>3.6485127184861019</v>
       </c>
       <c r="H56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.6696862890384314</v>
+        <f t="shared" si="55"/>
+        <v>1.6683388627158626</v>
       </c>
       <c r="I56" s="43">
-        <f t="shared" si="58"/>
-        <v>2.9492277895175816</v>
+        <f t="shared" si="55"/>
+        <v>2.9468556480246635</v>
       </c>
       <c r="J56" s="43">
-        <f t="shared" si="58"/>
-        <v>7.5973274819053227</v>
+        <f t="shared" si="55"/>
+        <v>7.5957792336625545</v>
       </c>
       <c r="K56" s="43">
-        <f t="shared" si="58"/>
-        <v>7.634851836168985</v>
+        <f t="shared" si="55"/>
+        <v>7.6321636453215032</v>
       </c>
       <c r="L56" s="43">
-        <f t="shared" si="58"/>
-        <v>3.2036757736475572</v>
+        <f t="shared" si="55"/>
+        <v>3.1992537627016224</v>
       </c>
       <c r="M56" s="43">
-        <f t="shared" si="58"/>
-        <v>3.2615221304415534</v>
+        <f t="shared" si="55"/>
+        <v>3.2603116190921853</v>
       </c>
       <c r="N56" s="43">
-        <f t="shared" si="58"/>
-        <v>3.5838384791880342</v>
+        <f t="shared" si="55"/>
+        <v>3.5815030227644313</v>
       </c>
       <c r="O56" s="43">
-        <f t="shared" si="58"/>
-        <v>3.3881621804594859</v>
+        <f t="shared" si="55"/>
+        <v>3.3792228905920068</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="58"/>
-        <v>2.1569493917741633</v>
+        <f t="shared" si="55"/>
+        <v>2.1554140404435831</v>
       </c>
       <c r="Q56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.3049207967126559</v>
+        <f t="shared" si="55"/>
+        <v>1.3038978815282003</v>
       </c>
       <c r="R56" s="43">
-        <f t="shared" si="58"/>
-        <v>0.43950128015978857</v>
+        <f t="shared" si="55"/>
+        <v>0.43921637503014671</v>
       </c>
       <c r="S56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.5996833026997095</v>
+        <f t="shared" si="55"/>
+        <v>1.5982157110950046</v>
       </c>
       <c r="T56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.1630573821513441</v>
+        <f t="shared" si="55"/>
+        <v>1.1622710860941008</v>
       </c>
       <c r="U56" s="43">
-        <f t="shared" si="58"/>
-        <v>0.55637668885283209</v>
+        <f t="shared" si="55"/>
+        <v>0.55550872482665381</v>
       </c>
       <c r="V56" s="43">
-        <f t="shared" si="58"/>
-        <v>2.6609718264573496</v>
+        <f t="shared" si="55"/>
+        <v>2.6592544764597745</v>
       </c>
       <c r="W56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.235351546838251</v>
+        <f t="shared" si="55"/>
+        <v>1.2329998691966662</v>
       </c>
       <c r="X56" s="43">
-        <f t="shared" si="58"/>
-        <v>0.90379870102624049</v>
+        <f t="shared" si="55"/>
+        <v>0.90264306029149588</v>
       </c>
       <c r="Y56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.1327590871265694</v>
+        <f t="shared" si="55"/>
+        <v>1.13223831582726</v>
       </c>
       <c r="Z56" s="43">
-        <f t="shared" si="58"/>
-        <v>0.99959931082667119</v>
+        <f t="shared" si="55"/>
+        <v>0.99903965253182458</v>
       </c>
       <c r="AA56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.4371047150063272</v>
+        <f t="shared" si="55"/>
+        <v>1.4361567648641842</v>
       </c>
       <c r="AB56" s="43">
-        <f t="shared" si="58"/>
-        <v>10.86473168662096</v>
+        <f t="shared" si="55"/>
+        <v>10.859638478556318</v>
       </c>
       <c r="AC56" s="43">
-        <f t="shared" si="58"/>
-        <v>2.1105581118803922</v>
+        <f t="shared" si="55"/>
+        <v>2.1089583248288717</v>
       </c>
       <c r="AD56" s="43">
-        <f t="shared" si="58"/>
-        <v>1.0206809709951274</v>
+        <f t="shared" si="55"/>
+        <v>1.0201546623856241</v>
       </c>
       <c r="AE56" s="43">
-        <f t="shared" si="58"/>
-        <v>70.533279468085937</v>
+        <f t="shared" si="55"/>
+        <v>70.240764425198549</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
@@ -10935,123 +10940,123 @@
       </c>
       <c r="B57" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.042*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.042*0.0000000001)^3))))</f>
-        <v>2.1182612951919877</v>
+        <v>2.1180187035986053</v>
       </c>
       <c r="C57" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.042*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.042*0.0000000001)^3))))</f>
-        <v>2.1471949439869933</v>
+        <v>2.1469089168292066</v>
       </c>
       <c r="D57" s="43">
-        <f t="shared" ref="D57:AE57" si="59">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.042*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.042*0.0000000001)^3))))</f>
-        <v>3.0763580838807023</v>
+        <f t="shared" ref="D57:AE57" si="56">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.042*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.042*0.0000000001)^3))))</f>
+        <v>3.0757202371960637</v>
       </c>
       <c r="E57" s="43">
-        <f t="shared" si="59"/>
-        <v>7.4505118275135205</v>
+        <f t="shared" si="56"/>
+        <v>7.4453838046865135</v>
       </c>
       <c r="F57" s="43">
-        <f t="shared" si="59"/>
-        <v>2.1798761445979529</v>
+        <f t="shared" si="56"/>
+        <v>2.177879511252232</v>
       </c>
       <c r="G57" s="43">
-        <f t="shared" si="59"/>
-        <v>3.0751893817940541</v>
+        <f t="shared" si="56"/>
+        <v>3.0735690401887936</v>
       </c>
       <c r="H57" s="43">
-        <f t="shared" si="59"/>
-        <v>1.4156614051256098</v>
+        <f t="shared" si="56"/>
+        <v>1.4147118188605292</v>
       </c>
       <c r="I57" s="43">
-        <f t="shared" si="59"/>
-        <v>2.5035859276102239</v>
+        <f t="shared" si="56"/>
+        <v>2.5019014352480378</v>
       </c>
       <c r="J57" s="43">
-        <f t="shared" si="59"/>
-        <v>6.2394293518470505</v>
+        <f t="shared" si="56"/>
+        <v>6.2383844530275283</v>
       </c>
       <c r="K57" s="43">
-        <f t="shared" si="59"/>
-        <v>6.3047246231965852</v>
+        <f t="shared" si="56"/>
+        <v>6.3028748969031865</v>
       </c>
       <c r="L57" s="43">
-        <f t="shared" si="59"/>
-        <v>2.6550842532098309</v>
+        <f t="shared" si="56"/>
+        <v>2.6521537399766957</v>
       </c>
       <c r="M57" s="43">
-        <f t="shared" si="59"/>
-        <v>2.6787129831236838</v>
+        <f t="shared" si="56"/>
+        <v>2.6779187716679025</v>
       </c>
       <c r="N57" s="43">
-        <f t="shared" si="59"/>
-        <v>2.9645321805399272</v>
+        <f t="shared" si="56"/>
+        <v>2.9629823301119438</v>
       </c>
       <c r="O57" s="43">
-        <f t="shared" si="59"/>
-        <v>2.9159556385592911</v>
+        <f t="shared" si="56"/>
+        <v>2.9097537169131567</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="59"/>
-        <v>1.8057063912827274</v>
+        <f t="shared" si="56"/>
+        <v>1.8047149926966373</v>
       </c>
       <c r="Q57" s="43">
-        <f t="shared" si="59"/>
-        <v>1.1031815501840065</v>
+        <f t="shared" si="56"/>
+        <v>1.1025385641896173</v>
       </c>
       <c r="R57" s="43">
-        <f t="shared" si="59"/>
-        <v>0.3658466156920217</v>
+        <f t="shared" si="56"/>
+        <v>0.36570347107065654</v>
       </c>
       <c r="S57" s="43">
-        <f t="shared" si="59"/>
-        <v>1.3746643660537698</v>
+        <f t="shared" si="56"/>
+        <v>1.3736728015716559</v>
       </c>
       <c r="T57" s="43">
-        <f t="shared" si="59"/>
-        <v>0.98946013871853766</v>
+        <f t="shared" si="56"/>
+        <v>0.98894133857617972</v>
       </c>
       <c r="U57" s="43">
-        <f t="shared" si="59"/>
-        <v>0.47486647714431635</v>
+        <f t="shared" si="56"/>
+        <v>0.47435437106621631</v>
       </c>
       <c r="V57" s="43">
-        <f t="shared" si="59"/>
-        <v>2.2248030070354035</v>
+        <f t="shared" si="56"/>
+        <v>2.223656029536432</v>
       </c>
       <c r="W57" s="43">
-        <f t="shared" si="59"/>
-        <v>1.0809065450579405</v>
+        <f t="shared" si="56"/>
+        <v>1.0793440556411409</v>
       </c>
       <c r="X57" s="43">
-        <f t="shared" si="59"/>
-        <v>0.77414784119885671</v>
+        <f t="shared" si="56"/>
+        <v>0.7734313229552231</v>
       </c>
       <c r="Y57" s="43">
-        <f t="shared" si="59"/>
-        <v>0.9393415288000232</v>
+        <f t="shared" si="56"/>
+        <v>0.93900918434478275</v>
       </c>
       <c r="Z57" s="43">
-        <f t="shared" si="59"/>
-        <v>0.83610583636819724</v>
+        <f t="shared" si="56"/>
+        <v>0.83574669700599735</v>
       </c>
       <c r="AA57" s="43">
-        <f t="shared" si="59"/>
-        <v>1.2050230107297915</v>
+        <f t="shared" si="56"/>
+        <v>1.2044103728461359</v>
       </c>
       <c r="AB57" s="43">
-        <f t="shared" si="59"/>
-        <v>8.5166193289120713</v>
+        <f t="shared" si="56"/>
+        <v>8.5138882213878322</v>
       </c>
       <c r="AC57" s="43">
-        <f t="shared" si="59"/>
-        <v>1.8119364180548039</v>
+        <f t="shared" si="56"/>
+        <v>1.8108577154058303</v>
       </c>
       <c r="AD57" s="43">
-        <f t="shared" si="59"/>
-        <v>0.86352055570319897</v>
+        <f t="shared" si="56"/>
+        <v>0.86323521624267607</v>
       </c>
       <c r="AE57" s="43">
-        <f t="shared" si="59"/>
-        <v>60.779605091688715</v>
+        <f t="shared" si="56"/>
+        <v>60.587030244329448</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
@@ -11060,123 +11065,123 @@
       </c>
       <c r="B58" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(B19+273.15)/8.31+8.09915077406752*B28+14.164822613712*B22+18.6234564741488*B31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*B31)*1000000000*6.02E+23)/(8.31*(B19+273.15)))*((((1.13420686227572+0.136783049036052*B29)*0.0000000001/2*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.032*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*B29)*0.0000000001-1.032*0.0000000001)^3))))</f>
-        <v>1.6402268707298835</v>
+        <v>1.6402030975019142</v>
       </c>
       <c r="C58" s="43">
         <f>EXP(-194.750048582546+66615.7411108772/(C19+273.15)/8.31+8.09915077406752*C28+14.164822613712*C22+18.6234564741488*C31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*C31)*1000000000*6.02E+23)/(8.31*(C19+273.15)))*((((1.13420686227572+0.136783049036052*C29)*0.0000000001/2*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.032*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*C29)*0.0000000001-1.032*0.0000000001)^3))))</f>
-        <v>1.6815921171083434</v>
+        <v>1.6815455968366055</v>
       </c>
       <c r="D58" s="43">
-        <f t="shared" ref="D58:AE58" si="60">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.032*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.032*0.0000000001)^3))))</f>
-        <v>2.4510939566894798</v>
+        <f t="shared" ref="D58:AE58" si="57">EXP(-194.750048582546+66615.7411108772/(D19+273.15)/8.31+8.09915077406752*D28+14.164822613712*D22+18.6234564741488*D31)*EXP(((-4*PI()*(-2173.59341853157+417.257453526437*D31)*1000000000*6.02E+23)/(8.31*(D19+273.15)))*((((1.13420686227572+0.136783049036052*D29)*0.0000000001/2*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.032*0.0000000001)^2)-(1/3*((1.13420686227572+0.136783049036052*D29)*0.0000000001-1.032*0.0000000001)^3))))</f>
+        <v>2.4507700887945658</v>
       </c>
       <c r="E58" s="43">
-        <f t="shared" si="60"/>
-        <v>6.1685077779886104</v>
+        <f t="shared" si="57"/>
+        <v>6.1651243608452564</v>
       </c>
       <c r="F58" s="43">
-        <f t="shared" si="60"/>
-        <v>1.8212696775910142</v>
+        <f t="shared" si="57"/>
+        <v>1.8200074175021264</v>
       </c>
       <c r="G58" s="43">
-        <f t="shared" si="60"/>
-        <v>2.5457509678537966</v>
+        <f t="shared" si="57"/>
+        <v>2.5446917305012131</v>
       </c>
       <c r="H58" s="43">
-        <f t="shared" si="60"/>
-        <v>1.1800742234149291</v>
+        <f t="shared" si="57"/>
+        <v>1.1794599568765383</v>
       </c>
       <c r="I58" s="43">
-        <f t="shared" si="60"/>
-        <v>2.0903492153034531</v>
+        <f t="shared" si="57"/>
+        <v>2.0892453908371831</v>
       </c>
       <c r="J58" s="43">
-        <f t="shared" si="60"/>
-        <v>5.0303108392813529</v>
+        <f t="shared" si="57"/>
+        <v>5.0296680910176566</v>
       </c>
       <c r="K58" s="43">
-        <f t="shared" si="60"/>
-        <v>5.1110903931938125</v>
+        <f t="shared" si="57"/>
+        <v>5.109919607142519</v>
       </c>
       <c r="L58" s="43">
-        <f t="shared" si="60"/>
-        <v>2.1578539905639511</v>
+        <f t="shared" si="57"/>
+        <v>2.1561313325703524</v>
       </c>
       <c r="M58" s="43">
-        <f t="shared" si="60"/>
-        <v>2.1554493341231602</v>
+        <f t="shared" si="57"/>
+        <v>2.1549879447392528</v>
       </c>
       <c r="N58" s="43">
-        <f t="shared" si="60"/>
-        <v>2.4043206812342262</v>
+        <f t="shared" si="57"/>
+        <v>2.4034058221518895</v>
       </c>
       <c r="O58" s="43">
-        <f t="shared" si="60"/>
-        <v>2.4706795452056944</v>
+        <f t="shared" si="57"/>
+        <v>2.4668206478027517</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="60"/>
-        <v>1.4842609201356296</v>
+        <f t="shared" si="57"/>
+        <v>1.4837124937166424</v>
       </c>
       <c r="Q58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.91689090434885812</v>
+        <f t="shared" si="57"/>
+        <v>0.91655950604378356</v>
       </c>
       <c r="R58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.2992506028092034</v>
+        <f t="shared" si="57"/>
+        <v>0.29921771095525806</v>
       </c>
       <c r="S58" s="43">
-        <f t="shared" si="60"/>
-        <v>1.1630214980936029</v>
+        <f t="shared" si="57"/>
+        <v>1.1624341614028533</v>
       </c>
       <c r="T58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.82786664117188402</v>
+        <f t="shared" si="57"/>
+        <v>0.82757113833203844</v>
       </c>
       <c r="U58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.39913908701167267</v>
+        <f t="shared" si="57"/>
+        <v>0.39891942975534445</v>
       </c>
       <c r="V58" s="43">
-        <f t="shared" si="60"/>
-        <v>1.8260733874384971</v>
+        <f t="shared" si="57"/>
+        <v>1.8253935597420217</v>
       </c>
       <c r="W58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.93329443100940612</v>
+        <f t="shared" si="57"/>
+        <v>0.93241544669994247</v>
       </c>
       <c r="X58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.65319034681786015</v>
+        <f t="shared" si="57"/>
+        <v>0.65283878197488854</v>
       </c>
       <c r="Y58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.7640888861894507</v>
+        <f t="shared" si="57"/>
+        <v>0.76390781380999095</v>
       </c>
       <c r="Z58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.68660697967082529</v>
+        <f t="shared" si="57"/>
+        <v>0.68641077086958602</v>
       </c>
       <c r="AA58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.99252748327002216</v>
+        <f t="shared" si="57"/>
+        <v>0.99218817862504116</v>
       </c>
       <c r="AB58" s="43">
-        <f t="shared" si="60"/>
-        <v>6.5260043398069696</v>
+        <f t="shared" si="57"/>
+        <v>6.524967258960376</v>
       </c>
       <c r="AC58" s="43">
-        <f t="shared" si="60"/>
-        <v>1.5325262819489112</v>
+        <f t="shared" si="57"/>
+        <v>1.5318874849331183</v>
       </c>
       <c r="AD58" s="43">
-        <f t="shared" si="60"/>
-        <v>0.71971401757829689</v>
+        <f t="shared" si="57"/>
+        <v>0.71962127660675201</v>
       </c>
       <c r="AE58" s="43">
-        <f t="shared" si="60"/>
-        <v>51.570028300714306</v>
+        <f t="shared" si="57"/>
+        <v>51.462417642744285</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
@@ -11661,17 +11666,17 @@
     <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A14 A16:A18">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A32 A34:A35">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:AE35">
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
